--- a/API.xlsx
+++ b/API.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="552">
   <si>
     <t>Title</t>
   </si>
@@ -1810,9 +1810,6 @@
 }</t>
   </si>
   <si>
-    <t>Modify Banner Image</t>
-  </si>
-  <si>
     <t>First Level Project</t>
   </si>
   <si>
@@ -1974,15 +1971,9 @@
     <t>http://localhost:3000/api/doctor_title/modify</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/doctor/get_doctors</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/doctor/change_status</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/doctor/delete_doctor</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/doctor/get_by_id</t>
   </si>
   <si>
@@ -1992,96 +1983,21 @@
     <t>http://localhost:3000/api/doctor/modify</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/hospital/get_hospitals</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/hospital/change_status</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/hospital/delete_hospital</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/hospital/get_hospital_id</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/hospital/add</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/hospital/modify_hospital</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/raider_category/get_raider_categories</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/raider_category/change_status</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/raider_category/delete_category</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/raider_category/get_raider_category_id</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/raider_category/add_raider_category</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/raider_category/modify_raider_category</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/raider/get_raiders</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/raider/change_status</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/raider/delete_raider</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/raider/get_raider_id</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/raider/add_raider</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/raider/modify_raider</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/korean/modify_korean</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/korean/get_korean</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/member/get_members</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/member/change_status</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/member/delete_member</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/member/get_member_id</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/member/add_member</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/member/modify_member</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/contact_us/get_contact_us</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/contact_us/modify_contact_us</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/contact_us/get_copyright</t>
-  </si>
-  <si>
-    <t>http://localhost:3000/api/contact_us/modify_copyright</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/helpcenter/get_helpcenter</t>
   </si>
   <si>
@@ -2163,9 +2079,6 @@
     <t>http://localhost:3000/api/banner/upload_image</t>
   </si>
   <si>
-    <t>http://localhost:3000/api/banner/modify_banner_image</t>
-  </si>
-  <si>
     <t>http://localhost:3000/api/first_level_project/get_project_id_name/</t>
   </si>
   <si>
@@ -2191,6 +2104,165 @@
   </si>
   <si>
     <t>http://localhost:3000/api/nation/get_by_id</t>
+  </si>
+  <si>
+    <t>Get Doctors by Title</t>
+  </si>
+  <si>
+    <t>Hospital Table</t>
+  </si>
+  <si>
+    <t>Upload Logo Image</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/hostpital/upload_logo/</t>
+  </si>
+  <si>
+    <t>logo_image</t>
+  </si>
+  <si>
+    <t>Upload Publicity Image</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/hostpital/upload_publicity/</t>
+  </si>
+  <si>
+    <t>publicity_image1</t>
+  </si>
+  <si>
+    <t>publicity_image2</t>
+  </si>
+  <si>
+    <t>publicity_image3</t>
+  </si>
+  <si>
+    <t>publicity_image4</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>hospital_id</t>
+  </si>
+  <si>
+    <t>doctor_id</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Case Table</t>
+  </si>
+  <si>
+    <t>Upload Image</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/case/upload_image</t>
+  </si>
+  <si>
+    <t>case_image</t>
+  </si>
+  <si>
+    <t>Raider Table</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider/upload_image</t>
+  </si>
+  <si>
+    <t>raider_image</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/doctor/get</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/doctor/delete</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/hospital/get</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/hospital/delete</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/hospital/get_by_id</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/hospital/modify</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider_category/get</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider_category/delete</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider_category/get_by_id</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider_category/add</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider_category/modify</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider/get</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider/delete</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider/get_by_id</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider/add</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/raider/modify</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/korean/modify</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/korean/get</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/member/get</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/member/delete</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/member/get_by_id</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/member/add</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/member/modify</t>
+  </si>
+  <si>
+    <t>Core_Team Table</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/member/upload_image</t>
+  </si>
+  <si>
+    <t>member_image</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/contact/get</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/contact/modify</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/copyright/get</t>
+  </si>
+  <si>
+    <t>http://localhost:3000/api/copyright/modify</t>
   </si>
 </sst>
 </file>
@@ -2504,9 +2576,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2576,31 +2645,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2630,10 +2708,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2642,10 +2768,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2657,64 +2783,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2739,12 +2811,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1391478</xdr:colOff>
       <xdr:row>273</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1962978</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3076,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B264" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F285" sqref="F285"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3087,7 +3159,7 @@
     <col min="1" max="1" width="40.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.140625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="64.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.85546875" style="1" customWidth="1"/>
@@ -3111,126 +3183,126 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="72" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="83" t="s">
-        <v>426</v>
+      <c r="C8" s="47" t="s">
+        <v>425</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>427</v>
+      <c r="C9" s="47" t="s">
+        <v>426</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>35</v>
@@ -3238,20 +3310,20 @@
       <c r="E9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="83" t="s">
-        <v>428</v>
+      <c r="C10" s="47" t="s">
+        <v>427</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>38</v>
@@ -3259,22 +3331,22 @@
       <c r="E10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="74" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>429</v>
+      <c r="C11" s="47" t="s">
+        <v>428</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>8</v>
@@ -3282,22 +3354,22 @@
       <c r="E11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="80" t="s">
-        <v>430</v>
-      </c>
-      <c r="D12" s="55" t="s">
+      <c r="C12" s="69" t="s">
+        <v>429</v>
+      </c>
+      <c r="D12" s="57" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3306,146 +3378,146 @@
       <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="27" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="33" t="s">
+      <c r="F13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="66"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="28" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="28" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="67"/>
+      <c r="G15" s="85"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="61" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="80" t="s">
-        <v>431</v>
-      </c>
-      <c r="D16" s="55" t="s">
+      <c r="C16" s="69" t="s">
+        <v>430</v>
+      </c>
+      <c r="D16" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="46" t="s">
+      <c r="F16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="28" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="47"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="28" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="47"/>
+      <c r="G18" s="67"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="28" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="F19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="29" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="72" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="83" t="s">
-        <v>432</v>
+      <c r="C21" s="47" t="s">
+        <v>431</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="83" t="s">
-        <v>433</v>
+      <c r="C22" s="47" t="s">
+        <v>432</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>35</v>
@@ -3453,20 +3525,20 @@
       <c r="E22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="83" t="s">
-        <v>434</v>
+      <c r="C23" s="47" t="s">
+        <v>433</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>38</v>
@@ -3474,135 +3546,135 @@
       <c r="E23" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="78" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="83" t="s">
-        <v>435</v>
+      <c r="C24" s="47" t="s">
+        <v>434</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="61" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="68"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="79"/>
+      <c r="B27" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>436</v>
       </c>
-      <c r="D25" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="26" t="s">
+      <c r="D27" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="79"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="33" t="s">
+      <c r="F28" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="29" t="s">
+      <c r="G28" s="67"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="80"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F29" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="80" t="s">
-        <v>437</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="48"/>
+      <c r="G29" s="68"/>
     </row>
     <row r="30" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="78" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="84" t="s">
-        <v>438</v>
+      <c r="C30" s="48" t="s">
+        <v>437</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="24" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
+      <c r="A31" s="79"/>
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="84" t="s">
-        <v>439</v>
+      <c r="C31" s="48" t="s">
+        <v>438</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>35</v>
@@ -3610,20 +3682,20 @@
       <c r="E31" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="25" t="s">
+      <c r="F31" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="84" t="s">
-        <v>440</v>
+      <c r="C32" s="48" t="s">
+        <v>439</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>38</v>
@@ -3631,162 +3703,162 @@
       <c r="E32" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="74" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="84" t="s">
-        <v>441</v>
+      <c r="C33" s="48" t="s">
+        <v>440</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="61" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="75"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="67"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="75"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="68"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="75"/>
+      <c r="B37" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="D34" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="27" t="s">
+      <c r="D37" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="75"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="28" t="s">
+      <c r="F38" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="67"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="75"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="29" t="s">
+      <c r="F39" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="67"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="76"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="48"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>443</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="48"/>
+      <c r="F40" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="74" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="84" t="s">
-        <v>444</v>
+      <c r="C41" s="48" t="s">
+        <v>443</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="11"/>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="24" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="53"/>
+      <c r="A42" s="75"/>
       <c r="B42" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="84" t="s">
-        <v>445</v>
+      <c r="C42" s="48" t="s">
+        <v>444</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>35</v>
@@ -3794,20 +3866,20 @@
       <c r="E42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="F42" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
+      <c r="A43" s="76"/>
       <c r="B43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="84" t="s">
-        <v>446</v>
+      <c r="C43" s="48" t="s">
+        <v>445</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>38</v>
@@ -3815,22 +3887,22 @@
       <c r="E43" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="78" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="84" t="s">
-        <v>447</v>
+      <c r="C44" s="48" t="s">
+        <v>446</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>8</v>
@@ -3838,599 +3910,599 @@
       <c r="E44" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="25" t="s">
+      <c r="F44" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="61" t="s">
+    <row r="45" spans="1:7" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="79"/>
+      <c r="B45" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="80" t="s">
+      <c r="C45" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="D45" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="79"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="79"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="67"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="79"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="67"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="79"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="79"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="67"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="79"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="79"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="67"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="79"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" s="67"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="79"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="79"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="67"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="79"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="67"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="79"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="67"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="79"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="67"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="79"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="67"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="79"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" s="67"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="79"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" s="67"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="79"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" s="67"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="79"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" s="67"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="79"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="67"/>
+    </row>
+    <row r="65" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="79"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="83"/>
+      <c r="E65" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" s="68"/>
+    </row>
+    <row r="66" spans="1:7" s="44" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="79"/>
+      <c r="B66" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="69" t="s">
         <v>448</v>
       </c>
-      <c r="D45" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="27" t="s">
+      <c r="D66" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="44"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="28" t="s">
+      <c r="F66" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="79"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="28" t="s">
+      <c r="F67" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="67"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="79"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="47"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="28" t="s">
+      <c r="F68" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68" s="67"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="79"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="47"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="28" t="s">
+      <c r="F69" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G69" s="67"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="79"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="47"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="28" t="s">
+      <c r="F70" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="67"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="79"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="89" t="s">
+      <c r="F71" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="28" t="s">
+      <c r="G71" s="67"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="79"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="89" t="s">
+      <c r="F72" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="28" t="s">
+      <c r="G72" s="67"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="79"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="58"/>
+      <c r="E73" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="28" t="s">
+      <c r="F73" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="67"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="79"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53" s="47"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="30" t="s">
+      <c r="F74" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" s="67"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="79"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="30" t="s">
+      <c r="F75" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="67"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="79"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="89" t="s">
+      <c r="F76" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G55" s="47"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="30" t="s">
+      <c r="G76" s="67"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="79"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="47"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="30" t="s">
+      <c r="F77" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77" s="67"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="79"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F57" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="47"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="62"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="30" t="s">
+      <c r="F78" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="67"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="79"/>
+      <c r="B79" s="64"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="47"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="30" t="s">
+      <c r="F79" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G79" s="67"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="79"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F59" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59" s="47"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="F60" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G60" s="47"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="30" t="s">
+      <c r="F80" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="67"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="79"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="70"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="67"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="79"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G61" s="47"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="30" t="s">
+      <c r="F82" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="67"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="79"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G62" s="47"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="30" t="s">
+      <c r="F83" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="67"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="79"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63" s="47"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="30" t="s">
+      <c r="F84" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84" s="67"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="79"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" s="47"/>
-    </row>
-    <row r="65" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="50"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="31" t="s">
+      <c r="F85" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" s="67"/>
+    </row>
+    <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="80"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F65" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="G65" s="48"/>
-    </row>
-    <row r="66" spans="1:7" s="45" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="50"/>
-      <c r="B66" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="80" t="s">
-        <v>449</v>
-      </c>
-      <c r="D66" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F66" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="G66" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F67" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G67" s="47"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="50"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F68" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G68" s="47"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G69" s="47"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="81"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G70" s="47"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="62"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="47"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="81"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="47"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" s="47"/>
-    </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F74" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" s="47"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F75" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G75" s="47"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="62"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F76" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="47"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F77" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G77" s="47"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G78" s="47"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G79" s="47"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="62"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80" s="47"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G81" s="47"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F82" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G82" s="47"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="62"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G83" s="47"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84" s="47"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="62"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85" s="47"/>
-    </row>
-    <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="51"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F86" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G86" s="48"/>
+      <c r="F86" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="68"/>
     </row>
     <row r="87" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="64" t="s">
+      <c r="A87" s="72" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C87" s="83" t="s">
-        <v>450</v>
+      <c r="C87" s="47" t="s">
+        <v>449</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="25" t="s">
+      <c r="G87" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="65"/>
+      <c r="A88" s="73"/>
       <c r="B88" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="83" t="s">
-        <v>451</v>
+      <c r="C88" s="47" t="s">
+        <v>450</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>38</v>
@@ -4438,22 +4510,22 @@
       <c r="E88" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F88" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G88" s="25" t="s">
+      <c r="F88" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G88" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="74" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="83" t="s">
-        <v>452</v>
+      <c r="C89" s="47" t="s">
+        <v>451</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>8</v>
@@ -4461,118 +4533,118 @@
       <c r="E89" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G89" s="25" t="s">
+      <c r="F89" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G89" s="24" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="61" t="s">
+      <c r="A90" s="75"/>
+      <c r="B90" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="80" t="s">
+      <c r="C90" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="D90" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G90" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="75"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G91" s="68"/>
+    </row>
+    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="75"/>
+      <c r="B92" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="69" t="s">
         <v>453</v>
       </c>
-      <c r="D90" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="27" t="s">
+      <c r="D92" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G92" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="75"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="F90" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G90" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="53"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="29" t="s">
+      <c r="F93" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" s="67"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="76"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F91" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G91" s="48"/>
-    </row>
-    <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
-      <c r="B92" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="80" t="s">
-        <v>454</v>
-      </c>
-      <c r="D92" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F92" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G92" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F93" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G93" s="47"/>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="54"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F94" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G94" s="48"/>
+      <c r="F94" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G94" s="68"/>
     </row>
     <row r="95" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="64" t="s">
+      <c r="A95" s="72" t="s">
         <v>112</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C95" s="83" t="s">
-        <v>455</v>
+      <c r="C95" s="47" t="s">
+        <v>522</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="25" t="s">
+      <c r="G95" s="24" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="68"/>
+      <c r="A96" s="77"/>
       <c r="B96" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C96" s="83" t="s">
-        <v>456</v>
+      <c r="C96" s="47" t="s">
+        <v>454</v>
       </c>
       <c r="D96" s="18" t="s">
         <v>35</v>
@@ -4580,20 +4652,20 @@
       <c r="E96" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F96" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G96" s="25" t="s">
+      <c r="F96" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G96" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="65"/>
+      <c r="A97" s="73"/>
       <c r="B97" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C97" s="83" t="s">
-        <v>457</v>
+      <c r="C97" s="47" t="s">
+        <v>523</v>
       </c>
       <c r="D97" s="18" t="s">
         <v>38</v>
@@ -4601,22 +4673,22 @@
       <c r="E97" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F97" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G97" s="25" t="s">
+      <c r="F97" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G97" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="64" t="s">
+      <c r="A98" s="72" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="83" t="s">
-        <v>458</v>
+      <c r="C98" s="47" t="s">
+        <v>455</v>
       </c>
       <c r="D98" s="18" t="s">
         <v>8</v>
@@ -4624,365 +4696,365 @@
       <c r="E98" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F98" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G98" s="25" t="s">
+      <c r="F98" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G98" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="68"/>
-      <c r="B99" s="61" t="s">
+    <row r="99" spans="1:7" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="77"/>
+      <c r="B99" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="80" t="s">
-        <v>459</v>
-      </c>
-      <c r="D99" s="55" t="s">
+      <c r="C99" s="69" t="s">
+        <v>456</v>
+      </c>
+      <c r="D99" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E99" s="27" t="s">
+      <c r="E99" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F99" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G99" s="46" t="s">
+      <c r="F99" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G99" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="68"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="27" t="s">
+      <c r="A100" s="77"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="70"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F100" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G100" s="47"/>
+      <c r="F100" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="67"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="68"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="28" t="s">
+      <c r="A101" s="77"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F101" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G101" s="47"/>
+      <c r="F101" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G101" s="67"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="68"/>
-      <c r="B102" s="62"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="28" t="s">
+      <c r="A102" s="77"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="70"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F102" s="34" t="s">
+      <c r="F102" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G102" s="47"/>
+      <c r="G102" s="67"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="68"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="28" t="s">
+      <c r="A103" s="77"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F103" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G103" s="47"/>
+      <c r="F103" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G103" s="67"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="68"/>
-      <c r="B104" s="62"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="28" t="s">
+      <c r="A104" s="77"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F104" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G104" s="47"/>
+      <c r="F104" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G104" s="67"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="68"/>
-      <c r="B105" s="62"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="28" t="s">
+      <c r="A105" s="77"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F105" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G105" s="47"/>
-    </row>
-    <row r="106" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="28" t="s">
+      <c r="F105" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105" s="67"/>
+    </row>
+    <row r="106" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="77"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="F106" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G106" s="47"/>
-    </row>
-    <row r="107" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
-      <c r="B107" s="62"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="28" t="s">
+      <c r="F106" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G106" s="67"/>
+    </row>
+    <row r="107" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="77"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="F107" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G107" s="47"/>
-    </row>
-    <row r="108" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
-      <c r="B108" s="62"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="28" t="s">
+      <c r="F107" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107" s="67"/>
+    </row>
+    <row r="108" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="77"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="F108" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G108" s="47"/>
+      <c r="F108" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G108" s="67"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="68"/>
-      <c r="B109" s="62"/>
-      <c r="C109" s="81"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="28" t="s">
+      <c r="A109" s="77"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="70"/>
+      <c r="D109" s="58"/>
+      <c r="E109" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F109" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G109" s="47"/>
+      <c r="F109" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G109" s="67"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="68"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="29" t="s">
+      <c r="A110" s="77"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="59"/>
+      <c r="E110" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F110" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G110" s="48"/>
+      <c r="F110" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110" s="68"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="68"/>
-      <c r="B111" s="61" t="s">
+      <c r="A111" s="77"/>
+      <c r="B111" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="D111" s="55" t="s">
+      <c r="C111" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="D111" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E111" s="27" t="s">
+      <c r="E111" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F111" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G111" s="46" t="s">
+      <c r="F111" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="68"/>
-      <c r="B112" s="62"/>
-      <c r="C112" s="81"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="28" t="s">
+      <c r="A112" s="77"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="70"/>
+      <c r="D112" s="58"/>
+      <c r="E112" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F112" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G112" s="47"/>
+      <c r="F112" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="67"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="68"/>
-      <c r="B113" s="62"/>
-      <c r="C113" s="81"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="28" t="s">
+      <c r="A113" s="77"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="58"/>
+      <c r="E113" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F113" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G113" s="47"/>
+      <c r="F113" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G113" s="67"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
-      <c r="B114" s="62"/>
-      <c r="C114" s="81"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="28" t="s">
+      <c r="A114" s="77"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="70"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="F114" s="34" t="s">
+      <c r="F114" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G114" s="47"/>
+      <c r="G114" s="67"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="68"/>
-      <c r="B115" s="62"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="56"/>
-      <c r="E115" s="28" t="s">
+      <c r="A115" s="77"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="70"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F115" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G115" s="47"/>
+      <c r="F115" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G115" s="67"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="68"/>
-      <c r="B116" s="62"/>
-      <c r="C116" s="81"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="28" t="s">
+      <c r="A116" s="77"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="70"/>
+      <c r="D116" s="58"/>
+      <c r="E116" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="F116" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G116" s="47"/>
+      <c r="F116" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G116" s="67"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="68"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="81"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="28" t="s">
+      <c r="A117" s="77"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="58"/>
+      <c r="E117" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F117" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G117" s="47"/>
-    </row>
-    <row r="118" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="68"/>
-      <c r="B118" s="62"/>
-      <c r="C118" s="81"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="28" t="s">
+      <c r="F117" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117" s="67"/>
+    </row>
+    <row r="118" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="77"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="70"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="F118" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G118" s="47"/>
-    </row>
-    <row r="119" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="68"/>
-      <c r="B119" s="62"/>
-      <c r="C119" s="81"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="28" t="s">
+      <c r="F118" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G118" s="67"/>
+    </row>
+    <row r="119" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="77"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="58"/>
+      <c r="E119" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="F119" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G119" s="47"/>
-    </row>
-    <row r="120" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="68"/>
-      <c r="B120" s="62"/>
-      <c r="C120" s="81"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="28" t="s">
+      <c r="F119" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G119" s="67"/>
+    </row>
+    <row r="120" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="77"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="70"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="F120" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G120" s="47"/>
+      <c r="F120" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G120" s="67"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="68"/>
-      <c r="B121" s="62"/>
-      <c r="C121" s="81"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="28" t="s">
+      <c r="A121" s="77"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F121" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G121" s="47"/>
+      <c r="F121" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G121" s="67"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="65"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="82"/>
-      <c r="D122" s="57"/>
-      <c r="E122" s="29" t="s">
+      <c r="A122" s="73"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F122" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G122" s="48"/>
+      <c r="F122" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G122" s="68"/>
     </row>
     <row r="123" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="64" t="s">
+      <c r="A123" s="72" t="s">
         <v>130</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C123" s="21" t="s">
-        <v>461</v>
+      <c r="C123" s="47" t="s">
+        <v>524</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="25" t="s">
+      <c r="G123" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="68"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C124" s="21" t="s">
-        <v>462</v>
+      <c r="C124" s="47" t="s">
+        <v>458</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>35</v>
@@ -4990,20 +5062,20 @@
       <c r="E124" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F124" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G124" s="25" t="s">
+      <c r="F124" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="65"/>
+      <c r="A125" s="73"/>
       <c r="B125" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C125" s="21" t="s">
-        <v>463</v>
+      <c r="C125" s="47" t="s">
+        <v>525</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>38</v>
@@ -5011,22 +5083,22 @@
       <c r="E125" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F125" s="32" t="s">
+      <c r="F125" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G125" s="25" t="s">
+      <c r="G125" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="74" t="s">
         <v>116</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C126" s="21" t="s">
-        <v>464</v>
+      <c r="C126" s="47" t="s">
+        <v>526</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>8</v>
@@ -5034,383 +5106,383 @@
       <c r="E126" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F126" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G126" s="25" t="s">
+      <c r="F126" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G126" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="53"/>
-      <c r="B127" s="61" t="s">
+    <row r="127" spans="1:7" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="75"/>
+      <c r="B127" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C127" s="58" t="s">
-        <v>465</v>
-      </c>
-      <c r="D127" s="55" t="s">
+      <c r="C127" s="69" t="s">
+        <v>459</v>
+      </c>
+      <c r="D127" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="27" t="s">
+      <c r="E127" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F127" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G127" s="44"/>
+      <c r="F127" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G127" s="43"/>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
-      <c r="B128" s="62"/>
-      <c r="C128" s="59"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="27" t="s">
+      <c r="A128" s="75"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="70"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F128" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G128" s="46" t="s">
+      <c r="F128" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G128" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="53"/>
-      <c r="B129" s="62"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="56"/>
-      <c r="E129" s="28" t="s">
+      <c r="A129" s="75"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F129" s="34" t="s">
+      <c r="F129" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G129" s="47"/>
+      <c r="G129" s="67"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
-      <c r="B130" s="62"/>
-      <c r="C130" s="59"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="28" t="s">
+      <c r="A130" s="75"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="70"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F130" s="34" t="s">
+      <c r="F130" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G130" s="47"/>
+      <c r="G130" s="67"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
-      <c r="B131" s="62"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="28" t="s">
+      <c r="A131" s="75"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="70"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="F131" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G131" s="47"/>
+      <c r="F131" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G131" s="67"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="62"/>
-      <c r="C132" s="59"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="28" t="s">
+      <c r="A132" s="75"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="70"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F132" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G132" s="47"/>
+      <c r="F132" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G132" s="67"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="62"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="28" t="s">
+      <c r="A133" s="75"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="70"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F133" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G133" s="47"/>
+      <c r="F133" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G133" s="67"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="62"/>
-      <c r="C134" s="59"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="28" t="s">
+      <c r="A134" s="75"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="70"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="F134" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G134" s="67"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="75"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="70"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F135" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G135" s="67"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="75"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="70"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F136" s="33"/>
+      <c r="G136" s="67"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="75"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F137" s="33"/>
+      <c r="G137" s="67"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="75"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F138" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G138" s="67"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="75"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="59"/>
+      <c r="E139" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G139" s="68"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="75"/>
+      <c r="B140" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C140" s="69" t="s">
+        <v>527</v>
+      </c>
+      <c r="D140" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F140" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G140" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="75"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="70"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F141" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G141" s="67"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="75"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F142" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="67"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="75"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F143" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" s="67"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="75"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F144" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G144" s="67"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="75"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="70"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F145" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G145" s="67"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="75"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="70"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="F146" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G146" s="67"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="75"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="70"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F134" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G134" s="47"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
-      <c r="B135" s="62"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="28" t="s">
+      <c r="F147" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G147" s="67"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="75"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="70"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="F135" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" s="47"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="62"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="28" t="s">
+      <c r="F148" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G148" s="67"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="75"/>
+      <c r="B149" s="64"/>
+      <c r="C149" s="70"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F136" s="34"/>
-      <c r="G136" s="47"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="53"/>
-      <c r="B137" s="62"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="28" t="s">
+      <c r="F149" s="33"/>
+      <c r="G149" s="67"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="75"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="F137" s="34"/>
-      <c r="G137" s="47"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="53"/>
-      <c r="B138" s="62"/>
-      <c r="C138" s="59"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="28" t="s">
+      <c r="F150" s="33"/>
+      <c r="G150" s="67"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="75"/>
+      <c r="B151" s="64"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="F138" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G138" s="47"/>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="53"/>
-      <c r="B139" s="63"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="29" t="s">
+      <c r="F151" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G151" s="67"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="76"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="71"/>
+      <c r="D152" s="59"/>
+      <c r="E152" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F139" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G139" s="48"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="C140" s="58" t="s">
-        <v>466</v>
-      </c>
-      <c r="D140" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F140" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G140" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="62"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="56"/>
-      <c r="E141" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F141" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G141" s="47"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
-      <c r="B142" s="62"/>
-      <c r="C142" s="59"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F142" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G142" s="47"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="B143" s="62"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="F143" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="G143" s="47"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
-      <c r="B144" s="62"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="56"/>
-      <c r="E144" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="F144" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G144" s="47"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
-      <c r="B145" s="62"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="56"/>
-      <c r="E145" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F145" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G145" s="47"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
-      <c r="B146" s="62"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="56"/>
-      <c r="E146" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F146" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G146" s="47"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
-      <c r="B147" s="62"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="56"/>
-      <c r="E147" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="F147" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G147" s="47"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
-      <c r="B148" s="62"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="56"/>
-      <c r="E148" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F148" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G148" s="47"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
-      <c r="B149" s="62"/>
-      <c r="C149" s="59"/>
-      <c r="D149" s="56"/>
-      <c r="E149" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F149" s="34"/>
-      <c r="G149" s="47"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
-      <c r="B150" s="62"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F150" s="34"/>
-      <c r="G150" s="47"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="53"/>
-      <c r="B151" s="62"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="56"/>
-      <c r="E151" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F151" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G151" s="47"/>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="54"/>
-      <c r="B152" s="63"/>
-      <c r="C152" s="60"/>
-      <c r="D152" s="57"/>
-      <c r="E152" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F152" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G152" s="48"/>
+      <c r="F152" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G152" s="68"/>
     </row>
     <row r="153" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="64" t="s">
+      <c r="A153" s="72" t="s">
         <v>137</v>
       </c>
       <c r="B153" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C153" s="21" t="s">
-        <v>467</v>
+      <c r="C153" s="47" t="s">
+        <v>528</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G153" s="25" t="s">
+      <c r="G153" s="24" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="68"/>
+      <c r="A154" s="77"/>
       <c r="B154" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C154" s="21" t="s">
-        <v>468</v>
+      <c r="C154" s="47" t="s">
+        <v>460</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>35</v>
@@ -5418,20 +5490,20 @@
       <c r="E154" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F154" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G154" s="25" t="s">
+      <c r="F154" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G154" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="65"/>
+      <c r="A155" s="73"/>
       <c r="B155" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="21" t="s">
-        <v>469</v>
+      <c r="C155" s="47" t="s">
+        <v>529</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>38</v>
@@ -5439,135 +5511,135 @@
       <c r="E155" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F155" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G155" s="25" t="s">
+      <c r="F155" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G155" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="64" t="s">
+      <c r="A156" s="72" t="s">
         <v>135</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="C156" s="21" t="s">
-        <v>470</v>
+      <c r="C156" s="47" t="s">
+        <v>530</v>
       </c>
       <c r="D156" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G156" s="25" t="s">
+      <c r="G156" s="24" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="68"/>
-      <c r="B157" s="61" t="s">
+      <c r="A157" s="77"/>
+      <c r="B157" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="C157" s="58" t="s">
-        <v>471</v>
-      </c>
-      <c r="D157" s="55" t="s">
+      <c r="C157" s="69" t="s">
+        <v>531</v>
+      </c>
+      <c r="D157" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="27" t="s">
+      <c r="E157" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F157" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G157" s="46" t="s">
+      <c r="F157" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G157" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="68"/>
-      <c r="B158" s="63"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="29" t="s">
+      <c r="A158" s="77"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="59"/>
+      <c r="E158" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F158" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G158" s="48"/>
+      <c r="F158" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G158" s="68"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="68"/>
-      <c r="B159" s="61" t="s">
+      <c r="A159" s="77"/>
+      <c r="B159" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="C159" s="58" t="s">
-        <v>472</v>
-      </c>
-      <c r="D159" s="55" t="s">
+      <c r="C159" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="D159" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E159" s="27" t="s">
+      <c r="E159" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F159" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G159" s="46" t="s">
+      <c r="F159" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G159" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="68"/>
-      <c r="B160" s="62"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="56"/>
-      <c r="E160" s="28" t="s">
+      <c r="A160" s="77"/>
+      <c r="B160" s="64"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F160" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G160" s="47"/>
+      <c r="F160" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G160" s="67"/>
     </row>
     <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="65"/>
-      <c r="B161" s="63"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="57"/>
-      <c r="E161" s="29" t="s">
+      <c r="A161" s="73"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="71"/>
+      <c r="D161" s="59"/>
+      <c r="E161" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F161" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G161" s="48"/>
+      <c r="F161" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G161" s="68"/>
     </row>
     <row r="162" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="64" t="s">
+      <c r="A162" s="72" t="s">
         <v>157</v>
       </c>
       <c r="B162" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C162" s="21" t="s">
-        <v>473</v>
+      <c r="C162" s="47" t="s">
+        <v>533</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G162" s="25" t="s">
+      <c r="G162" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="68"/>
+      <c r="A163" s="77"/>
       <c r="B163" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C163" s="21" t="s">
-        <v>474</v>
+      <c r="C163" s="47" t="s">
+        <v>461</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>35</v>
@@ -5575,20 +5647,20 @@
       <c r="E163" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F163" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G163" s="25" t="s">
+      <c r="F163" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G163" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="65"/>
+      <c r="A164" s="73"/>
       <c r="B164" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C164" s="21" t="s">
-        <v>475</v>
+      <c r="C164" s="47" t="s">
+        <v>534</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>38</v>
@@ -5596,22 +5668,22 @@
       <c r="E164" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F164" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G164" s="25" t="s">
+      <c r="F164" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G164" s="24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="52" t="s">
+      <c r="A165" s="74" t="s">
         <v>140</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C165" s="21" t="s">
-        <v>476</v>
+      <c r="C165" s="47" t="s">
+        <v>535</v>
       </c>
       <c r="D165" s="18" t="s">
         <v>8</v>
@@ -5619,273 +5691,273 @@
       <c r="E165" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F165" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G165" s="25" t="s">
+      <c r="F165" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G165" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="53"/>
-      <c r="B166" s="61" t="s">
+      <c r="A166" s="75"/>
+      <c r="B166" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="C166" s="58" t="s">
-        <v>477</v>
-      </c>
-      <c r="D166" s="55" t="s">
+      <c r="C166" s="69" t="s">
+        <v>536</v>
+      </c>
+      <c r="D166" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E166" s="27" t="s">
+      <c r="E166" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F166" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G166" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="75"/>
+      <c r="B167" s="64"/>
+      <c r="C167" s="70"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="F167" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G167" s="67"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="75"/>
+      <c r="B168" s="64"/>
+      <c r="C168" s="70"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F168" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G168" s="67"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="75"/>
+      <c r="B169" s="64"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F169" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G169" s="67"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="75"/>
+      <c r="B170" s="64"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F170" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G170" s="67"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="75"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="71"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F171" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G171" s="68"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="75"/>
+      <c r="B172" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" s="69" t="s">
+        <v>537</v>
+      </c>
+      <c r="D172" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F172" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G172" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="75"/>
+      <c r="B173" s="64"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="F166" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G166" s="46" t="s">
+      <c r="F173" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G173" s="67"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="75"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="70"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F174" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G174" s="67"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="75"/>
+      <c r="B175" s="64"/>
+      <c r="C175" s="70"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F175" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G175" s="67"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="75"/>
+      <c r="B176" s="64"/>
+      <c r="C176" s="70"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F176" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="G176" s="67"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="75"/>
+      <c r="B177" s="64"/>
+      <c r="C177" s="70"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F177" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G177" s="67"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="76"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="70"/>
+      <c r="D178" s="59"/>
+      <c r="E178" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F178" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G178" s="68"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="B179" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" s="69" t="s">
+        <v>538</v>
+      </c>
+      <c r="D179" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F179" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G179" s="66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
-      <c r="B167" s="62"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="56"/>
-      <c r="E167" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F167" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G167" s="47"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="53"/>
-      <c r="B168" s="62"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="56"/>
-      <c r="E168" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F168" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G168" s="47"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="53"/>
-      <c r="B169" s="62"/>
-      <c r="C169" s="59"/>
-      <c r="D169" s="56"/>
-      <c r="E169" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F169" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G169" s="47"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="53"/>
-      <c r="B170" s="62"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="56"/>
-      <c r="E170" s="28" t="s">
+    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="77"/>
+      <c r="B180" s="65"/>
+      <c r="C180" s="71"/>
+      <c r="D180" s="59"/>
+      <c r="E180" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="F170" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G170" s="47"/>
-    </row>
-    <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="53"/>
-      <c r="B171" s="63"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F171" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G171" s="48"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="53"/>
-      <c r="B172" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="C172" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="D172" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="F172" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G172" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="53"/>
-      <c r="B173" s="62"/>
-      <c r="C173" s="59"/>
-      <c r="D173" s="56"/>
-      <c r="E173" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="F173" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G173" s="47"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="53"/>
-      <c r="B174" s="62"/>
-      <c r="C174" s="59"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F174" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G174" s="47"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="53"/>
-      <c r="B175" s="62"/>
-      <c r="C175" s="59"/>
-      <c r="D175" s="56"/>
-      <c r="E175" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F175" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G175" s="47"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="53"/>
-      <c r="B176" s="62"/>
-      <c r="C176" s="59"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F176" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G176" s="47"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="53"/>
-      <c r="B177" s="62"/>
-      <c r="C177" s="59"/>
-      <c r="D177" s="56"/>
-      <c r="E177" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F177" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G177" s="47"/>
-    </row>
-    <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="54"/>
-      <c r="B178" s="63"/>
-      <c r="C178" s="59"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F178" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G178" s="48"/>
-    </row>
-    <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="B179" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="C179" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="D179" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E179" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F179" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G179" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="68"/>
-      <c r="B180" s="63"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="F180" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G180" s="48"/>
+      <c r="F180" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G180" s="68"/>
     </row>
     <row r="181" spans="1:7" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="65"/>
+      <c r="A181" s="73"/>
       <c r="B181" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C181" s="21" t="s">
-        <v>480</v>
+      <c r="C181" s="47" t="s">
+        <v>539</v>
       </c>
       <c r="D181" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G181" s="37" t="s">
+      <c r="G181" s="36" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="64" t="s">
+      <c r="A182" s="72" t="s">
         <v>169</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C182" s="21" t="s">
-        <v>481</v>
+      <c r="C182" s="47" t="s">
+        <v>540</v>
       </c>
       <c r="D182" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G182" s="25" t="s">
+      <c r="G182" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="68"/>
+      <c r="A183" s="77"/>
       <c r="B183" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C183" s="21" t="s">
-        <v>482</v>
+      <c r="C183" s="47" t="s">
+        <v>462</v>
       </c>
       <c r="D183" s="18" t="s">
         <v>35</v>
@@ -5893,20 +5965,20 @@
       <c r="E183" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F183" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G183" s="40" t="s">
+      <c r="F183" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G183" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="65"/>
+      <c r="A184" s="73"/>
       <c r="B184" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C184" s="21" t="s">
-        <v>483</v>
+      <c r="C184" s="47" t="s">
+        <v>541</v>
       </c>
       <c r="D184" s="18" t="s">
         <v>38</v>
@@ -5914,22 +5986,22 @@
       <c r="E184" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F184" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G184" s="41" t="s">
+      <c r="F184" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G184" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="64" t="s">
+      <c r="A185" s="72" t="s">
         <v>162</v>
       </c>
       <c r="B185" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C185" s="22" t="s">
-        <v>484</v>
+      <c r="C185" s="47" t="s">
+        <v>542</v>
       </c>
       <c r="D185" s="18" t="s">
         <v>8</v>
@@ -5937,349 +6009,349 @@
       <c r="E185" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F185" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G185" s="25" t="s">
+      <c r="F185" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G185" s="24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="68"/>
-      <c r="B186" s="61" t="s">
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="77"/>
+      <c r="B186" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C186" s="58" t="s">
-        <v>485</v>
-      </c>
-      <c r="D186" s="55" t="s">
+      <c r="C186" s="69" t="s">
+        <v>543</v>
+      </c>
+      <c r="D186" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E186" s="27" t="s">
+      <c r="E186" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F186" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G186" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="77"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="70"/>
+      <c r="D187" s="58"/>
+      <c r="E187" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="F186" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G186" s="46" t="s">
+      <c r="F187" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G187" s="67"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="77"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="70"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F188" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G188" s="67"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="77"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="70"/>
+      <c r="D189" s="58"/>
+      <c r="E189" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F189" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G189" s="67"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="77"/>
+      <c r="B190" s="65"/>
+      <c r="C190" s="71"/>
+      <c r="D190" s="59"/>
+      <c r="E190" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F190" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G190" s="68"/>
+    </row>
+    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="77"/>
+      <c r="B191" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C191" s="69" t="s">
+        <v>544</v>
+      </c>
+      <c r="D191" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F191" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G191" s="66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="68"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="59"/>
-      <c r="D187" s="56"/>
-      <c r="E187" s="28" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="77"/>
+      <c r="B192" s="64"/>
+      <c r="C192" s="70"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F192" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G192" s="67"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="77"/>
+      <c r="B193" s="64"/>
+      <c r="C193" s="70"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="F187" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G187" s="47"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="68"/>
-      <c r="B188" s="62"/>
-      <c r="C188" s="59"/>
-      <c r="D188" s="56"/>
-      <c r="E188" s="28" t="s">
+      <c r="F193" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G193" s="67"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="77"/>
+      <c r="B194" s="64"/>
+      <c r="C194" s="70"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F188" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G188" s="47"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="68"/>
-      <c r="B189" s="62"/>
-      <c r="C189" s="59"/>
-      <c r="D189" s="56"/>
-      <c r="E189" s="28" t="s">
+      <c r="F194" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G194" s="67"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="77"/>
+      <c r="B195" s="64"/>
+      <c r="C195" s="70"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="F189" s="34" t="s">
+      <c r="F195" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G189" s="47"/>
-    </row>
-    <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="68"/>
-      <c r="B190" s="63"/>
-      <c r="C190" s="60"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="29" t="s">
+      <c r="G195" s="67"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="73"/>
+      <c r="B196" s="65"/>
+      <c r="C196" s="71"/>
+      <c r="D196" s="59"/>
+      <c r="E196" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F190" s="35" t="s">
+      <c r="F196" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="G190" s="48"/>
-    </row>
-    <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="68"/>
-      <c r="B191" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="C191" s="58" t="s">
-        <v>486</v>
-      </c>
-      <c r="D191" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F191" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G191" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="68"/>
-      <c r="B192" s="62"/>
-      <c r="C192" s="59"/>
-      <c r="D192" s="56"/>
-      <c r="E192" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="F192" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G192" s="47"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="68"/>
-      <c r="B193" s="62"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="56"/>
-      <c r="E193" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="F193" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G193" s="47"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="68"/>
-      <c r="B194" s="62"/>
-      <c r="C194" s="59"/>
-      <c r="D194" s="56"/>
-      <c r="E194" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F194" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G194" s="47"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="68"/>
-      <c r="B195" s="62"/>
-      <c r="C195" s="59"/>
-      <c r="D195" s="56"/>
-      <c r="E195" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F195" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G195" s="47"/>
-    </row>
-    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="65"/>
-      <c r="B196" s="63"/>
-      <c r="C196" s="60"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F196" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="G196" s="48"/>
+      <c r="G196" s="68"/>
     </row>
     <row r="197" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="52" t="s">
+      <c r="A197" s="74" t="s">
         <v>174</v>
       </c>
       <c r="B197" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C197" s="22" t="s">
-        <v>487</v>
+      <c r="C197" s="21" t="s">
+        <v>548</v>
       </c>
       <c r="D197" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G197" s="25" t="s">
+      <c r="G197" s="24" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="53"/>
-      <c r="B198" s="61" t="s">
+      <c r="A198" s="75"/>
+      <c r="B198" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="C198" s="58" t="s">
-        <v>488</v>
-      </c>
-      <c r="D198" s="55" t="s">
+      <c r="C198" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="D198" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E198" s="27" t="s">
+      <c r="E198" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="F198" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G198" s="46" t="s">
+      <c r="F198" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G198" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="54"/>
-      <c r="B199" s="63"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="29" t="s">
+      <c r="A199" s="76"/>
+      <c r="B199" s="65"/>
+      <c r="C199" s="62"/>
+      <c r="D199" s="59"/>
+      <c r="E199" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="F199" s="35" t="s">
+      <c r="F199" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G199" s="48"/>
+      <c r="G199" s="68"/>
     </row>
     <row r="200" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="52" t="s">
+      <c r="A200" s="74" t="s">
         <v>183</v>
       </c>
       <c r="B200" s="19" t="s">
         <v>184</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="D200" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G200" s="42" t="s">
+      <c r="G200" s="41" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="53"/>
-      <c r="B201" s="61" t="s">
+      <c r="A201" s="75"/>
+      <c r="B201" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C201" s="58" t="s">
-        <v>490</v>
-      </c>
-      <c r="D201" s="55" t="s">
+      <c r="C201" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="D201" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E201" s="27" t="s">
+      <c r="E201" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="F201" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G201" s="46" t="s">
+      <c r="F201" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G201" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="54"/>
-      <c r="B202" s="63"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="29" t="s">
+      <c r="A202" s="76"/>
+      <c r="B202" s="65"/>
+      <c r="C202" s="62"/>
+      <c r="D202" s="59"/>
+      <c r="E202" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="F202" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G202" s="48"/>
+      <c r="F202" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G202" s="68"/>
     </row>
     <row r="203" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="64" t="s">
+      <c r="A203" s="72" t="s">
         <v>188</v>
       </c>
       <c r="B203" s="19" t="s">
         <v>189</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="D203" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G203" s="25" t="s">
+      <c r="G203" s="24" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="68"/>
-      <c r="B204" s="61" t="s">
+      <c r="A204" s="77"/>
+      <c r="B204" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="C204" s="58" t="s">
-        <v>492</v>
-      </c>
-      <c r="D204" s="55" t="s">
+      <c r="C204" s="60" t="s">
+        <v>464</v>
+      </c>
+      <c r="D204" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E204" s="27" t="s">
+      <c r="E204" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="F204" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G204" s="46" t="s">
+      <c r="F204" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G204" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="65"/>
-      <c r="B205" s="63"/>
-      <c r="C205" s="60"/>
-      <c r="D205" s="57"/>
-      <c r="E205" s="29" t="s">
+      <c r="A205" s="73"/>
+      <c r="B205" s="65"/>
+      <c r="C205" s="62"/>
+      <c r="D205" s="59"/>
+      <c r="E205" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="F205" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G205" s="48"/>
+      <c r="F205" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G205" s="68"/>
     </row>
     <row r="206" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="64" t="s">
+      <c r="A206" s="72" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="19" t="s">
         <v>205</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>493</v>
+        <v>465</v>
       </c>
       <c r="D206" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G206" s="25" t="s">
+      <c r="G206" s="24" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="68"/>
+      <c r="A207" s="77"/>
       <c r="B207" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="D207" s="18" t="s">
         <v>35</v>
@@ -6287,20 +6359,20 @@
       <c r="E207" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F207" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G207" s="41" t="s">
+      <c r="F207" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G207" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="65"/>
+      <c r="A208" s="73"/>
       <c r="B208" s="19" t="s">
         <v>207</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>495</v>
+        <v>467</v>
       </c>
       <c r="D208" s="18" t="s">
         <v>38</v>
@@ -6308,213 +6380,213 @@
       <c r="E208" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F208" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G208" s="41" t="s">
+      <c r="F208" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G208" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="64" t="s">
+      <c r="A209" s="72" t="s">
         <v>195</v>
       </c>
       <c r="B209" s="19" t="s">
         <v>196</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>496</v>
+        <v>468</v>
       </c>
       <c r="D209" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G209" s="25" t="s">
+      <c r="G209" s="24" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="68"/>
-      <c r="B210" s="61" t="s">
+      <c r="A210" s="77"/>
+      <c r="B210" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="C210" s="58" t="s">
-        <v>497</v>
-      </c>
-      <c r="D210" s="55" t="s">
+      <c r="C210" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="D210" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E210" s="27" t="s">
+      <c r="E210" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="F210" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G210" s="46" t="s">
+      <c r="F210" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G210" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="68"/>
-      <c r="B211" s="62"/>
-      <c r="C211" s="59"/>
-      <c r="D211" s="56"/>
-      <c r="E211" s="28" t="s">
+      <c r="A211" s="77"/>
+      <c r="B211" s="64"/>
+      <c r="C211" s="61"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="F211" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G211" s="47"/>
+      <c r="F211" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G211" s="67"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="68"/>
-      <c r="B212" s="62"/>
-      <c r="C212" s="59"/>
-      <c r="D212" s="56"/>
-      <c r="E212" s="28" t="s">
+      <c r="A212" s="77"/>
+      <c r="B212" s="64"/>
+      <c r="C212" s="61"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F212" s="34" t="s">
+      <c r="F212" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G212" s="47"/>
+      <c r="G212" s="67"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="68"/>
-      <c r="B213" s="62"/>
-      <c r="C213" s="59"/>
-      <c r="D213" s="56"/>
-      <c r="E213" s="28" t="s">
+      <c r="A213" s="77"/>
+      <c r="B213" s="64"/>
+      <c r="C213" s="61"/>
+      <c r="D213" s="58"/>
+      <c r="E213" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F213" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G213" s="47"/>
+      <c r="F213" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G213" s="67"/>
     </row>
     <row r="214" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="68"/>
-      <c r="B214" s="63"/>
-      <c r="C214" s="60"/>
-      <c r="D214" s="57"/>
-      <c r="E214" s="29" t="s">
+      <c r="A214" s="77"/>
+      <c r="B214" s="65"/>
+      <c r="C214" s="62"/>
+      <c r="D214" s="59"/>
+      <c r="E214" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F214" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G214" s="48"/>
+      <c r="F214" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G214" s="68"/>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="68"/>
-      <c r="B215" s="61" t="s">
+      <c r="A215" s="77"/>
+      <c r="B215" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="C215" s="58" t="s">
-        <v>498</v>
-      </c>
-      <c r="D215" s="55" t="s">
+      <c r="C215" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="D215" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E215" s="27" t="s">
+      <c r="E215" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F215" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G215" s="46" t="s">
+      <c r="F215" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G215" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="68"/>
-      <c r="B216" s="62"/>
-      <c r="C216" s="59"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="28" t="s">
+      <c r="A216" s="77"/>
+      <c r="B216" s="64"/>
+      <c r="C216" s="61"/>
+      <c r="D216" s="58"/>
+      <c r="E216" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="F216" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G216" s="47"/>
+      <c r="F216" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G216" s="67"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="68"/>
-      <c r="B217" s="62"/>
-      <c r="C217" s="59"/>
-      <c r="D217" s="56"/>
-      <c r="E217" s="28" t="s">
+      <c r="A217" s="77"/>
+      <c r="B217" s="64"/>
+      <c r="C217" s="61"/>
+      <c r="D217" s="58"/>
+      <c r="E217" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="F217" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G217" s="47"/>
+      <c r="F217" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G217" s="67"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="68"/>
-      <c r="B218" s="62"/>
-      <c r="C218" s="59"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="28" t="s">
+      <c r="A218" s="77"/>
+      <c r="B218" s="64"/>
+      <c r="C218" s="61"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F218" s="34" t="s">
+      <c r="F218" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G218" s="47"/>
+      <c r="G218" s="67"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="68"/>
-      <c r="B219" s="62"/>
-      <c r="C219" s="59"/>
-      <c r="D219" s="56"/>
-      <c r="E219" s="28" t="s">
+      <c r="A219" s="77"/>
+      <c r="B219" s="64"/>
+      <c r="C219" s="61"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F219" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G219" s="47"/>
+      <c r="F219" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G219" s="67"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="65"/>
-      <c r="B220" s="63"/>
-      <c r="C220" s="60"/>
-      <c r="D220" s="57"/>
-      <c r="E220" s="29" t="s">
+      <c r="A220" s="73"/>
+      <c r="B220" s="65"/>
+      <c r="C220" s="62"/>
+      <c r="D220" s="59"/>
+      <c r="E220" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F220" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G220" s="48"/>
+      <c r="F220" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G220" s="68"/>
     </row>
     <row r="221" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="64" t="s">
+      <c r="A221" s="72" t="s">
         <v>208</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>209</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="D221" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G221" s="25" t="s">
+      <c r="G221" s="24" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="68"/>
+      <c r="A222" s="77"/>
       <c r="B222" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="D222" s="18" t="s">
         <v>35</v>
@@ -6522,20 +6594,20 @@
       <c r="E222" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F222" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G222" s="41" t="s">
+      <c r="F222" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G222" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="65"/>
+      <c r="A223" s="73"/>
       <c r="B223" s="19" t="s">
         <v>211</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="D223" s="18" t="s">
         <v>38</v>
@@ -6543,198 +6615,198 @@
       <c r="E223" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F223" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G223" s="41" t="s">
+      <c r="F223" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G223" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="64" t="s">
+      <c r="A224" s="72" t="s">
         <v>212</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>213</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="D224" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G224" s="25" t="s">
+      <c r="G224" s="24" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="68"/>
-      <c r="B225" s="61" t="s">
+      <c r="A225" s="77"/>
+      <c r="B225" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C225" s="58" t="s">
-        <v>503</v>
-      </c>
-      <c r="D225" s="55" t="s">
+      <c r="C225" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="D225" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E225" s="27" t="s">
+      <c r="E225" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F225" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G225" s="46" t="s">
+      <c r="F225" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G225" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="68"/>
-      <c r="B226" s="62"/>
-      <c r="C226" s="59"/>
-      <c r="D226" s="56"/>
-      <c r="E226" s="28" t="s">
+      <c r="A226" s="77"/>
+      <c r="B226" s="64"/>
+      <c r="C226" s="61"/>
+      <c r="D226" s="58"/>
+      <c r="E226" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F226" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G226" s="47"/>
+      <c r="F226" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G226" s="67"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="68"/>
-      <c r="B227" s="62"/>
-      <c r="C227" s="59"/>
-      <c r="D227" s="56"/>
-      <c r="E227" s="28" t="s">
+      <c r="A227" s="77"/>
+      <c r="B227" s="64"/>
+      <c r="C227" s="61"/>
+      <c r="D227" s="58"/>
+      <c r="E227" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="F227" s="34" t="s">
+      <c r="F227" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G227" s="47"/>
+      <c r="G227" s="67"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="68"/>
-      <c r="B228" s="62"/>
-      <c r="C228" s="59"/>
-      <c r="D228" s="56"/>
-      <c r="E228" s="28" t="s">
+      <c r="A228" s="77"/>
+      <c r="B228" s="64"/>
+      <c r="C228" s="61"/>
+      <c r="D228" s="58"/>
+      <c r="E228" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F228" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G228" s="47"/>
+      <c r="F228" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G228" s="67"/>
     </row>
     <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="68"/>
-      <c r="B229" s="63"/>
-      <c r="C229" s="60"/>
-      <c r="D229" s="57"/>
-      <c r="E229" s="29" t="s">
+      <c r="A229" s="77"/>
+      <c r="B229" s="65"/>
+      <c r="C229" s="62"/>
+      <c r="D229" s="59"/>
+      <c r="E229" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F229" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G229" s="48"/>
+      <c r="F229" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G229" s="68"/>
     </row>
     <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="68"/>
-      <c r="B230" s="61" t="s">
+      <c r="A230" s="77"/>
+      <c r="B230" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C230" s="58" t="s">
-        <v>504</v>
-      </c>
-      <c r="D230" s="55" t="s">
+      <c r="C230" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="D230" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E230" s="27" t="s">
+      <c r="E230" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F230" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G230" s="46" t="s">
+      <c r="F230" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G230" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="68"/>
-      <c r="B231" s="62"/>
-      <c r="C231" s="59"/>
-      <c r="D231" s="56"/>
-      <c r="E231" s="28" t="s">
+      <c r="A231" s="77"/>
+      <c r="B231" s="64"/>
+      <c r="C231" s="61"/>
+      <c r="D231" s="58"/>
+      <c r="E231" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="F231" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G231" s="47"/>
+      <c r="F231" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G231" s="67"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="68"/>
-      <c r="B232" s="62"/>
-      <c r="C232" s="59"/>
-      <c r="D232" s="56"/>
-      <c r="E232" s="28" t="s">
+      <c r="A232" s="77"/>
+      <c r="B232" s="64"/>
+      <c r="C232" s="61"/>
+      <c r="D232" s="58"/>
+      <c r="E232" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="F232" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G232" s="47"/>
+      <c r="F232" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G232" s="67"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="68"/>
-      <c r="B233" s="62"/>
-      <c r="C233" s="59"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="28" t="s">
+      <c r="A233" s="77"/>
+      <c r="B233" s="64"/>
+      <c r="C233" s="61"/>
+      <c r="D233" s="58"/>
+      <c r="E233" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="F233" s="34" t="s">
+      <c r="F233" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G233" s="47"/>
+      <c r="G233" s="67"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="68"/>
-      <c r="B234" s="62"/>
-      <c r="C234" s="59"/>
-      <c r="D234" s="56"/>
-      <c r="E234" s="28" t="s">
+      <c r="A234" s="77"/>
+      <c r="B234" s="64"/>
+      <c r="C234" s="61"/>
+      <c r="D234" s="58"/>
+      <c r="E234" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="F234" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G234" s="47"/>
+      <c r="F234" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G234" s="67"/>
     </row>
     <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="65"/>
-      <c r="B235" s="63"/>
-      <c r="C235" s="60"/>
-      <c r="D235" s="57"/>
-      <c r="E235" s="29" t="s">
+      <c r="A235" s="73"/>
+      <c r="B235" s="65"/>
+      <c r="C235" s="62"/>
+      <c r="D235" s="59"/>
+      <c r="E235" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F235" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G235" s="48"/>
+      <c r="F235" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G235" s="68"/>
     </row>
     <row r="236" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="23" t="s">
+      <c r="A236" s="22" t="s">
         <v>221</v>
       </c>
       <c r="B236" s="19" t="s">
         <v>222</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="D236" s="18" t="s">
         <v>6</v>
@@ -6742,37 +6814,37 @@
       <c r="E236" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="F236" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="G236" s="41" t="s">
+      <c r="F236" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G236" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="52" t="s">
+      <c r="A237" s="74" t="s">
         <v>226</v>
       </c>
       <c r="B237" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C237" s="21" t="s">
-        <v>506</v>
+      <c r="C237" s="47" t="s">
+        <v>478</v>
       </c>
       <c r="D237" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G237" s="25" t="s">
+      <c r="G237" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="53"/>
+      <c r="A238" s="75"/>
       <c r="B238" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C238" s="21" t="s">
-        <v>507</v>
+      <c r="C238" s="47" t="s">
+        <v>479</v>
       </c>
       <c r="D238" s="18" t="s">
         <v>35</v>
@@ -6780,20 +6852,20 @@
       <c r="E238" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F238" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G238" s="41" t="s">
+      <c r="F238" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G238" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="54"/>
+      <c r="A239" s="76"/>
       <c r="B239" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C239" s="21" t="s">
-        <v>508</v>
+      <c r="C239" s="47" t="s">
+        <v>480</v>
       </c>
       <c r="D239" s="18" t="s">
         <v>38</v>
@@ -6801,22 +6873,22 @@
       <c r="E239" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F239" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G239" s="41" t="s">
+      <c r="F239" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G239" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="52" t="s">
+      <c r="A240" s="74" t="s">
         <v>229</v>
       </c>
       <c r="B240" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="C240" s="21" t="s">
-        <v>509</v>
+      <c r="C240" s="47" t="s">
+        <v>481</v>
       </c>
       <c r="D240" s="18" t="s">
         <v>8</v>
@@ -6824,248 +6896,248 @@
       <c r="E240" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F240" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G240" s="25" t="s">
+      <c r="F240" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G240" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="53"/>
-      <c r="B241" s="61" t="s">
+    <row r="241" spans="1:7" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="75"/>
+      <c r="B241" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C241" s="58" t="s">
-        <v>510</v>
-      </c>
-      <c r="D241" s="55" t="s">
+      <c r="C241" s="69" t="s">
+        <v>482</v>
+      </c>
+      <c r="D241" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E241" s="27" t="s">
+      <c r="E241" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F241" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G241" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="75"/>
+      <c r="B242" s="64"/>
+      <c r="C242" s="70"/>
+      <c r="D242" s="58"/>
+      <c r="E242" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="F242" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G242" s="67"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="75"/>
+      <c r="B243" s="64"/>
+      <c r="C243" s="70"/>
+      <c r="D243" s="58"/>
+      <c r="E243" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F243" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G243" s="67"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="75"/>
+      <c r="B244" s="64"/>
+      <c r="C244" s="70"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="F244" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G244" s="67"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="75"/>
+      <c r="B245" s="64"/>
+      <c r="C245" s="70"/>
+      <c r="D245" s="58"/>
+      <c r="E245" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="F245" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G245" s="67"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="75"/>
+      <c r="B246" s="64"/>
+      <c r="C246" s="70"/>
+      <c r="D246" s="58"/>
+      <c r="E246" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F246" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G246" s="67"/>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="75"/>
+      <c r="B247" s="65"/>
+      <c r="C247" s="71"/>
+      <c r="D247" s="59"/>
+      <c r="E247" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F247" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G247" s="68"/>
+    </row>
+    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="75"/>
+      <c r="B248" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C248" s="69" t="s">
+        <v>483</v>
+      </c>
+      <c r="D248" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E248" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F248" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G248" s="66" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="75"/>
+      <c r="B249" s="64"/>
+      <c r="C249" s="70"/>
+      <c r="D249" s="58"/>
+      <c r="E249" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="F241" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G241" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="53"/>
-      <c r="B242" s="62"/>
-      <c r="C242" s="59"/>
-      <c r="D242" s="56"/>
-      <c r="E242" s="28" t="s">
+      <c r="F249" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G249" s="67"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="75"/>
+      <c r="B250" s="64"/>
+      <c r="C250" s="70"/>
+      <c r="D250" s="58"/>
+      <c r="E250" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F242" s="34" t="s">
+      <c r="F250" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="G242" s="47"/>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="53"/>
-      <c r="B243" s="62"/>
-      <c r="C243" s="59"/>
-      <c r="D243" s="56"/>
-      <c r="E243" s="28" t="s">
+      <c r="G250" s="67"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="75"/>
+      <c r="B251" s="64"/>
+      <c r="C251" s="70"/>
+      <c r="D251" s="58"/>
+      <c r="E251" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="F243" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G243" s="47"/>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="53"/>
-      <c r="B244" s="62"/>
-      <c r="C244" s="59"/>
-      <c r="D244" s="56"/>
-      <c r="E244" s="28" t="s">
+      <c r="F251" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G251" s="67"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="75"/>
+      <c r="B252" s="64"/>
+      <c r="C252" s="70"/>
+      <c r="D252" s="58"/>
+      <c r="E252" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="F244" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G244" s="47"/>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="53"/>
-      <c r="B245" s="62"/>
-      <c r="C245" s="59"/>
-      <c r="D245" s="56"/>
-      <c r="E245" s="28" t="s">
+      <c r="F252" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G252" s="67"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="75"/>
+      <c r="B253" s="64"/>
+      <c r="C253" s="70"/>
+      <c r="D253" s="58"/>
+      <c r="E253" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="F245" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G245" s="47"/>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="53"/>
-      <c r="B246" s="62"/>
-      <c r="C246" s="59"/>
-      <c r="D246" s="56"/>
-      <c r="E246" s="28" t="s">
+      <c r="F253" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G253" s="67"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="75"/>
+      <c r="B254" s="64"/>
+      <c r="C254" s="70"/>
+      <c r="D254" s="58"/>
+      <c r="E254" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="F246" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G246" s="47"/>
-    </row>
-    <row r="247" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="53"/>
-      <c r="B247" s="63"/>
-      <c r="C247" s="60"/>
-      <c r="D247" s="57"/>
-      <c r="E247" s="29" t="s">
+      <c r="F254" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G254" s="67"/>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="76"/>
+      <c r="B255" s="65"/>
+      <c r="C255" s="71"/>
+      <c r="D255" s="59"/>
+      <c r="E255" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F247" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G247" s="48"/>
-    </row>
-    <row r="248" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="53"/>
-      <c r="B248" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="C248" s="58" t="s">
-        <v>511</v>
-      </c>
-      <c r="D248" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E248" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F248" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G248" s="46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="53"/>
-      <c r="B249" s="62"/>
-      <c r="C249" s="59"/>
-      <c r="D249" s="56"/>
-      <c r="E249" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="F249" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G249" s="47"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="53"/>
-      <c r="B250" s="62"/>
-      <c r="C250" s="59"/>
-      <c r="D250" s="56"/>
-      <c r="E250" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F250" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G250" s="47"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="53"/>
-      <c r="B251" s="62"/>
-      <c r="C251" s="59"/>
-      <c r="D251" s="56"/>
-      <c r="E251" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="F251" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G251" s="47"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="53"/>
-      <c r="B252" s="62"/>
-      <c r="C252" s="59"/>
-      <c r="D252" s="56"/>
-      <c r="E252" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="F252" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G252" s="47"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="53"/>
-      <c r="B253" s="62"/>
-      <c r="C253" s="59"/>
-      <c r="D253" s="56"/>
-      <c r="E253" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="F253" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G253" s="47"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="53"/>
-      <c r="B254" s="62"/>
-      <c r="C254" s="59"/>
-      <c r="D254" s="56"/>
-      <c r="E254" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="F254" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="G254" s="47"/>
-    </row>
-    <row r="255" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="54"/>
-      <c r="B255" s="63"/>
-      <c r="C255" s="60"/>
-      <c r="D255" s="57"/>
-      <c r="E255" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F255" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G255" s="48"/>
+      <c r="F255" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="G255" s="68"/>
     </row>
     <row r="256" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="64" t="s">
+      <c r="A256" s="72" t="s">
         <v>239</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>240</v>
       </c>
       <c r="C256" s="21" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="D256" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G256" s="25" t="s">
+      <c r="G256" s="24" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="65"/>
+      <c r="A257" s="73"/>
       <c r="B257" s="19" t="s">
         <v>242</v>
       </c>
       <c r="C257" s="21" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="D257" s="18" t="s">
         <v>38</v>
@@ -7073,22 +7145,22 @@
       <c r="E257" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F257" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G257" s="41" t="s">
+      <c r="F257" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G257" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="52" t="s">
+      <c r="A258" s="74" t="s">
         <v>243</v>
       </c>
       <c r="B258" s="19" t="s">
         <v>244</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="D258" s="18" t="s">
         <v>8</v>
@@ -7096,69 +7168,69 @@
       <c r="E258" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F258" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="G258" s="25" t="s">
+      <c r="F258" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G258" s="24" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="53"/>
-      <c r="B259" s="61" t="s">
+      <c r="A259" s="75"/>
+      <c r="B259" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="C259" s="58" t="s">
-        <v>515</v>
-      </c>
-      <c r="D259" s="55" t="s">
+      <c r="C259" s="60" t="s">
+        <v>487</v>
+      </c>
+      <c r="D259" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E259" s="27" t="s">
+      <c r="E259" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F259" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G259" s="46" t="s">
+      <c r="F259" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G259" s="66" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="53"/>
-      <c r="B260" s="63"/>
-      <c r="C260" s="60"/>
-      <c r="D260" s="57"/>
-      <c r="E260" s="29" t="s">
+      <c r="A260" s="75"/>
+      <c r="B260" s="65"/>
+      <c r="C260" s="62"/>
+      <c r="D260" s="59"/>
+      <c r="E260" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="F260" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G260" s="48"/>
+      <c r="F260" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G260" s="68"/>
     </row>
     <row r="261" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="54"/>
+      <c r="A261" s="76"/>
       <c r="B261" s="19" t="s">
         <v>248</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="D261" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G261" s="25" t="s">
+      <c r="G261" s="24" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="39" t="s">
+      <c r="A264" s="38" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="39" t="s">
+      <c r="A265" s="38" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7168,36 +7240,36 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="39" t="s">
+      <c r="A268" s="38" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="39" t="s">
+      <c r="A269" s="38" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="39" t="s">
+      <c r="A270" s="38" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="39" t="s">
+      <c r="A271" s="38" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="92" t="s">
+      <c r="A272" s="56" t="s">
         <v>399</v>
       </c>
-      <c r="B272" s="92" t="s">
+      <c r="B272" s="56" t="s">
         <v>400</v>
       </c>
-      <c r="C272" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="D272" s="69" t="s">
+      <c r="C272" s="55" t="s">
+        <v>489</v>
+      </c>
+      <c r="D272" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E272" s="1" t="s">
@@ -7206,212 +7278,215 @@
       <c r="F272" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G272" s="76" t="s">
+      <c r="G272" s="52" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="92"/>
-      <c r="B273" s="92"/>
-      <c r="C273" s="91"/>
-      <c r="D273" s="69"/>
+      <c r="A273" s="56"/>
+      <c r="B273" s="56"/>
+      <c r="C273" s="55"/>
+      <c r="D273" s="54"/>
       <c r="E273" s="1" t="s">
         <v>401</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G273" s="76"/>
+      <c r="G273" s="52"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="17" t="s">
+        <v>403</v>
+      </c>
       <c r="B274" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="C274" s="79" t="s">
-        <v>518</v>
+        <v>404</v>
+      </c>
+      <c r="C274" s="46" t="s">
+        <v>490</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B275" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C275" s="79" t="s">
-        <v>519</v>
+        <v>407</v>
+      </c>
+      <c r="C275" s="46" t="s">
+        <v>491</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B276" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="C276" s="79" t="s">
-        <v>520</v>
-      </c>
-      <c r="D276" s="1" t="s">
+    <row r="276" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="B276" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="C276" s="55" t="s">
+        <v>492</v>
+      </c>
+      <c r="D276" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F276" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="G276" s="52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="56"/>
+      <c r="B277" s="56"/>
+      <c r="C277" s="55"/>
+      <c r="D277" s="54"/>
+      <c r="E277" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G277" s="52"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="56"/>
+      <c r="B278" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="C278" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="D278" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G278" s="52" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="56"/>
+      <c r="B279" s="56"/>
+      <c r="C279" s="55"/>
+      <c r="D279" s="54"/>
+      <c r="E279" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G279" s="53"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="B280" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="C280" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="D280" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G280" s="52" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="56"/>
+      <c r="B281" s="56"/>
+      <c r="C281" s="55"/>
+      <c r="D281" s="54"/>
+      <c r="E281" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G281" s="53"/>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B282" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="C282" s="46" t="s">
+        <v>496</v>
+      </c>
+      <c r="D282" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F276" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="92" t="s">
-        <v>410</v>
-      </c>
-      <c r="B277" s="92" t="s">
-        <v>411</v>
-      </c>
-      <c r="C277" s="91" t="s">
-        <v>521</v>
-      </c>
-      <c r="D277" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E277" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F277" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G277" s="76" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="92"/>
-      <c r="B278" s="92"/>
-      <c r="C278" s="91"/>
-      <c r="D278" s="69"/>
-      <c r="E278" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F278" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G278" s="76"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="92"/>
-      <c r="B279" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="C279" s="91" t="s">
-        <v>522</v>
-      </c>
-      <c r="D279" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F279" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G279" s="76" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="92"/>
-      <c r="B280" s="92"/>
-      <c r="C280" s="91"/>
-      <c r="D280" s="69"/>
-      <c r="E280" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F280" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G280" s="77"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="92" t="s">
-        <v>419</v>
-      </c>
-      <c r="B281" s="92" t="s">
-        <v>417</v>
-      </c>
-      <c r="C281" s="91" t="s">
-        <v>418</v>
-      </c>
-      <c r="D281" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F281" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G281" s="76" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="92"/>
-      <c r="B282" s="92"/>
-      <c r="C282" s="91"/>
-      <c r="D282" s="69"/>
-      <c r="E282" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F282" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G282" s="77"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="17" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="B283" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="C283" s="79" t="s">
-        <v>525</v>
+        <v>497</v>
+      </c>
+      <c r="C283" s="46" t="s">
+        <v>498</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E283" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="B284" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="C284" s="79" t="s">
-        <v>527</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>8</v>
+      <c r="A284" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B284" s="56" t="s">
+        <v>501</v>
+      </c>
+      <c r="C284" s="55" t="s">
+        <v>502</v>
+      </c>
+      <c r="D284" s="54" t="s">
+        <v>6</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>36</v>
@@ -7420,133 +7495,232 @@
         <v>52</v>
       </c>
     </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="56"/>
+      <c r="B285" s="56"/>
+      <c r="C285" s="55"/>
+      <c r="D285" s="54"/>
+      <c r="E285" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="56"/>
+      <c r="B286" s="56" t="s">
+        <v>504</v>
+      </c>
+      <c r="C286" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="D286" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="56"/>
+      <c r="B287" s="56"/>
+      <c r="C287" s="55"/>
+      <c r="D287" s="54"/>
+      <c r="E287" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="56"/>
+      <c r="B288" s="56"/>
+      <c r="C288" s="55"/>
+      <c r="D288" s="54"/>
+      <c r="E288" s="45" t="s">
+        <v>507</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="56"/>
+      <c r="B289" s="56"/>
+      <c r="C289" s="55"/>
+      <c r="D289" s="54"/>
+      <c r="E289" s="45" t="s">
+        <v>508</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="56"/>
+      <c r="B290" s="56"/>
+      <c r="C290" s="55"/>
+      <c r="D290" s="54"/>
+      <c r="E290" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="56" t="s">
+        <v>514</v>
+      </c>
+      <c r="B291" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="C291" s="55" t="s">
+        <v>516</v>
+      </c>
+      <c r="D291" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="56"/>
+      <c r="B292" s="56"/>
+      <c r="C292" s="55"/>
+      <c r="D292" s="54"/>
+      <c r="E292" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="56" t="s">
+        <v>518</v>
+      </c>
+      <c r="B293" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="C293" s="55" t="s">
+        <v>519</v>
+      </c>
+      <c r="D293" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E293" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F293" s="45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="56"/>
+      <c r="B294" s="56"/>
+      <c r="C294" s="55"/>
+      <c r="D294" s="54"/>
+      <c r="E294" s="45" t="s">
+        <v>520</v>
+      </c>
+      <c r="F294" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="56" t="s">
+        <v>545</v>
+      </c>
+      <c r="B295" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="C295" s="55" t="s">
+        <v>546</v>
+      </c>
+      <c r="D295" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="56"/>
+      <c r="B296" s="56"/>
+      <c r="C296" s="55"/>
+      <c r="D296" s="54"/>
+      <c r="E296" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="176">
-    <mergeCell ref="G281:G282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="D127:D139"/>
-    <mergeCell ref="C127:C139"/>
-    <mergeCell ref="B127:B139"/>
-    <mergeCell ref="G99:G110"/>
-    <mergeCell ref="D99:D110"/>
-    <mergeCell ref="C99:C110"/>
-    <mergeCell ref="B99:B110"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="G277:G278"/>
-    <mergeCell ref="G272:G273"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="C272:C273"/>
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="A272:A273"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="A277:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="G279:G280"/>
-    <mergeCell ref="A256:A257"/>
-    <mergeCell ref="G259:G260"/>
-    <mergeCell ref="D259:D260"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="A258:A261"/>
+  <mergeCells count="195">
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="B293:B294"/>
+    <mergeCell ref="A293:A294"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="D295:D296"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="A295:A296"/>
+    <mergeCell ref="D284:D285"/>
+    <mergeCell ref="C284:C285"/>
+    <mergeCell ref="B284:B285"/>
+    <mergeCell ref="D286:D290"/>
+    <mergeCell ref="C286:C290"/>
+    <mergeCell ref="B286:B290"/>
+    <mergeCell ref="A284:A290"/>
+    <mergeCell ref="D241:D247"/>
+    <mergeCell ref="C241:C247"/>
     <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B255"/>
-    <mergeCell ref="C248:C255"/>
-    <mergeCell ref="A240:A255"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="G241:G247"/>
-    <mergeCell ref="G248:G255"/>
-    <mergeCell ref="D248:D255"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="D241:D247"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="D230:D235"/>
-    <mergeCell ref="G230:G235"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="G225:G229"/>
-    <mergeCell ref="D225:D229"/>
-    <mergeCell ref="C225:C229"/>
-    <mergeCell ref="B225:B229"/>
-    <mergeCell ref="A224:A235"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="G210:G214"/>
-    <mergeCell ref="D210:D214"/>
-    <mergeCell ref="C210:C214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="D215:D220"/>
-    <mergeCell ref="C215:C220"/>
-    <mergeCell ref="B215:B220"/>
-    <mergeCell ref="G215:G220"/>
-    <mergeCell ref="G204:G205"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A209:A220"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="G198:G199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D191:D196"/>
-    <mergeCell ref="C191:C196"/>
-    <mergeCell ref="B191:B196"/>
-    <mergeCell ref="A185:A196"/>
-    <mergeCell ref="G186:G190"/>
-    <mergeCell ref="D186:D190"/>
-    <mergeCell ref="C186:C190"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="G191:G196"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="A165:A178"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="G172:G178"/>
-    <mergeCell ref="D172:D178"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="G166:G171"/>
-    <mergeCell ref="D166:D171"/>
-    <mergeCell ref="C166:C171"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="G140:G152"/>
-    <mergeCell ref="D140:D152"/>
-    <mergeCell ref="C140:C152"/>
-    <mergeCell ref="B140:B152"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A122"/>
-    <mergeCell ref="G128:G139"/>
-    <mergeCell ref="A126:A152"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="G111:G122"/>
-    <mergeCell ref="D111:D122"/>
-    <mergeCell ref="C111:C122"/>
-    <mergeCell ref="B111:B122"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="G46:G65"/>
+    <mergeCell ref="A44:A86"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="G16:G20"/>
     <mergeCell ref="C90:C91"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="A21:A23"/>
@@ -7570,34 +7744,128 @@
     <mergeCell ref="C66:C86"/>
     <mergeCell ref="B66:B86"/>
     <mergeCell ref="G66:G86"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="G46:G65"/>
-    <mergeCell ref="A44:A86"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A122"/>
+    <mergeCell ref="G128:G139"/>
+    <mergeCell ref="A126:A152"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="G111:G122"/>
+    <mergeCell ref="D111:D122"/>
+    <mergeCell ref="C111:C122"/>
+    <mergeCell ref="B111:B122"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="G140:G152"/>
+    <mergeCell ref="D140:D152"/>
+    <mergeCell ref="C140:C152"/>
+    <mergeCell ref="B140:B152"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="G166:G171"/>
+    <mergeCell ref="D166:D171"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="A165:A178"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="G172:G178"/>
+    <mergeCell ref="D172:D178"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="G198:G199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D191:D196"/>
+    <mergeCell ref="C191:C196"/>
+    <mergeCell ref="B191:B196"/>
+    <mergeCell ref="A185:A196"/>
+    <mergeCell ref="G186:G190"/>
+    <mergeCell ref="D186:D190"/>
+    <mergeCell ref="C186:C190"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="G191:G196"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A209:A220"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="G225:G229"/>
+    <mergeCell ref="D225:D229"/>
+    <mergeCell ref="C225:C229"/>
+    <mergeCell ref="B225:B229"/>
+    <mergeCell ref="A224:A235"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="G210:G214"/>
+    <mergeCell ref="D210:D214"/>
+    <mergeCell ref="C210:C214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="D215:D220"/>
+    <mergeCell ref="C215:C220"/>
+    <mergeCell ref="B215:B220"/>
+    <mergeCell ref="G215:G220"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="G248:G255"/>
+    <mergeCell ref="D248:D255"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="D230:D235"/>
+    <mergeCell ref="G230:G235"/>
+    <mergeCell ref="G241:G247"/>
+    <mergeCell ref="D278:D279"/>
+    <mergeCell ref="G278:G279"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="G259:G260"/>
+    <mergeCell ref="D259:D260"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="B248:B255"/>
+    <mergeCell ref="C248:C255"/>
+    <mergeCell ref="A240:A255"/>
+    <mergeCell ref="G280:G281"/>
+    <mergeCell ref="D280:D281"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="B280:B281"/>
+    <mergeCell ref="A280:A281"/>
+    <mergeCell ref="D127:D139"/>
+    <mergeCell ref="C127:C139"/>
+    <mergeCell ref="B127:B139"/>
+    <mergeCell ref="G99:G110"/>
+    <mergeCell ref="D99:D110"/>
+    <mergeCell ref="C99:C110"/>
+    <mergeCell ref="B99:B110"/>
+    <mergeCell ref="D276:D277"/>
+    <mergeCell ref="C276:C277"/>
+    <mergeCell ref="B276:B277"/>
+    <mergeCell ref="G276:G277"/>
+    <mergeCell ref="G272:G273"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="C272:C273"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="A272:A273"/>
+    <mergeCell ref="C278:C279"/>
+    <mergeCell ref="A276:A279"/>
+    <mergeCell ref="B278:B279"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://localhost:3000/api/v1/third_level_project/project_cnt"/>
@@ -7635,45 +7903,45 @@
     <hyperlink ref="C98" r:id="rId33" display="http://localhost:3000/api/v1/doctor/get_by_id"/>
     <hyperlink ref="C99" r:id="rId34" display="http://localhost:3000/api/v1/doctor/add"/>
     <hyperlink ref="C111" r:id="rId35" display="http://localhost:3000/api/v1/doctor/modify"/>
-    <hyperlink ref="C95" r:id="rId36" display="http://localhost:3000/api/v1/doctor/get_doctors"/>
+    <hyperlink ref="C95" r:id="rId36"/>
     <hyperlink ref="C96" r:id="rId37" display="http://localhost:3000/api/v1/doctor/change_status"/>
-    <hyperlink ref="C97" r:id="rId38" display="http://localhost:3000/api/v1/doctor/delete_doctor"/>
-    <hyperlink ref="C126" r:id="rId39" display="http://localhost:3000/api/v1/hospital/get_hospital_id"/>
+    <hyperlink ref="C97" r:id="rId38"/>
+    <hyperlink ref="C126" r:id="rId39"/>
     <hyperlink ref="C127" r:id="rId40" display="http://localhost:3000/api/v1/hospital/add"/>
-    <hyperlink ref="C140" r:id="rId41" display="http://localhost:3000/api/v1/hospital/modify_hospital"/>
-    <hyperlink ref="C123" r:id="rId42" display="http://localhost:3000/api/v1/hospital/get_hospitals"/>
+    <hyperlink ref="C140" r:id="rId41"/>
+    <hyperlink ref="C123" r:id="rId42"/>
     <hyperlink ref="C124" r:id="rId43" display="http://localhost:3000/api/v1/hospital/change_status"/>
-    <hyperlink ref="C125" r:id="rId44" display="http://localhost:3000/api/v1/hospital/delete_hospital"/>
-    <hyperlink ref="C156" r:id="rId45" display="http://localhost:3000/api/v1/raider_category/get_raider_category_id"/>
-    <hyperlink ref="C157" r:id="rId46" display="http://localhost:3000/api/v1/raider_category/add_raider_category"/>
-    <hyperlink ref="C153" r:id="rId47" display="http://localhost:3000/api/v1/raider_category/get_raider_categories"/>
+    <hyperlink ref="C125" r:id="rId44"/>
+    <hyperlink ref="C156" r:id="rId45"/>
+    <hyperlink ref="C157" r:id="rId46"/>
+    <hyperlink ref="C153" r:id="rId47"/>
     <hyperlink ref="C154" r:id="rId48" display="http://localhost:3000/api/v1/raider_category/change_status"/>
-    <hyperlink ref="C155" r:id="rId49" display="http://localhost:3000/api/v1/raider_category/delete_category"/>
-    <hyperlink ref="C165" r:id="rId50" display="http://localhost:3000/api/v1/raider/get_raider_id"/>
-    <hyperlink ref="C159" r:id="rId51" display="http://localhost:3000/api/v1/raider_category/modify_raider_category"/>
-    <hyperlink ref="C166" r:id="rId52" display="http://localhost:3000/api/v1/raider/add_raider"/>
-    <hyperlink ref="C172" r:id="rId53" display="http://localhost:3000/api/v1/raider/modify_raider"/>
-    <hyperlink ref="C162" r:id="rId54" display="http://localhost:3000/api/v1/raider/get_raiders"/>
+    <hyperlink ref="C155" r:id="rId49"/>
+    <hyperlink ref="C165" r:id="rId50"/>
+    <hyperlink ref="C159" r:id="rId51"/>
+    <hyperlink ref="C166" r:id="rId52"/>
+    <hyperlink ref="C172" r:id="rId53"/>
+    <hyperlink ref="C162" r:id="rId54"/>
     <hyperlink ref="C163" r:id="rId55" display="http://localhost:3000/api/v1/raider/change_status"/>
-    <hyperlink ref="C164" r:id="rId56" display="http://localhost:3000/api/v1/raider/delete_raider"/>
-    <hyperlink ref="C179" r:id="rId57" display="http://localhost:3000/api/v1/korean/modify_korean"/>
-    <hyperlink ref="C185" r:id="rId58" display="http://localhost:3000/api/v1/member/get_member_id"/>
-    <hyperlink ref="C186" r:id="rId59" display="http://localhost:3000/api/v1/member/add_member"/>
-    <hyperlink ref="C191" r:id="rId60" display="http://localhost:3000/api/v1/member/modify_member"/>
+    <hyperlink ref="C164" r:id="rId56"/>
+    <hyperlink ref="C179" r:id="rId57"/>
+    <hyperlink ref="C185" r:id="rId58"/>
+    <hyperlink ref="C186" r:id="rId59"/>
+    <hyperlink ref="C191" r:id="rId60"/>
     <hyperlink ref="C183" r:id="rId61" display="http://localhost:3000/api/v1/member/change_status"/>
-    <hyperlink ref="C184" r:id="rId62" display="http://localhost:3000/api/v1/member/delete_member"/>
-    <hyperlink ref="C197" r:id="rId63" display="http://localhost:3000/api/v1/contact_us/get_contact_us"/>
-    <hyperlink ref="C198" r:id="rId64" display="http://localhost:3000/api/v1/contact_us/modify_contact_us"/>
-    <hyperlink ref="C181" r:id="rId65" display="http://localhost:3000/api/v1/korean/get_korean"/>
-    <hyperlink ref="C200" r:id="rId66" display="http://localhost:3000/api/v1/contact_us/get_copyright"/>
-    <hyperlink ref="C201" r:id="rId67" display="http://localhost:3000/api/v1/contact_us/modify_copyright"/>
+    <hyperlink ref="C184" r:id="rId62"/>
+    <hyperlink ref="C197" r:id="rId63"/>
+    <hyperlink ref="C198" r:id="rId64"/>
+    <hyperlink ref="C181" r:id="rId65"/>
+    <hyperlink ref="C200" r:id="rId66"/>
+    <hyperlink ref="C201" r:id="rId67"/>
     <hyperlink ref="C203" r:id="rId68" display="http://localhost:3000/api/v1/helpcenter/get_helpcenter"/>
     <hyperlink ref="C204" r:id="rId69" display="http://localhost:3000/api/v1/helpcenter/modify_helpcenter"/>
     <hyperlink ref="C209" r:id="rId70" display="http://localhost:3000/api/v1/dynamic/get_dynamic_id"/>
     <hyperlink ref="C210" r:id="rId71" display="http://localhost:3000/api/v1/dynamic/add_dynamic"/>
     <hyperlink ref="C215" r:id="rId72" display="http://localhost:3000/api/v1/dynamic/modify_dynamic"/>
     <hyperlink ref="C206" r:id="rId73" display="http://localhost:3000/api/v1/dynamic/get_dynamics"/>
-    <hyperlink ref="C182" r:id="rId74" display="http://localhost:3000/api/v1/member/get_members"/>
+    <hyperlink ref="C182" r:id="rId74"/>
     <hyperlink ref="C207" r:id="rId75" display="http://localhost:3000/api/v1/dynamic/change_status"/>
     <hyperlink ref="C208" r:id="rId76" display="http://localhost:3000/api/v1/dynamic/delete_dynamic"/>
     <hyperlink ref="C221" r:id="rId77" display="http://localhost:3000/api/v1/industry_info/get_industry_infos"/>
@@ -7687,7 +7955,7 @@
     <hyperlink ref="C238" r:id="rId85" display="http://localhost:3000/api/v1/case_list/change_status"/>
     <hyperlink ref="C239" r:id="rId86" display="http://localhost:3000/api/v1/case_list/delete_case"/>
     <hyperlink ref="C240" r:id="rId87" display="http://localhost:3000/api/v1/case_list/get_case_id"/>
-    <hyperlink ref="C241" r:id="rId88" display="http://localhost:3000/api/v1/case_list/add_case"/>
+    <hyperlink ref="C241" r:id="rId88"/>
     <hyperlink ref="C248" r:id="rId89" display="http://localhost:3000/api/v1/case_list/modify_case"/>
     <hyperlink ref="C256" r:id="rId90" display="http://localhost:3000/api/v1/qa/get_qas"/>
     <hyperlink ref="C257" r:id="rId91" display="http://localhost:3000/api/v1/qa/delete_qas"/>
@@ -7698,18 +7966,22 @@
     <hyperlink ref="C10" r:id="rId96" display="http://localhost:3000/api/v1/banner/delete"/>
     <hyperlink ref="C9" r:id="rId97" display="http://localhost:3000/api/v1/banner/change_status"/>
     <hyperlink ref="C8" r:id="rId98" display="http://localhost:3000/api/v1/banner/get"/>
-    <hyperlink ref="C274" r:id="rId99" display="http://localhost:3000/api/v1/banner/modify_banner_image"/>
-    <hyperlink ref="C275" r:id="rId100" display="http://localhost:3000/api/v1/first_level_project/get_project_id_name/"/>
-    <hyperlink ref="C276" r:id="rId101" display="http://localhost:3000/api/v1/second_level_project/get_project_id_name/"/>
-    <hyperlink ref="C277" r:id="rId102" display="http://localhost:3000/api/v1/third_level_project/upload_before_image"/>
-    <hyperlink ref="C279" r:id="rId103" display="http://localhost:3000/api/v1/third_level_project/upload_effect_image"/>
-    <hyperlink ref="C281" r:id="rId104"/>
+    <hyperlink ref="C274" r:id="rId99" display="http://localhost:3000/api/v1/first_level_project/get_project_id_name/"/>
+    <hyperlink ref="C275" r:id="rId100" display="http://localhost:3000/api/v1/second_level_project/get_project_id_name/"/>
+    <hyperlink ref="C276" r:id="rId101" display="http://localhost:3000/api/v1/third_level_project/upload_before_image"/>
+    <hyperlink ref="C278" r:id="rId102" display="http://localhost:3000/api/v1/third_level_project/upload_effect_image"/>
+    <hyperlink ref="C280" r:id="rId103"/>
+    <hyperlink ref="C282" r:id="rId104"/>
     <hyperlink ref="C283" r:id="rId105"/>
     <hyperlink ref="C284" r:id="rId106"/>
+    <hyperlink ref="C286" r:id="rId107"/>
+    <hyperlink ref="C291" r:id="rId108"/>
+    <hyperlink ref="C293" r:id="rId109"/>
+    <hyperlink ref="C295" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId107"/>
-  <drawing r:id="rId108"/>
+  <pageSetup orientation="portrait" r:id="rId111"/>
+  <drawing r:id="rId112"/>
 </worksheet>
 </file>
 
@@ -7717,8 +7989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7750,12 +8022,12 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -7772,7 +8044,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="6" t="s">
         <v>258</v>
       </c>
@@ -7787,7 +8059,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="6" t="s">
         <v>261</v>
       </c>
@@ -7802,7 +8074,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="6" t="s">
         <v>263</v>
       </c>
@@ -7817,7 +8089,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="88" t="s">
         <v>267</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -7840,7 +8112,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="6" t="s">
         <v>272</v>
       </c>
@@ -7861,25 +8133,25 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="6" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="6" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="6" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="6" t="s">
         <v>278</v>
       </c>
@@ -7919,7 +8191,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>286</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -7936,7 +8208,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="88" t="s">
         <v>290</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -7956,7 +8228,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="6" t="s">
         <v>292</v>
       </c>
@@ -7974,7 +8246,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="6" t="s">
         <v>293</v>
       </c>
@@ -7992,16 +8264,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -8010,58 +8282,58 @@
       <c r="F21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="89" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="6" t="s">
         <v>302</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="72"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="69"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G23" s="72"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="69"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="6" t="s">
         <v>304</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="72"/>
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="69"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="6" t="s">
         <v>305</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="72"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -8069,16 +8341,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="54" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -8087,20 +8359,20 @@
       <c r="F27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="76"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="69"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="6" t="s">
         <v>305</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="76"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -8114,7 +8386,7 @@
       <c r="B30" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="42" t="s">
         <v>313</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -8131,16 +8403,16 @@
       <c r="A31" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="35"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="54" t="s">
         <v>315</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>318</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -8154,20 +8426,20 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="42" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8263,12 +8535,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A6:A11"/>
@@ -8277,6 +8543,12 @@
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="D21:D25"/>
     <mergeCell ref="B21:B25"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -8338,12 +8610,12 @@
       <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="54" t="s">
         <v>338</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -8360,7 +8632,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
@@ -8378,7 +8650,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="10" t="s">
         <v>343</v>
       </c>
@@ -8399,7 +8671,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="54" t="s">
         <v>344</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -8422,14 +8694,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="69" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="92" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -8438,45 +8710,45 @@
       <c r="F6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="69"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="10" t="s">
         <v>352</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="77"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="69"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="77"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="92" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="54" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -8485,51 +8757,51 @@
       <c r="F9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="69"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="10" t="s">
         <v>351</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="69"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="10" t="s">
         <v>352</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="76"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="69"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="76"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="88" t="s">
         <v>355</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -8543,7 +8815,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
@@ -8564,7 +8836,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="10" t="s">
         <v>359</v>
       </c>
@@ -8585,7 +8857,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="54" t="s">
         <v>361</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -8605,14 +8877,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="92" t="s">
         <v>365</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="54" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="10" t="s">
@@ -8621,120 +8893,120 @@
       <c r="F17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="76" t="s">
+      <c r="G17" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="69"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="10" t="s">
         <v>367</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="69"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="10" t="s">
         <v>368</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="69"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="10" t="s">
         <v>369</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="77"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="69"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="10" t="s">
         <v>370</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="77"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="69"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="10" t="s">
         <v>371</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="77"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="69"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="G23" s="77"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="69"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="10" t="s">
         <v>373</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="77"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="69"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="10" t="s">
         <v>374</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="77"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="92" t="s">
         <v>376</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="54" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="10" t="s">
@@ -8743,123 +9015,123 @@
       <c r="F26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="G26" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="69"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="10" t="s">
         <v>366</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="77"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="69"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="10" t="s">
         <v>367</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G28" s="77"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="69"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="10" t="s">
         <v>368</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="77"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="69"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="10" t="s">
         <v>369</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="77"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="69"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="10" t="s">
         <v>370</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="77"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="69"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="10" t="s">
         <v>371</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="77"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="69"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="G33" s="77"/>
+      <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="69"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="10" t="s">
         <v>373</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="77"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="69"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="10" t="s">
         <v>374</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="77"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
@@ -8901,11 +9173,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="D26:D35"/>
-    <mergeCell ref="G26:G35"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="A16:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A13:A15"/>
@@ -8916,11 +9188,11 @@
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="G9:G12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C26:C35"/>
+    <mergeCell ref="D26:D35"/>
+    <mergeCell ref="G26:G35"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="A16:A35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -8944,10 +9216,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B41" sqref="B40:B41"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8977,7 +9249,7 @@
       <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -9050,6 +9322,11 @@
       </c>
       <c r="F5" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/API.xlsx
+++ b/API.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="11475" windowHeight="11580" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="11475" windowHeight="9240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Web(Backend)" sheetId="1" r:id="rId1"/>
@@ -2555,6 +2555,54 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2567,10 +2615,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2579,58 +2657,40 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2639,39 +2699,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2679,33 +2706,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3107,7 +3107,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -3124,7 +3124,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
@@ -3139,7 +3139,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
@@ -3154,7 +3154,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="16" t="s">
         <v>18</v>
       </c>
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="96" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -3216,7 +3216,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="16" t="s">
         <v>34</v>
       </c>
@@ -3237,7 +3237,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="16" t="s">
         <v>37</v>
       </c>
@@ -3258,7 +3258,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="84" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -3281,14 +3281,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
-      <c r="B12" s="80" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="77" t="s">
+      <c r="C12" s="93" t="s">
         <v>346</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3297,58 +3297,58 @@
       <c r="F12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="83" t="s">
+      <c r="G12" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="75"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="22" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="96"/>
+      <c r="G13" s="101"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="75"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="96"/>
+      <c r="G14" s="101"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="76"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="97"/>
+      <c r="G15" s="102"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="80" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="93" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="22" t="s">
@@ -3357,64 +3357,64 @@
       <c r="F16" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="75"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="84"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="75"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="84"/>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="75"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="23" t="s">
         <v>26</v>
       </c>
       <c r="F19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="84"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="85"/>
+      <c r="G20" s="89"/>
     </row>
     <row r="21" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="96" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -3431,7 +3431,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92"/>
+      <c r="A22" s="103"/>
       <c r="B22" s="16" t="s">
         <v>34</v>
       </c>
@@ -3452,7 +3452,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="16" t="s">
         <v>45</v>
       </c>
@@ -3473,7 +3473,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="93" t="s">
+      <c r="A24" s="90" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -3490,14 +3490,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="80" t="s">
+      <c r="A25" s="91"/>
+      <c r="B25" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="93" t="s">
         <v>352</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="21" t="s">
@@ -3506,32 +3506,32 @@
       <c r="F25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="94"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="76"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="85"/>
+      <c r="G26" s="89"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="80" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="93" t="s">
         <v>353</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="22" t="s">
@@ -3540,38 +3540,38 @@
       <c r="F27" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="83" t="s">
+      <c r="G27" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="75"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="84"/>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="95"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="76"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="24" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="85"/>
+      <c r="G29" s="89"/>
     </row>
     <row r="30" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="90" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -3588,7 +3588,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
+      <c r="A31" s="91"/>
       <c r="B31" s="16" t="s">
         <v>34</v>
       </c>
@@ -3609,7 +3609,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="16" t="s">
         <v>45</v>
       </c>
@@ -3630,7 +3630,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87" t="s">
+      <c r="A33" s="84" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -3647,14 +3647,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="88"/>
-      <c r="B34" s="80" t="s">
+      <c r="A34" s="85"/>
+      <c r="B34" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="93" t="s">
         <v>358</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="22" t="s">
@@ -3663,45 +3663,45 @@
       <c r="F34" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="83" t="s">
+      <c r="G34" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="88"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="75"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="84"/>
+      <c r="G35" s="88"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="76"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="77"/>
       <c r="E36" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="85"/>
+      <c r="G36" s="89"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="88"/>
-      <c r="B37" s="80" t="s">
+      <c r="A37" s="85"/>
+      <c r="B37" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C37" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="22" t="s">
@@ -3710,51 +3710,51 @@
       <c r="F37" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="83" t="s">
+      <c r="G37" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="88"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="75"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="23" t="s">
         <v>51</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="84"/>
+      <c r="G38" s="88"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="88"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="75"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G39" s="84"/>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="89"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="76"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="85"/>
+      <c r="G40" s="89"/>
     </row>
     <row r="41" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="87" t="s">
+      <c r="A41" s="84" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -3772,7 +3772,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
+      <c r="A42" s="85"/>
       <c r="B42" s="16" t="s">
         <v>34</v>
       </c>
@@ -3793,7 +3793,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="89"/>
+      <c r="A43" s="86"/>
       <c r="B43" s="16" t="s">
         <v>45</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="90" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -3837,11 +3837,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="94"/>
-      <c r="B45" s="80" t="s">
+      <c r="A45" s="91"/>
+      <c r="B45" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="93" t="s">
         <v>364</v>
       </c>
       <c r="D45" s="98" t="s">
@@ -3856,9 +3856,9 @@
       <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="78"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="99"/>
       <c r="E46" s="23" t="s">
         <v>51</v>
@@ -3866,14 +3866,14 @@
       <c r="F46" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="83" t="s">
+      <c r="G46" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="78"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="99"/>
       <c r="E47" s="23" t="s">
         <v>60</v>
@@ -3881,12 +3881,12 @@
       <c r="F47" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G47" s="84"/>
+      <c r="G47" s="88"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="78"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="94"/>
       <c r="D48" s="99"/>
       <c r="E48" s="23" t="s">
         <v>43</v>
@@ -3894,12 +3894,12 @@
       <c r="F48" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G48" s="84"/>
+      <c r="G48" s="88"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="78"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="94"/>
       <c r="D49" s="99"/>
       <c r="E49" s="23" t="s">
         <v>61</v>
@@ -3907,12 +3907,12 @@
       <c r="F49" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="84"/>
+      <c r="G49" s="88"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="78"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="94"/>
       <c r="D50" s="99"/>
       <c r="E50" s="23" t="s">
         <v>62</v>
@@ -3920,12 +3920,12 @@
       <c r="F50" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="84"/>
+      <c r="G50" s="88"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="78"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="94"/>
       <c r="D51" s="99"/>
       <c r="E51" s="23" t="s">
         <v>63</v>
@@ -3933,12 +3933,12 @@
       <c r="F51" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="84"/>
+      <c r="G51" s="88"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="78"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="94"/>
       <c r="D52" s="99"/>
       <c r="E52" s="23" t="s">
         <v>64</v>
@@ -3946,12 +3946,12 @@
       <c r="F52" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G52" s="84"/>
+      <c r="G52" s="88"/>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="78"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="94"/>
       <c r="D53" s="99"/>
       <c r="E53" s="23" t="s">
         <v>65</v>
@@ -3959,12 +3959,12 @@
       <c r="F53" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="84"/>
+      <c r="G53" s="88"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="78"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="94"/>
       <c r="D54" s="99"/>
       <c r="E54" s="25" t="s">
         <v>67</v>
@@ -3972,12 +3972,12 @@
       <c r="F54" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G54" s="84"/>
+      <c r="G54" s="88"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="94"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="78"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="94"/>
       <c r="D55" s="99"/>
       <c r="E55" s="25" t="s">
         <v>68</v>
@@ -3985,12 +3985,12 @@
       <c r="F55" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="G55" s="84"/>
+      <c r="G55" s="88"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="78"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="94"/>
       <c r="D56" s="99"/>
       <c r="E56" s="25" t="s">
         <v>69</v>
@@ -3998,12 +3998,12 @@
       <c r="F56" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G56" s="84"/>
+      <c r="G56" s="88"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="78"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="94"/>
       <c r="D57" s="99"/>
       <c r="E57" s="25" t="s">
         <v>70</v>
@@ -4011,12 +4011,12 @@
       <c r="F57" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="84"/>
+      <c r="G57" s="88"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="94"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="78"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="94"/>
       <c r="D58" s="99"/>
       <c r="E58" s="25" t="s">
         <v>71</v>
@@ -4024,12 +4024,12 @@
       <c r="F58" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G58" s="84"/>
+      <c r="G58" s="88"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="94"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="78"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="94"/>
       <c r="D59" s="99"/>
       <c r="E59" s="25" t="s">
         <v>72</v>
@@ -4037,12 +4037,12 @@
       <c r="F59" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G59" s="84"/>
+      <c r="G59" s="88"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="94"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="78"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="94"/>
       <c r="D60" s="99"/>
       <c r="E60" s="25" t="s">
         <v>331</v>
@@ -4050,12 +4050,12 @@
       <c r="F60" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="84"/>
+      <c r="G60" s="88"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="78"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="94"/>
       <c r="D61" s="99"/>
       <c r="E61" s="25" t="s">
         <v>73</v>
@@ -4063,12 +4063,12 @@
       <c r="F61" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G61" s="84"/>
+      <c r="G61" s="88"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="78"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="94"/>
       <c r="D62" s="99"/>
       <c r="E62" s="25" t="s">
         <v>74</v>
@@ -4076,12 +4076,12 @@
       <c r="F62" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G62" s="84"/>
+      <c r="G62" s="88"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="78"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="94"/>
       <c r="D63" s="99"/>
       <c r="E63" s="25" t="s">
         <v>75</v>
@@ -4089,12 +4089,12 @@
       <c r="F63" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G63" s="84"/>
+      <c r="G63" s="88"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="78"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="94"/>
       <c r="D64" s="99"/>
       <c r="E64" s="25" t="s">
         <v>76</v>
@@ -4102,12 +4102,12 @@
       <c r="F64" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G64" s="84"/>
+      <c r="G64" s="88"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="94"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="79"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="95"/>
       <c r="D65" s="100"/>
       <c r="E65" s="26" t="s">
         <v>26</v>
@@ -4115,17 +4115,17 @@
       <c r="F65" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G65" s="85"/>
+      <c r="G65" s="89"/>
     </row>
     <row r="66" spans="1:7" s="37" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="94"/>
-      <c r="B66" s="80" t="s">
+      <c r="A66" s="91"/>
+      <c r="B66" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="77" t="s">
+      <c r="C66" s="93" t="s">
         <v>365</v>
       </c>
-      <c r="D66" s="74" t="s">
+      <c r="D66" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E66" s="25" t="s">
@@ -4134,272 +4134,272 @@
       <c r="F66" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="83" t="s">
+      <c r="G66" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="94"/>
-      <c r="B67" s="81"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="75"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="76"/>
       <c r="E67" s="22" t="s">
         <v>51</v>
       </c>
       <c r="F67" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G67" s="84"/>
+      <c r="G67" s="88"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="81"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="75"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="76"/>
       <c r="E68" s="23" t="s">
         <v>60</v>
       </c>
       <c r="F68" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G68" s="84"/>
+      <c r="G68" s="88"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
-      <c r="B69" s="81"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="75"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="76"/>
       <c r="E69" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="84"/>
+      <c r="G69" s="88"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="94"/>
-      <c r="B70" s="81"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="75"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="76"/>
       <c r="E70" s="23" t="s">
         <v>61</v>
       </c>
       <c r="F70" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="84"/>
+      <c r="G70" s="88"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="94"/>
-      <c r="B71" s="81"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="75"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="76"/>
       <c r="E71" s="23" t="s">
         <v>62</v>
       </c>
       <c r="F71" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="84"/>
+      <c r="G71" s="88"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
-      <c r="B72" s="81"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="75"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="76"/>
       <c r="E72" s="23" t="s">
         <v>63</v>
       </c>
       <c r="F72" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G72" s="84"/>
+      <c r="G72" s="88"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="81"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="75"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="76"/>
       <c r="E73" s="23" t="s">
         <v>64</v>
       </c>
       <c r="F73" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G73" s="84"/>
+      <c r="G73" s="88"/>
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
-      <c r="B74" s="81"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="75"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="76"/>
       <c r="E74" s="23" t="s">
         <v>65</v>
       </c>
       <c r="F74" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G74" s="84"/>
+      <c r="G74" s="88"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="94"/>
-      <c r="B75" s="81"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="75"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="25" t="s">
         <v>67</v>
       </c>
       <c r="F75" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G75" s="84"/>
+      <c r="G75" s="88"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="94"/>
-      <c r="B76" s="81"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="75"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="76"/>
       <c r="E76" s="25" t="s">
         <v>68</v>
       </c>
       <c r="F76" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G76" s="84"/>
+      <c r="G76" s="88"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="94"/>
-      <c r="B77" s="81"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="75"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="76"/>
       <c r="E77" s="25" t="s">
         <v>69</v>
       </c>
       <c r="F77" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G77" s="84"/>
+      <c r="G77" s="88"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="94"/>
-      <c r="B78" s="81"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="75"/>
+      <c r="A78" s="91"/>
+      <c r="B78" s="70"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="76"/>
       <c r="E78" s="25" t="s">
         <v>70</v>
       </c>
       <c r="F78" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G78" s="84"/>
+      <c r="G78" s="88"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="94"/>
-      <c r="B79" s="81"/>
-      <c r="C79" s="78"/>
-      <c r="D79" s="75"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="70"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="76"/>
       <c r="E79" s="25" t="s">
         <v>71</v>
       </c>
       <c r="F79" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G79" s="84"/>
+      <c r="G79" s="88"/>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="94"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="75"/>
+      <c r="A80" s="91"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="76"/>
       <c r="E80" s="25" t="s">
         <v>72</v>
       </c>
       <c r="F80" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G80" s="84"/>
+      <c r="G80" s="88"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="94"/>
-      <c r="B81" s="81"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="75"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="76"/>
       <c r="E81" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F81" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G81" s="84"/>
+      <c r="G81" s="88"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="94"/>
-      <c r="B82" s="81"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="75"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="76"/>
       <c r="E82" s="25" t="s">
         <v>73</v>
       </c>
       <c r="F82" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G82" s="84"/>
+      <c r="G82" s="88"/>
     </row>
     <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
-      <c r="B83" s="81"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="75"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="76"/>
       <c r="E83" s="25" t="s">
         <v>74</v>
       </c>
       <c r="F83" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G83" s="84"/>
+      <c r="G83" s="88"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
-      <c r="B84" s="81"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="75"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="76"/>
       <c r="E84" s="25" t="s">
         <v>75</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G84" s="84"/>
+      <c r="G84" s="88"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="94"/>
-      <c r="B85" s="81"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="75"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="76"/>
       <c r="E85" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F85" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G85" s="84"/>
+      <c r="G85" s="88"/>
     </row>
     <row r="86" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="95"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="79"/>
-      <c r="D86" s="76"/>
+      <c r="A86" s="92"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="77"/>
       <c r="E86" s="26" t="s">
         <v>26</v>
       </c>
       <c r="F86" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G86" s="85"/>
+      <c r="G86" s="89"/>
     </row>
     <row r="87" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="96" t="s">
         <v>94</v>
       </c>
       <c r="B87" s="16" t="s">
@@ -4416,7 +4416,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="71"/>
+      <c r="A88" s="97"/>
       <c r="B88" s="16" t="s">
         <v>98</v>
       </c>
@@ -4437,7 +4437,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="84" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="16" t="s">
@@ -4460,14 +4460,14 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="88"/>
-      <c r="B90" s="80" t="s">
+      <c r="A90" s="85"/>
+      <c r="B90" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="77" t="s">
+      <c r="C90" s="93" t="s">
         <v>369</v>
       </c>
-      <c r="D90" s="74" t="s">
+      <c r="D90" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="22" t="s">
@@ -4476,32 +4476,32 @@
       <c r="F90" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G90" s="83" t="s">
+      <c r="G90" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="88"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="76"/>
+      <c r="A91" s="85"/>
+      <c r="B91" s="71"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="77"/>
       <c r="E91" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F91" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G91" s="85"/>
+      <c r="G91" s="89"/>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="88"/>
-      <c r="B92" s="80" t="s">
+      <c r="A92" s="85"/>
+      <c r="B92" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="77" t="s">
+      <c r="C92" s="93" t="s">
         <v>370</v>
       </c>
-      <c r="D92" s="74" t="s">
+      <c r="D92" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E92" s="22" t="s">
@@ -4510,38 +4510,38 @@
       <c r="F92" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G92" s="83" t="s">
+      <c r="G92" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="88"/>
-      <c r="B93" s="81"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="75"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="76"/>
       <c r="E93" s="23" t="s">
         <v>93</v>
       </c>
       <c r="F93" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G93" s="84"/>
+      <c r="G93" s="88"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="89"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="76"/>
+      <c r="A94" s="86"/>
+      <c r="B94" s="71"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="77"/>
       <c r="E94" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F94" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G94" s="85"/>
+      <c r="G94" s="89"/>
     </row>
     <row r="95" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="96" t="s">
         <v>112</v>
       </c>
       <c r="B95" s="16" t="s">
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="92"/>
+      <c r="A96" s="103"/>
       <c r="B96" s="16" t="s">
         <v>34</v>
       </c>
@@ -4579,7 +4579,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="71"/>
+      <c r="A97" s="97"/>
       <c r="B97" s="16" t="s">
         <v>115</v>
       </c>
@@ -4600,7 +4600,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="70" t="s">
+      <c r="A98" s="96" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="16" t="s">
@@ -4623,14 +4623,14 @@
       </c>
     </row>
     <row r="99" spans="1:7" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="92"/>
-      <c r="B99" s="80" t="s">
+      <c r="A99" s="103"/>
+      <c r="B99" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="77" t="s">
+      <c r="C99" s="93" t="s">
         <v>373</v>
       </c>
-      <c r="D99" s="74" t="s">
+      <c r="D99" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="22" t="s">
@@ -4639,162 +4639,162 @@
       <c r="F99" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G99" s="83" t="s">
+      <c r="G99" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="92"/>
-      <c r="B100" s="81"/>
-      <c r="C100" s="78"/>
-      <c r="D100" s="75"/>
+      <c r="A100" s="103"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="94"/>
+      <c r="D100" s="76"/>
       <c r="E100" s="22" t="s">
         <v>103</v>
       </c>
       <c r="F100" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G100" s="84"/>
+      <c r="G100" s="88"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="92"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="75"/>
+      <c r="A101" s="103"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="76"/>
       <c r="E101" s="23" t="s">
         <v>110</v>
       </c>
       <c r="F101" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G101" s="84"/>
+      <c r="G101" s="88"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="92"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="78"/>
-      <c r="D102" s="75"/>
+      <c r="A102" s="103"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="76"/>
       <c r="E102" s="23" t="s">
         <v>105</v>
       </c>
       <c r="F102" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G102" s="84"/>
+      <c r="G102" s="88"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="92"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="78"/>
-      <c r="D103" s="75"/>
+      <c r="A103" s="103"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="76"/>
       <c r="E103" s="23" t="s">
         <v>106</v>
       </c>
       <c r="F103" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G103" s="84"/>
+      <c r="G103" s="88"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="92"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="78"/>
-      <c r="D104" s="75"/>
+      <c r="A104" s="103"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="76"/>
       <c r="E104" s="23" t="s">
         <v>107</v>
       </c>
       <c r="F104" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G104" s="84"/>
+      <c r="G104" s="88"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="92"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="78"/>
-      <c r="D105" s="75"/>
+      <c r="A105" s="103"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="94"/>
+      <c r="D105" s="76"/>
       <c r="E105" s="23" t="s">
         <v>108</v>
       </c>
       <c r="F105" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G105" s="84"/>
+      <c r="G105" s="88"/>
     </row>
     <row r="106" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="92"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="78"/>
-      <c r="D106" s="75"/>
+      <c r="A106" s="103"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="76"/>
       <c r="E106" s="23" t="s">
         <v>246</v>
       </c>
       <c r="F106" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G106" s="84"/>
+      <c r="G106" s="88"/>
     </row>
     <row r="107" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="92"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="75"/>
+      <c r="A107" s="103"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="76"/>
       <c r="E107" s="23" t="s">
         <v>247</v>
       </c>
       <c r="F107" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G107" s="84"/>
+      <c r="G107" s="88"/>
     </row>
     <row r="108" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="92"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="78"/>
-      <c r="D108" s="75"/>
+      <c r="A108" s="103"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="76"/>
       <c r="E108" s="23" t="s">
         <v>255</v>
       </c>
       <c r="F108" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G108" s="84"/>
+      <c r="G108" s="88"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="92"/>
-      <c r="B109" s="81"/>
-      <c r="C109" s="78"/>
-      <c r="D109" s="75"/>
+      <c r="A109" s="103"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="94"/>
+      <c r="D109" s="76"/>
       <c r="E109" s="23" t="s">
         <v>109</v>
       </c>
       <c r="F109" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G109" s="84"/>
+      <c r="G109" s="88"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="92"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="79"/>
-      <c r="D110" s="76"/>
+      <c r="A110" s="103"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="77"/>
       <c r="E110" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F110" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G110" s="85"/>
+      <c r="G110" s="89"/>
     </row>
     <row r="111" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="92"/>
-      <c r="B111" s="80" t="s">
+      <c r="A111" s="103"/>
+      <c r="B111" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="77" t="s">
+      <c r="C111" s="93" t="s">
         <v>374</v>
       </c>
-      <c r="D111" s="74" t="s">
+      <c r="D111" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E111" s="22" t="s">
@@ -4803,155 +4803,155 @@
       <c r="F111" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G111" s="83" t="s">
+      <c r="G111" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="92"/>
-      <c r="B112" s="81"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="75"/>
+      <c r="A112" s="103"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="76"/>
       <c r="E112" s="23" t="s">
         <v>103</v>
       </c>
       <c r="F112" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G112" s="84"/>
+      <c r="G112" s="88"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="92"/>
-      <c r="B113" s="81"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="75"/>
+      <c r="A113" s="103"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="94"/>
+      <c r="D113" s="76"/>
       <c r="E113" s="23" t="s">
         <v>110</v>
       </c>
       <c r="F113" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G113" s="84"/>
+      <c r="G113" s="88"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="92"/>
-      <c r="B114" s="81"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="75"/>
+      <c r="A114" s="103"/>
+      <c r="B114" s="70"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="76"/>
       <c r="E114" s="23" t="s">
         <v>105</v>
       </c>
       <c r="F114" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G114" s="84"/>
+      <c r="G114" s="88"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="92"/>
-      <c r="B115" s="81"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="75"/>
+      <c r="A115" s="103"/>
+      <c r="B115" s="70"/>
+      <c r="C115" s="94"/>
+      <c r="D115" s="76"/>
       <c r="E115" s="23" t="s">
         <v>106</v>
       </c>
       <c r="F115" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G115" s="84"/>
+      <c r="G115" s="88"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="92"/>
-      <c r="B116" s="81"/>
-      <c r="C116" s="78"/>
-      <c r="D116" s="75"/>
+      <c r="A116" s="103"/>
+      <c r="B116" s="70"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="76"/>
       <c r="E116" s="23" t="s">
         <v>107</v>
       </c>
       <c r="F116" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G116" s="84"/>
+      <c r="G116" s="88"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="92"/>
-      <c r="B117" s="81"/>
-      <c r="C117" s="78"/>
-      <c r="D117" s="75"/>
+      <c r="A117" s="103"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="94"/>
+      <c r="D117" s="76"/>
       <c r="E117" s="23" t="s">
         <v>108</v>
       </c>
       <c r="F117" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G117" s="84"/>
+      <c r="G117" s="88"/>
     </row>
     <row r="118" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="92"/>
-      <c r="B118" s="81"/>
-      <c r="C118" s="78"/>
-      <c r="D118" s="75"/>
+      <c r="A118" s="103"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="94"/>
+      <c r="D118" s="76"/>
       <c r="E118" s="23" t="s">
         <v>246</v>
       </c>
       <c r="F118" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G118" s="84"/>
+      <c r="G118" s="88"/>
     </row>
     <row r="119" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="92"/>
-      <c r="B119" s="81"/>
-      <c r="C119" s="78"/>
-      <c r="D119" s="75"/>
+      <c r="A119" s="103"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="94"/>
+      <c r="D119" s="76"/>
       <c r="E119" s="23" t="s">
         <v>247</v>
       </c>
       <c r="F119" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G119" s="84"/>
+      <c r="G119" s="88"/>
     </row>
     <row r="120" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="92"/>
-      <c r="B120" s="81"/>
-      <c r="C120" s="78"/>
-      <c r="D120" s="75"/>
+      <c r="A120" s="103"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="76"/>
       <c r="E120" s="23" t="s">
         <v>255</v>
       </c>
       <c r="F120" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G120" s="84"/>
+      <c r="G120" s="88"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="92"/>
-      <c r="B121" s="81"/>
-      <c r="C121" s="78"/>
-      <c r="D121" s="75"/>
+      <c r="A121" s="103"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="76"/>
       <c r="E121" s="23" t="s">
         <v>109</v>
       </c>
       <c r="F121" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G121" s="84"/>
+      <c r="G121" s="88"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="71"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="79"/>
-      <c r="D122" s="76"/>
+      <c r="A122" s="97"/>
+      <c r="B122" s="71"/>
+      <c r="C122" s="95"/>
+      <c r="D122" s="77"/>
       <c r="E122" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F122" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G122" s="85"/>
+      <c r="G122" s="89"/>
     </row>
     <row r="123" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="96" t="s">
         <v>130</v>
       </c>
       <c r="B123" s="16" t="s">
@@ -4968,7 +4968,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="92"/>
+      <c r="A124" s="103"/>
       <c r="B124" s="16" t="s">
         <v>34</v>
       </c>
@@ -4989,7 +4989,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="71"/>
+      <c r="A125" s="97"/>
       <c r="B125" s="16" t="s">
         <v>134</v>
       </c>
@@ -5010,7 +5010,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="87" t="s">
+      <c r="A126" s="84" t="s">
         <v>116</v>
       </c>
       <c r="B126" s="16" t="s">
@@ -5033,14 +5033,14 @@
       </c>
     </row>
     <row r="127" spans="1:7" s="37" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="88"/>
-      <c r="B127" s="80" t="s">
+      <c r="A127" s="85"/>
+      <c r="B127" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C127" s="77" t="s">
+      <c r="C127" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="D127" s="74" t="s">
+      <c r="D127" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E127" s="22" t="s">
@@ -5052,168 +5052,168 @@
       <c r="G127" s="36"/>
     </row>
     <row r="128" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="88"/>
-      <c r="B128" s="81"/>
-      <c r="C128" s="78"/>
-      <c r="D128" s="75"/>
+      <c r="A128" s="85"/>
+      <c r="B128" s="70"/>
+      <c r="C128" s="94"/>
+      <c r="D128" s="76"/>
       <c r="E128" s="22" t="s">
         <v>120</v>
       </c>
       <c r="F128" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G128" s="83" t="s">
+      <c r="G128" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="88"/>
-      <c r="B129" s="81"/>
-      <c r="C129" s="78"/>
-      <c r="D129" s="75"/>
+      <c r="A129" s="85"/>
+      <c r="B129" s="70"/>
+      <c r="C129" s="94"/>
+      <c r="D129" s="76"/>
       <c r="E129" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F129" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G129" s="84"/>
+      <c r="G129" s="88"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="88"/>
-      <c r="B130" s="81"/>
-      <c r="C130" s="78"/>
-      <c r="D130" s="75"/>
+      <c r="A130" s="85"/>
+      <c r="B130" s="70"/>
+      <c r="C130" s="94"/>
+      <c r="D130" s="76"/>
       <c r="E130" s="23" t="s">
         <v>122</v>
       </c>
       <c r="F130" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G130" s="84"/>
+      <c r="G130" s="88"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="88"/>
-      <c r="B131" s="81"/>
-      <c r="C131" s="78"/>
-      <c r="D131" s="75"/>
+      <c r="A131" s="85"/>
+      <c r="B131" s="70"/>
+      <c r="C131" s="94"/>
+      <c r="D131" s="76"/>
       <c r="E131" s="23" t="s">
         <v>123</v>
       </c>
       <c r="F131" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G131" s="84"/>
+      <c r="G131" s="88"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="88"/>
-      <c r="B132" s="81"/>
-      <c r="C132" s="78"/>
-      <c r="D132" s="75"/>
+      <c r="A132" s="85"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="94"/>
+      <c r="D132" s="76"/>
       <c r="E132" s="23" t="s">
         <v>124</v>
       </c>
       <c r="F132" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G132" s="84"/>
+      <c r="G132" s="88"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="88"/>
-      <c r="B133" s="81"/>
-      <c r="C133" s="78"/>
-      <c r="D133" s="75"/>
+      <c r="A133" s="85"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="94"/>
+      <c r="D133" s="76"/>
       <c r="E133" s="23" t="s">
         <v>125</v>
       </c>
       <c r="F133" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G133" s="84"/>
+      <c r="G133" s="88"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="88"/>
-      <c r="B134" s="81"/>
-      <c r="C134" s="78"/>
-      <c r="D134" s="75"/>
+      <c r="A134" s="85"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="94"/>
+      <c r="D134" s="76"/>
       <c r="E134" s="23" t="s">
         <v>417</v>
       </c>
       <c r="F134" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G134" s="84"/>
+      <c r="G134" s="88"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="88"/>
-      <c r="B135" s="81"/>
-      <c r="C135" s="78"/>
-      <c r="D135" s="75"/>
+      <c r="A135" s="85"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="94"/>
+      <c r="D135" s="76"/>
       <c r="E135" s="23" t="s">
         <v>108</v>
       </c>
       <c r="F135" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G135" s="84"/>
+      <c r="G135" s="88"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="88"/>
-      <c r="B136" s="81"/>
-      <c r="C136" s="78"/>
-      <c r="D136" s="75"/>
+      <c r="A136" s="85"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="94"/>
+      <c r="D136" s="76"/>
       <c r="E136" s="23" t="s">
         <v>127</v>
       </c>
       <c r="F136" s="29"/>
-      <c r="G136" s="84"/>
+      <c r="G136" s="88"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="88"/>
-      <c r="B137" s="81"/>
-      <c r="C137" s="78"/>
-      <c r="D137" s="75"/>
+      <c r="A137" s="85"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="94"/>
+      <c r="D137" s="76"/>
       <c r="E137" s="23" t="s">
         <v>128</v>
       </c>
       <c r="F137" s="29"/>
-      <c r="G137" s="84"/>
+      <c r="G137" s="88"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="88"/>
-      <c r="B138" s="81"/>
-      <c r="C138" s="78"/>
-      <c r="D138" s="75"/>
+      <c r="A138" s="85"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="94"/>
+      <c r="D138" s="76"/>
       <c r="E138" s="23" t="s">
         <v>129</v>
       </c>
       <c r="F138" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G138" s="84"/>
+      <c r="G138" s="88"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="88"/>
-      <c r="B139" s="82"/>
-      <c r="C139" s="79"/>
-      <c r="D139" s="76"/>
+      <c r="A139" s="85"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="95"/>
+      <c r="D139" s="77"/>
       <c r="E139" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F139" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G139" s="85"/>
+      <c r="G139" s="89"/>
     </row>
     <row r="140" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="88"/>
-      <c r="B140" s="80" t="s">
+      <c r="A140" s="85"/>
+      <c r="B140" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C140" s="77" t="s">
+      <c r="C140" s="93" t="s">
         <v>434</v>
       </c>
-      <c r="D140" s="74" t="s">
+      <c r="D140" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E140" s="22" t="s">
@@ -5222,164 +5222,164 @@
       <c r="F140" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G140" s="83" t="s">
+      <c r="G140" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="88"/>
-      <c r="B141" s="81"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="75"/>
+      <c r="A141" s="85"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="94"/>
+      <c r="D141" s="76"/>
       <c r="E141" s="23" t="s">
         <v>120</v>
       </c>
       <c r="F141" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G141" s="84"/>
+      <c r="G141" s="88"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="88"/>
-      <c r="B142" s="81"/>
-      <c r="C142" s="78"/>
-      <c r="D142" s="75"/>
+      <c r="A142" s="85"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="94"/>
+      <c r="D142" s="76"/>
       <c r="E142" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F142" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G142" s="84"/>
+      <c r="G142" s="88"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="88"/>
-      <c r="B143" s="81"/>
-      <c r="C143" s="78"/>
-      <c r="D143" s="75"/>
+      <c r="A143" s="85"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="94"/>
+      <c r="D143" s="76"/>
       <c r="E143" s="23" t="s">
         <v>122</v>
       </c>
       <c r="F143" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G143" s="84"/>
+      <c r="G143" s="88"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="88"/>
-      <c r="B144" s="81"/>
-      <c r="C144" s="78"/>
-      <c r="D144" s="75"/>
+      <c r="A144" s="85"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="94"/>
+      <c r="D144" s="76"/>
       <c r="E144" s="23" t="s">
         <v>123</v>
       </c>
       <c r="F144" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G144" s="84"/>
+      <c r="G144" s="88"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="88"/>
-      <c r="B145" s="81"/>
-      <c r="C145" s="78"/>
-      <c r="D145" s="75"/>
+      <c r="A145" s="85"/>
+      <c r="B145" s="70"/>
+      <c r="C145" s="94"/>
+      <c r="D145" s="76"/>
       <c r="E145" s="23" t="s">
         <v>124</v>
       </c>
       <c r="F145" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G145" s="84"/>
+      <c r="G145" s="88"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="88"/>
-      <c r="B146" s="81"/>
-      <c r="C146" s="78"/>
-      <c r="D146" s="75"/>
+      <c r="A146" s="85"/>
+      <c r="B146" s="70"/>
+      <c r="C146" s="94"/>
+      <c r="D146" s="76"/>
       <c r="E146" s="23" t="s">
         <v>125</v>
       </c>
       <c r="F146" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G146" s="84"/>
+      <c r="G146" s="88"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="88"/>
-      <c r="B147" s="81"/>
-      <c r="C147" s="78"/>
-      <c r="D147" s="75"/>
+      <c r="A147" s="85"/>
+      <c r="B147" s="70"/>
+      <c r="C147" s="94"/>
+      <c r="D147" s="76"/>
       <c r="E147" s="23" t="s">
         <v>126</v>
       </c>
       <c r="F147" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G147" s="84"/>
+      <c r="G147" s="88"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="88"/>
-      <c r="B148" s="81"/>
-      <c r="C148" s="78"/>
-      <c r="D148" s="75"/>
+      <c r="A148" s="85"/>
+      <c r="B148" s="70"/>
+      <c r="C148" s="94"/>
+      <c r="D148" s="76"/>
       <c r="E148" s="23" t="s">
         <v>108</v>
       </c>
       <c r="F148" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G148" s="84"/>
+      <c r="G148" s="88"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="88"/>
-      <c r="B149" s="81"/>
-      <c r="C149" s="78"/>
-      <c r="D149" s="75"/>
+      <c r="A149" s="85"/>
+      <c r="B149" s="70"/>
+      <c r="C149" s="94"/>
+      <c r="D149" s="76"/>
       <c r="E149" s="23" t="s">
         <v>127</v>
       </c>
       <c r="F149" s="29"/>
-      <c r="G149" s="84"/>
+      <c r="G149" s="88"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="88"/>
-      <c r="B150" s="81"/>
-      <c r="C150" s="78"/>
-      <c r="D150" s="75"/>
+      <c r="A150" s="85"/>
+      <c r="B150" s="70"/>
+      <c r="C150" s="94"/>
+      <c r="D150" s="76"/>
       <c r="E150" s="23" t="s">
         <v>128</v>
       </c>
       <c r="F150" s="29"/>
-      <c r="G150" s="84"/>
+      <c r="G150" s="88"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="88"/>
-      <c r="B151" s="81"/>
-      <c r="C151" s="78"/>
-      <c r="D151" s="75"/>
+      <c r="A151" s="85"/>
+      <c r="B151" s="70"/>
+      <c r="C151" s="94"/>
+      <c r="D151" s="76"/>
       <c r="E151" s="23" t="s">
         <v>129</v>
       </c>
       <c r="F151" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G151" s="84"/>
+      <c r="G151" s="88"/>
     </row>
     <row r="152" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="89"/>
-      <c r="B152" s="82"/>
-      <c r="C152" s="79"/>
-      <c r="D152" s="76"/>
+      <c r="A152" s="86"/>
+      <c r="B152" s="71"/>
+      <c r="C152" s="95"/>
+      <c r="D152" s="77"/>
       <c r="E152" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F152" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G152" s="85"/>
+      <c r="G152" s="89"/>
     </row>
     <row r="153" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="70" t="s">
+      <c r="A153" s="96" t="s">
         <v>137</v>
       </c>
       <c r="B153" s="16" t="s">
@@ -5396,7 +5396,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="92"/>
+      <c r="A154" s="103"/>
       <c r="B154" s="16" t="s">
         <v>34</v>
       </c>
@@ -5417,7 +5417,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="71"/>
+      <c r="A155" s="97"/>
       <c r="B155" s="16" t="s">
         <v>139</v>
       </c>
@@ -5438,7 +5438,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="70" t="s">
+      <c r="A156" s="96" t="s">
         <v>135</v>
       </c>
       <c r="B156" s="16" t="s">
@@ -5455,14 +5455,14 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="92"/>
-      <c r="B157" s="80" t="s">
+      <c r="A157" s="103"/>
+      <c r="B157" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="C157" s="77" t="s">
+      <c r="C157" s="93" t="s">
         <v>438</v>
       </c>
-      <c r="D157" s="74" t="s">
+      <c r="D157" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E157" s="22" t="s">
@@ -5471,32 +5471,32 @@
       <c r="F157" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G157" s="83" t="s">
+      <c r="G157" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="92"/>
-      <c r="B158" s="82"/>
-      <c r="C158" s="79"/>
-      <c r="D158" s="76"/>
+      <c r="A158" s="103"/>
+      <c r="B158" s="71"/>
+      <c r="C158" s="95"/>
+      <c r="D158" s="77"/>
       <c r="E158" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F158" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G158" s="85"/>
+      <c r="G158" s="89"/>
     </row>
     <row r="159" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="92"/>
-      <c r="B159" s="80" t="s">
+      <c r="A159" s="103"/>
+      <c r="B159" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="C159" s="77" t="s">
+      <c r="C159" s="93" t="s">
         <v>439</v>
       </c>
-      <c r="D159" s="74" t="s">
+      <c r="D159" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E159" s="22" t="s">
@@ -5505,38 +5505,38 @@
       <c r="F159" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G159" s="83" t="s">
+      <c r="G159" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="92"/>
-      <c r="B160" s="81"/>
-      <c r="C160" s="78"/>
-      <c r="D160" s="75"/>
+      <c r="A160" s="103"/>
+      <c r="B160" s="70"/>
+      <c r="C160" s="94"/>
+      <c r="D160" s="76"/>
       <c r="E160" s="23" t="s">
         <v>146</v>
       </c>
       <c r="F160" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G160" s="84"/>
+      <c r="G160" s="88"/>
     </row>
     <row r="161" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="71"/>
-      <c r="B161" s="82"/>
-      <c r="C161" s="79"/>
-      <c r="D161" s="76"/>
+      <c r="A161" s="97"/>
+      <c r="B161" s="71"/>
+      <c r="C161" s="95"/>
+      <c r="D161" s="77"/>
       <c r="E161" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F161" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G161" s="85"/>
+      <c r="G161" s="89"/>
     </row>
     <row r="162" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="70" t="s">
+      <c r="A162" s="96" t="s">
         <v>157</v>
       </c>
       <c r="B162" s="16" t="s">
@@ -5553,7 +5553,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="92"/>
+      <c r="A163" s="103"/>
       <c r="B163" s="16" t="s">
         <v>34</v>
       </c>
@@ -5574,7 +5574,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="71"/>
+      <c r="A164" s="97"/>
       <c r="B164" s="16" t="s">
         <v>160</v>
       </c>
@@ -5595,7 +5595,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="87" t="s">
+      <c r="A165" s="84" t="s">
         <v>140</v>
       </c>
       <c r="B165" s="16" t="s">
@@ -5618,14 +5618,14 @@
       </c>
     </row>
     <row r="166" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="88"/>
-      <c r="B166" s="80" t="s">
+      <c r="A166" s="85"/>
+      <c r="B166" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="C166" s="77" t="s">
+      <c r="C166" s="93" t="s">
         <v>443</v>
       </c>
-      <c r="D166" s="74" t="s">
+      <c r="D166" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E166" s="22" t="s">
@@ -5634,84 +5634,84 @@
       <c r="F166" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G166" s="83" t="s">
+      <c r="G166" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="88"/>
-      <c r="B167" s="81"/>
-      <c r="C167" s="78"/>
-      <c r="D167" s="75"/>
+      <c r="A167" s="85"/>
+      <c r="B167" s="70"/>
+      <c r="C167" s="94"/>
+      <c r="D167" s="76"/>
       <c r="E167" s="23" t="s">
         <v>428</v>
       </c>
       <c r="F167" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G167" s="84"/>
+      <c r="G167" s="88"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="88"/>
-      <c r="B168" s="81"/>
-      <c r="C168" s="78"/>
-      <c r="D168" s="75"/>
+      <c r="A168" s="85"/>
+      <c r="B168" s="70"/>
+      <c r="C168" s="94"/>
+      <c r="D168" s="76"/>
       <c r="E168" s="23" t="s">
         <v>150</v>
       </c>
       <c r="F168" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G168" s="84"/>
+      <c r="G168" s="88"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="88"/>
-      <c r="B169" s="81"/>
-      <c r="C169" s="78"/>
-      <c r="D169" s="75"/>
+      <c r="A169" s="85"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="94"/>
+      <c r="D169" s="76"/>
       <c r="E169" s="23" t="s">
         <v>151</v>
       </c>
       <c r="F169" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G169" s="84"/>
+      <c r="G169" s="88"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="88"/>
-      <c r="B170" s="81"/>
-      <c r="C170" s="78"/>
-      <c r="D170" s="75"/>
+      <c r="A170" s="85"/>
+      <c r="B170" s="70"/>
+      <c r="C170" s="94"/>
+      <c r="D170" s="76"/>
       <c r="E170" s="23" t="s">
         <v>153</v>
       </c>
       <c r="F170" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G170" s="84"/>
+      <c r="G170" s="88"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="88"/>
-      <c r="B171" s="82"/>
-      <c r="C171" s="79"/>
-      <c r="D171" s="76"/>
+      <c r="A171" s="85"/>
+      <c r="B171" s="71"/>
+      <c r="C171" s="95"/>
+      <c r="D171" s="77"/>
       <c r="E171" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F171" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G171" s="85"/>
+      <c r="G171" s="89"/>
     </row>
     <row r="172" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="88"/>
-      <c r="B172" s="80" t="s">
+      <c r="A172" s="85"/>
+      <c r="B172" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="C172" s="77" t="s">
+      <c r="C172" s="93" t="s">
         <v>444</v>
       </c>
-      <c r="D172" s="74" t="s">
+      <c r="D172" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E172" s="22" t="s">
@@ -5720,99 +5720,99 @@
       <c r="F172" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G172" s="83" t="s">
+      <c r="G172" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="88"/>
-      <c r="B173" s="81"/>
-      <c r="C173" s="78"/>
-      <c r="D173" s="75"/>
+      <c r="A173" s="85"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="94"/>
+      <c r="D173" s="76"/>
       <c r="E173" s="23" t="s">
         <v>149</v>
       </c>
       <c r="F173" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G173" s="84"/>
+      <c r="G173" s="88"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="88"/>
-      <c r="B174" s="81"/>
-      <c r="C174" s="78"/>
-      <c r="D174" s="75"/>
+      <c r="A174" s="85"/>
+      <c r="B174" s="70"/>
+      <c r="C174" s="94"/>
+      <c r="D174" s="76"/>
       <c r="E174" s="23" t="s">
         <v>150</v>
       </c>
       <c r="F174" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G174" s="84"/>
+      <c r="G174" s="88"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="88"/>
-      <c r="B175" s="81"/>
-      <c r="C175" s="78"/>
-      <c r="D175" s="75"/>
+      <c r="A175" s="85"/>
+      <c r="B175" s="70"/>
+      <c r="C175" s="94"/>
+      <c r="D175" s="76"/>
       <c r="E175" s="23" t="s">
         <v>151</v>
       </c>
       <c r="F175" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G175" s="84"/>
+      <c r="G175" s="88"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="88"/>
-      <c r="B176" s="81"/>
-      <c r="C176" s="78"/>
-      <c r="D176" s="75"/>
+      <c r="A176" s="85"/>
+      <c r="B176" s="70"/>
+      <c r="C176" s="94"/>
+      <c r="D176" s="76"/>
       <c r="E176" s="23" t="s">
         <v>152</v>
       </c>
       <c r="F176" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G176" s="84"/>
+      <c r="G176" s="88"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="88"/>
-      <c r="B177" s="81"/>
-      <c r="C177" s="78"/>
-      <c r="D177" s="75"/>
+      <c r="A177" s="85"/>
+      <c r="B177" s="70"/>
+      <c r="C177" s="94"/>
+      <c r="D177" s="76"/>
       <c r="E177" s="23" t="s">
         <v>153</v>
       </c>
       <c r="F177" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G177" s="84"/>
+      <c r="G177" s="88"/>
     </row>
     <row r="178" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="89"/>
-      <c r="B178" s="82"/>
-      <c r="C178" s="78"/>
-      <c r="D178" s="76"/>
+      <c r="A178" s="86"/>
+      <c r="B178" s="71"/>
+      <c r="C178" s="94"/>
+      <c r="D178" s="77"/>
       <c r="E178" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F178" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G178" s="85"/>
+      <c r="G178" s="89"/>
     </row>
     <row r="179" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="70" t="s">
+      <c r="A179" s="96" t="s">
         <v>161</v>
       </c>
-      <c r="B179" s="80" t="s">
+      <c r="B179" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="77" t="s">
+      <c r="C179" s="93" t="s">
         <v>445</v>
       </c>
-      <c r="D179" s="74" t="s">
+      <c r="D179" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E179" s="22" t="s">
@@ -5821,25 +5821,25 @@
       <c r="F179" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G179" s="83" t="s">
+      <c r="G179" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="92"/>
-      <c r="B180" s="82"/>
-      <c r="C180" s="79"/>
-      <c r="D180" s="76"/>
+      <c r="A180" s="103"/>
+      <c r="B180" s="71"/>
+      <c r="C180" s="95"/>
+      <c r="D180" s="77"/>
       <c r="E180" s="24" t="s">
         <v>153</v>
       </c>
       <c r="F180" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G180" s="85"/>
+      <c r="G180" s="89"/>
     </row>
     <row r="181" spans="1:7" s="5" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="71"/>
+      <c r="A181" s="97"/>
       <c r="B181" s="16" t="s">
         <v>180</v>
       </c>
@@ -5854,7 +5854,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="70" t="s">
+      <c r="A182" s="96" t="s">
         <v>169</v>
       </c>
       <c r="B182" s="16" t="s">
@@ -5871,7 +5871,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="92"/>
+      <c r="A183" s="103"/>
       <c r="B183" s="16" t="s">
         <v>34</v>
       </c>
@@ -5892,7 +5892,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="71"/>
+      <c r="A184" s="97"/>
       <c r="B184" s="16" t="s">
         <v>173</v>
       </c>
@@ -5913,7 +5913,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="70" t="s">
+      <c r="A185" s="96" t="s">
         <v>162</v>
       </c>
       <c r="B185" s="16" t="s">
@@ -5936,14 +5936,14 @@
       </c>
     </row>
     <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="92"/>
-      <c r="B186" s="80" t="s">
+      <c r="A186" s="103"/>
+      <c r="B186" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="C186" s="77" t="s">
+      <c r="C186" s="93" t="s">
         <v>450</v>
       </c>
-      <c r="D186" s="74" t="s">
+      <c r="D186" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E186" s="1" t="s">
@@ -5952,71 +5952,71 @@
       <c r="F186" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G186" s="83" t="s">
+      <c r="G186" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="92"/>
-      <c r="B187" s="81"/>
-      <c r="C187" s="78"/>
-      <c r="D187" s="75"/>
+      <c r="A187" s="103"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="94"/>
+      <c r="D187" s="76"/>
       <c r="E187" s="22" t="s">
         <v>165</v>
       </c>
       <c r="F187" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G187" s="84"/>
+      <c r="G187" s="88"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="92"/>
-      <c r="B188" s="81"/>
-      <c r="C188" s="78"/>
-      <c r="D188" s="75"/>
+      <c r="A188" s="103"/>
+      <c r="B188" s="70"/>
+      <c r="C188" s="94"/>
+      <c r="D188" s="76"/>
       <c r="E188" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F188" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G188" s="84"/>
+      <c r="G188" s="88"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="92"/>
-      <c r="B189" s="81"/>
-      <c r="C189" s="78"/>
-      <c r="D189" s="75"/>
+      <c r="A189" s="103"/>
+      <c r="B189" s="70"/>
+      <c r="C189" s="94"/>
+      <c r="D189" s="76"/>
       <c r="E189" s="23" t="s">
         <v>109</v>
       </c>
       <c r="F189" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G189" s="84"/>
+      <c r="G189" s="88"/>
     </row>
     <row r="190" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="92"/>
-      <c r="B190" s="82"/>
-      <c r="C190" s="79"/>
-      <c r="D190" s="76"/>
+      <c r="A190" s="103"/>
+      <c r="B190" s="71"/>
+      <c r="C190" s="95"/>
+      <c r="D190" s="77"/>
       <c r="E190" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F190" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="G190" s="85"/>
+      <c r="G190" s="89"/>
     </row>
     <row r="191" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="92"/>
-      <c r="B191" s="80" t="s">
+      <c r="A191" s="103"/>
+      <c r="B191" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="C191" s="77" t="s">
+      <c r="C191" s="93" t="s">
         <v>451</v>
       </c>
-      <c r="D191" s="74" t="s">
+      <c r="D191" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E191" s="22" t="s">
@@ -6025,77 +6025,77 @@
       <c r="F191" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G191" s="83" t="s">
+      <c r="G191" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="92"/>
-      <c r="B192" s="81"/>
-      <c r="C192" s="78"/>
-      <c r="D192" s="75"/>
+      <c r="A192" s="103"/>
+      <c r="B192" s="70"/>
+      <c r="C192" s="94"/>
+      <c r="D192" s="76"/>
       <c r="E192" s="23" t="s">
         <v>165</v>
       </c>
       <c r="F192" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G192" s="84"/>
+      <c r="G192" s="88"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="92"/>
-      <c r="B193" s="81"/>
-      <c r="C193" s="78"/>
-      <c r="D193" s="75"/>
+      <c r="A193" s="103"/>
+      <c r="B193" s="70"/>
+      <c r="C193" s="94"/>
+      <c r="D193" s="76"/>
       <c r="E193" s="23" t="s">
         <v>166</v>
       </c>
       <c r="F193" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G193" s="84"/>
+      <c r="G193" s="88"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="92"/>
-      <c r="B194" s="81"/>
-      <c r="C194" s="78"/>
-      <c r="D194" s="75"/>
+      <c r="A194" s="103"/>
+      <c r="B194" s="70"/>
+      <c r="C194" s="94"/>
+      <c r="D194" s="76"/>
       <c r="E194" s="23" t="s">
         <v>109</v>
       </c>
       <c r="F194" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G194" s="84"/>
+      <c r="G194" s="88"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="92"/>
-      <c r="B195" s="81"/>
-      <c r="C195" s="78"/>
-      <c r="D195" s="75"/>
+      <c r="A195" s="103"/>
+      <c r="B195" s="70"/>
+      <c r="C195" s="94"/>
+      <c r="D195" s="76"/>
       <c r="E195" s="23" t="s">
         <v>167</v>
       </c>
       <c r="F195" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G195" s="84"/>
+      <c r="G195" s="88"/>
     </row>
     <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="71"/>
-      <c r="B196" s="82"/>
-      <c r="C196" s="79"/>
-      <c r="D196" s="76"/>
+      <c r="A196" s="97"/>
+      <c r="B196" s="71"/>
+      <c r="C196" s="95"/>
+      <c r="D196" s="77"/>
       <c r="E196" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F196" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="G196" s="85"/>
+      <c r="G196" s="89"/>
     </row>
     <row r="197" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="87" t="s">
+      <c r="A197" s="84" t="s">
         <v>174</v>
       </c>
       <c r="B197" s="16" t="s">
@@ -6112,14 +6112,14 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="88"/>
-      <c r="B198" s="80" t="s">
+      <c r="A198" s="85"/>
+      <c r="B198" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="C198" s="77" t="s">
+      <c r="C198" s="93" t="s">
         <v>456</v>
       </c>
-      <c r="D198" s="74" t="s">
+      <c r="D198" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E198" s="22" t="s">
@@ -6128,25 +6128,25 @@
       <c r="F198" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G198" s="83" t="s">
+      <c r="G198" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="89"/>
-      <c r="B199" s="82"/>
-      <c r="C199" s="79"/>
-      <c r="D199" s="76"/>
+      <c r="A199" s="86"/>
+      <c r="B199" s="71"/>
+      <c r="C199" s="95"/>
+      <c r="D199" s="77"/>
       <c r="E199" s="24" t="s">
         <v>178</v>
       </c>
       <c r="F199" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G199" s="85"/>
+      <c r="G199" s="89"/>
     </row>
     <row r="200" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="87" t="s">
+      <c r="A200" s="84" t="s">
         <v>183</v>
       </c>
       <c r="B200" s="16" t="s">
@@ -6163,14 +6163,14 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="88"/>
-      <c r="B201" s="80" t="s">
+      <c r="A201" s="85"/>
+      <c r="B201" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="C201" s="77" t="s">
+      <c r="C201" s="93" t="s">
         <v>458</v>
       </c>
-      <c r="D201" s="74" t="s">
+      <c r="D201" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E201" s="22" t="s">
@@ -6179,25 +6179,25 @@
       <c r="F201" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G201" s="83" t="s">
+      <c r="G201" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="89"/>
-      <c r="B202" s="82"/>
-      <c r="C202" s="79"/>
-      <c r="D202" s="76"/>
+      <c r="A202" s="86"/>
+      <c r="B202" s="71"/>
+      <c r="C202" s="95"/>
+      <c r="D202" s="77"/>
       <c r="E202" s="24" t="s">
         <v>187</v>
       </c>
       <c r="F202" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G202" s="85"/>
+      <c r="G202" s="89"/>
     </row>
     <row r="203" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="70" t="s">
+      <c r="A203" s="96" t="s">
         <v>188</v>
       </c>
       <c r="B203" s="16" t="s">
@@ -6214,14 +6214,14 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="92"/>
-      <c r="B204" s="80" t="s">
+      <c r="A204" s="103"/>
+      <c r="B204" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C204" s="77" t="s">
+      <c r="C204" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="D204" s="74" t="s">
+      <c r="D204" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E204" s="22" t="s">
@@ -6230,25 +6230,25 @@
       <c r="F204" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G204" s="83" t="s">
+      <c r="G204" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="71"/>
-      <c r="B205" s="82"/>
-      <c r="C205" s="79"/>
-      <c r="D205" s="76"/>
+      <c r="A205" s="97"/>
+      <c r="B205" s="71"/>
+      <c r="C205" s="95"/>
+      <c r="D205" s="77"/>
       <c r="E205" s="24" t="s">
         <v>192</v>
       </c>
       <c r="F205" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G205" s="85"/>
+      <c r="G205" s="89"/>
     </row>
     <row r="206" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="70" t="s">
+      <c r="A206" s="96" t="s">
         <v>204</v>
       </c>
       <c r="B206" s="16" t="s">
@@ -6265,7 +6265,7 @@
       </c>
     </row>
     <row r="207" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="92"/>
+      <c r="A207" s="103"/>
       <c r="B207" s="16" t="s">
         <v>34</v>
       </c>
@@ -6286,7 +6286,7 @@
       </c>
     </row>
     <row r="208" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="71"/>
+      <c r="A208" s="97"/>
       <c r="B208" s="16" t="s">
         <v>207</v>
       </c>
@@ -6307,7 +6307,7 @@
       </c>
     </row>
     <row r="209" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="70" t="s">
+      <c r="A209" s="96" t="s">
         <v>195</v>
       </c>
       <c r="B209" s="16" t="s">
@@ -6324,14 +6324,14 @@
       </c>
     </row>
     <row r="210" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="92"/>
-      <c r="B210" s="80" t="s">
+      <c r="A210" s="103"/>
+      <c r="B210" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="C210" s="77">
+      <c r="C210" s="93">
         <v>0</v>
       </c>
-      <c r="D210" s="74" t="s">
+      <c r="D210" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E210" s="22" t="s">
@@ -6340,71 +6340,71 @@
       <c r="F210" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G210" s="83" t="s">
+      <c r="G210" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="92"/>
-      <c r="B211" s="81"/>
-      <c r="C211" s="78"/>
-      <c r="D211" s="75"/>
+      <c r="A211" s="103"/>
+      <c r="B211" s="70"/>
+      <c r="C211" s="94"/>
+      <c r="D211" s="76"/>
       <c r="E211" s="23" t="s">
         <v>200</v>
       </c>
       <c r="F211" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G211" s="84"/>
+      <c r="G211" s="88"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="92"/>
-      <c r="B212" s="81"/>
-      <c r="C212" s="78"/>
-      <c r="D212" s="75"/>
+      <c r="A212" s="103"/>
+      <c r="B212" s="70"/>
+      <c r="C212" s="94"/>
+      <c r="D212" s="76"/>
       <c r="E212" s="23" t="s">
         <v>201</v>
       </c>
       <c r="F212" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G212" s="84"/>
+      <c r="G212" s="88"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="92"/>
-      <c r="B213" s="81"/>
-      <c r="C213" s="78"/>
-      <c r="D213" s="75"/>
+      <c r="A213" s="103"/>
+      <c r="B213" s="70"/>
+      <c r="C213" s="94"/>
+      <c r="D213" s="76"/>
       <c r="E213" s="23" t="s">
         <v>202</v>
       </c>
       <c r="F213" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G213" s="84"/>
+      <c r="G213" s="88"/>
     </row>
     <row r="214" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="92"/>
-      <c r="B214" s="82"/>
-      <c r="C214" s="79"/>
-      <c r="D214" s="76"/>
+      <c r="A214" s="103"/>
+      <c r="B214" s="71"/>
+      <c r="C214" s="95"/>
+      <c r="D214" s="77"/>
       <c r="E214" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F214" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G214" s="85"/>
+      <c r="G214" s="89"/>
     </row>
     <row r="215" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="92"/>
-      <c r="B215" s="80" t="s">
+      <c r="A215" s="103"/>
+      <c r="B215" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="C215" s="77" t="s">
+      <c r="C215" s="93" t="s">
         <v>465</v>
       </c>
-      <c r="D215" s="74" t="s">
+      <c r="D215" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E215" s="22" t="s">
@@ -6413,77 +6413,77 @@
       <c r="F215" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G215" s="83" t="s">
+      <c r="G215" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="92"/>
-      <c r="B216" s="81"/>
-      <c r="C216" s="78"/>
-      <c r="D216" s="75"/>
+      <c r="A216" s="103"/>
+      <c r="B216" s="70"/>
+      <c r="C216" s="94"/>
+      <c r="D216" s="76"/>
       <c r="E216" s="23" t="s">
         <v>199</v>
       </c>
       <c r="F216" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G216" s="84"/>
+      <c r="G216" s="88"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="92"/>
-      <c r="B217" s="81"/>
-      <c r="C217" s="78"/>
-      <c r="D217" s="75"/>
+      <c r="A217" s="103"/>
+      <c r="B217" s="70"/>
+      <c r="C217" s="94"/>
+      <c r="D217" s="76"/>
       <c r="E217" s="23" t="s">
         <v>200</v>
       </c>
       <c r="F217" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G217" s="84"/>
+      <c r="G217" s="88"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="92"/>
-      <c r="B218" s="81"/>
-      <c r="C218" s="78"/>
-      <c r="D218" s="75"/>
+      <c r="A218" s="103"/>
+      <c r="B218" s="70"/>
+      <c r="C218" s="94"/>
+      <c r="D218" s="76"/>
       <c r="E218" s="23" t="s">
         <v>201</v>
       </c>
       <c r="F218" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G218" s="84"/>
+      <c r="G218" s="88"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="92"/>
-      <c r="B219" s="81"/>
-      <c r="C219" s="78"/>
-      <c r="D219" s="75"/>
+      <c r="A219" s="103"/>
+      <c r="B219" s="70"/>
+      <c r="C219" s="94"/>
+      <c r="D219" s="76"/>
       <c r="E219" s="23" t="s">
         <v>202</v>
       </c>
       <c r="F219" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G219" s="84"/>
+      <c r="G219" s="88"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="71"/>
-      <c r="B220" s="82"/>
-      <c r="C220" s="79"/>
-      <c r="D220" s="76"/>
+      <c r="A220" s="97"/>
+      <c r="B220" s="71"/>
+      <c r="C220" s="95"/>
+      <c r="D220" s="77"/>
       <c r="E220" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F220" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G220" s="85"/>
+      <c r="G220" s="89"/>
     </row>
     <row r="221" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="70" t="s">
+      <c r="A221" s="96" t="s">
         <v>208</v>
       </c>
       <c r="B221" s="16" t="s">
@@ -6500,7 +6500,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="92"/>
+      <c r="A222" s="103"/>
       <c r="B222" s="16" t="s">
         <v>34</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="71"/>
+      <c r="A223" s="97"/>
       <c r="B223" s="16" t="s">
         <v>211</v>
       </c>
@@ -6542,7 +6542,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="70" t="s">
+      <c r="A224" s="96" t="s">
         <v>212</v>
       </c>
       <c r="B224" s="16" t="s">
@@ -6559,14 +6559,14 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="92"/>
-      <c r="B225" s="80" t="s">
+      <c r="A225" s="103"/>
+      <c r="B225" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="C225" s="77" t="s">
+      <c r="C225" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="D225" s="74" t="s">
+      <c r="D225" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E225" s="22" t="s">
@@ -6575,71 +6575,71 @@
       <c r="F225" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G225" s="83" t="s">
+      <c r="G225" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="92"/>
-      <c r="B226" s="81"/>
-      <c r="C226" s="78"/>
-      <c r="D226" s="75"/>
+      <c r="A226" s="103"/>
+      <c r="B226" s="70"/>
+      <c r="C226" s="94"/>
+      <c r="D226" s="76"/>
       <c r="E226" s="23" t="s">
         <v>217</v>
       </c>
       <c r="F226" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G226" s="84"/>
+      <c r="G226" s="88"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="92"/>
-      <c r="B227" s="81"/>
-      <c r="C227" s="78"/>
-      <c r="D227" s="75"/>
+      <c r="A227" s="103"/>
+      <c r="B227" s="70"/>
+      <c r="C227" s="94"/>
+      <c r="D227" s="76"/>
       <c r="E227" s="23" t="s">
         <v>218</v>
       </c>
       <c r="F227" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G227" s="84"/>
+      <c r="G227" s="88"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="92"/>
-      <c r="B228" s="81"/>
-      <c r="C228" s="78"/>
-      <c r="D228" s="75"/>
+      <c r="A228" s="103"/>
+      <c r="B228" s="70"/>
+      <c r="C228" s="94"/>
+      <c r="D228" s="76"/>
       <c r="E228" s="23" t="s">
         <v>219</v>
       </c>
       <c r="F228" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G228" s="84"/>
+      <c r="G228" s="88"/>
     </row>
     <row r="229" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="92"/>
-      <c r="B229" s="82"/>
-      <c r="C229" s="79"/>
-      <c r="D229" s="76"/>
+      <c r="A229" s="103"/>
+      <c r="B229" s="71"/>
+      <c r="C229" s="95"/>
+      <c r="D229" s="77"/>
       <c r="E229" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F229" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G229" s="85"/>
+      <c r="G229" s="89"/>
     </row>
     <row r="230" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="92"/>
-      <c r="B230" s="80" t="s">
+      <c r="A230" s="103"/>
+      <c r="B230" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="C230" s="77" t="s">
+      <c r="C230" s="93" t="s">
         <v>388</v>
       </c>
-      <c r="D230" s="74" t="s">
+      <c r="D230" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E230" s="22" t="s">
@@ -6648,77 +6648,77 @@
       <c r="F230" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G230" s="83" t="s">
+      <c r="G230" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="92"/>
-      <c r="B231" s="81"/>
-      <c r="C231" s="78"/>
-      <c r="D231" s="75"/>
+      <c r="A231" s="103"/>
+      <c r="B231" s="70"/>
+      <c r="C231" s="94"/>
+      <c r="D231" s="76"/>
       <c r="E231" s="23" t="s">
         <v>216</v>
       </c>
       <c r="F231" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G231" s="84"/>
+      <c r="G231" s="88"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="92"/>
-      <c r="B232" s="81"/>
-      <c r="C232" s="78"/>
-      <c r="D232" s="75"/>
+      <c r="A232" s="103"/>
+      <c r="B232" s="70"/>
+      <c r="C232" s="94"/>
+      <c r="D232" s="76"/>
       <c r="E232" s="23" t="s">
         <v>217</v>
       </c>
       <c r="F232" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G232" s="84"/>
+      <c r="G232" s="88"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="92"/>
-      <c r="B233" s="81"/>
-      <c r="C233" s="78"/>
-      <c r="D233" s="75"/>
+      <c r="A233" s="103"/>
+      <c r="B233" s="70"/>
+      <c r="C233" s="94"/>
+      <c r="D233" s="76"/>
       <c r="E233" s="23" t="s">
         <v>218</v>
       </c>
       <c r="F233" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G233" s="84"/>
+      <c r="G233" s="88"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="92"/>
-      <c r="B234" s="81"/>
-      <c r="C234" s="78"/>
-      <c r="D234" s="75"/>
+      <c r="A234" s="103"/>
+      <c r="B234" s="70"/>
+      <c r="C234" s="94"/>
+      <c r="D234" s="76"/>
       <c r="E234" s="23" t="s">
         <v>219</v>
       </c>
       <c r="F234" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G234" s="84"/>
+      <c r="G234" s="88"/>
     </row>
     <row r="235" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="71"/>
-      <c r="B235" s="82"/>
-      <c r="C235" s="79"/>
-      <c r="D235" s="76"/>
+      <c r="A235" s="97"/>
+      <c r="B235" s="71"/>
+      <c r="C235" s="95"/>
+      <c r="D235" s="77"/>
       <c r="E235" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F235" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G235" s="85"/>
+      <c r="G235" s="89"/>
     </row>
     <row r="236" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="70" t="s">
+      <c r="A236" s="96" t="s">
         <v>221</v>
       </c>
       <c r="B236" s="16" t="s">
@@ -6741,7 +6741,7 @@
       </c>
     </row>
     <row r="237" spans="1:7" s="45" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="71"/>
+      <c r="A237" s="97"/>
       <c r="B237" s="16" t="s">
         <v>470</v>
       </c>
@@ -6756,7 +6756,7 @@
       <c r="G237" s="34"/>
     </row>
     <row r="238" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="87" t="s">
+      <c r="A238" s="84" t="s">
         <v>226</v>
       </c>
       <c r="B238" s="16" t="s">
@@ -6773,7 +6773,7 @@
       </c>
     </row>
     <row r="239" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="88"/>
+      <c r="A239" s="85"/>
       <c r="B239" s="16" t="s">
         <v>34</v>
       </c>
@@ -6794,7 +6794,7 @@
       </c>
     </row>
     <row r="240" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="89"/>
+      <c r="A240" s="86"/>
       <c r="B240" s="16" t="s">
         <v>228</v>
       </c>
@@ -6815,7 +6815,7 @@
       </c>
     </row>
     <row r="241" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="87" t="s">
+      <c r="A241" s="84" t="s">
         <v>229</v>
       </c>
       <c r="B241" s="16" t="s">
@@ -6838,14 +6838,14 @@
       </c>
     </row>
     <row r="242" spans="1:7" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="88"/>
-      <c r="B242" s="80" t="s">
+      <c r="A242" s="85"/>
+      <c r="B242" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="C242" s="77" t="s">
+      <c r="C242" s="93" t="s">
         <v>393</v>
       </c>
-      <c r="D242" s="74" t="s">
+      <c r="D242" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E242" s="22" t="s">
@@ -6854,97 +6854,97 @@
       <c r="F242" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G242" s="83" t="s">
+      <c r="G242" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="88"/>
-      <c r="B243" s="81"/>
-      <c r="C243" s="78"/>
-      <c r="D243" s="75"/>
+      <c r="A243" s="85"/>
+      <c r="B243" s="70"/>
+      <c r="C243" s="94"/>
+      <c r="D243" s="76"/>
       <c r="E243" s="22" t="s">
         <v>418</v>
       </c>
       <c r="F243" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G243" s="84"/>
+      <c r="G243" s="88"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="88"/>
-      <c r="B244" s="81"/>
-      <c r="C244" s="78"/>
-      <c r="D244" s="75"/>
+      <c r="A244" s="85"/>
+      <c r="B244" s="70"/>
+      <c r="C244" s="94"/>
+      <c r="D244" s="76"/>
       <c r="E244" s="23" t="s">
         <v>104</v>
       </c>
       <c r="F244" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G244" s="84"/>
+      <c r="G244" s="88"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="88"/>
-      <c r="B245" s="81"/>
-      <c r="C245" s="78"/>
-      <c r="D245" s="75"/>
+      <c r="A245" s="85"/>
+      <c r="B245" s="70"/>
+      <c r="C245" s="94"/>
+      <c r="D245" s="76"/>
       <c r="E245" s="23" t="s">
         <v>420</v>
       </c>
       <c r="F245" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G245" s="84"/>
+      <c r="G245" s="88"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="88"/>
-      <c r="B246" s="81"/>
-      <c r="C246" s="78"/>
-      <c r="D246" s="75"/>
+      <c r="A246" s="85"/>
+      <c r="B246" s="70"/>
+      <c r="C246" s="94"/>
+      <c r="D246" s="76"/>
       <c r="E246" s="23" t="s">
         <v>419</v>
       </c>
       <c r="F246" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G246" s="84"/>
+      <c r="G246" s="88"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="88"/>
-      <c r="B247" s="81"/>
-      <c r="C247" s="78"/>
-      <c r="D247" s="75"/>
+      <c r="A247" s="85"/>
+      <c r="B247" s="70"/>
+      <c r="C247" s="94"/>
+      <c r="D247" s="76"/>
       <c r="E247" s="23" t="s">
         <v>129</v>
       </c>
       <c r="F247" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G247" s="84"/>
+      <c r="G247" s="88"/>
     </row>
     <row r="248" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="88"/>
-      <c r="B248" s="82"/>
-      <c r="C248" s="79"/>
-      <c r="D248" s="76"/>
+      <c r="A248" s="85"/>
+      <c r="B248" s="71"/>
+      <c r="C248" s="95"/>
+      <c r="D248" s="77"/>
       <c r="E248" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F248" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G248" s="85"/>
+      <c r="G248" s="89"/>
     </row>
     <row r="249" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="88"/>
-      <c r="B249" s="80" t="s">
+      <c r="A249" s="85"/>
+      <c r="B249" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="C249" s="77" t="s">
+      <c r="C249" s="93" t="s">
         <v>394</v>
       </c>
-      <c r="D249" s="74" t="s">
+      <c r="D249" s="75" t="s">
         <v>35</v>
       </c>
       <c r="E249" s="22" t="s">
@@ -6953,112 +6953,112 @@
       <c r="F249" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G249" s="83" t="s">
+      <c r="G249" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="88"/>
-      <c r="B250" s="81"/>
-      <c r="C250" s="78"/>
-      <c r="D250" s="75"/>
+      <c r="A250" s="85"/>
+      <c r="B250" s="70"/>
+      <c r="C250" s="94"/>
+      <c r="D250" s="76"/>
       <c r="E250" s="23" t="s">
         <v>120</v>
       </c>
       <c r="F250" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G250" s="84"/>
+      <c r="G250" s="88"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="88"/>
-      <c r="B251" s="81"/>
-      <c r="C251" s="78"/>
-      <c r="D251" s="75"/>
+      <c r="A251" s="85"/>
+      <c r="B251" s="70"/>
+      <c r="C251" s="94"/>
+      <c r="D251" s="76"/>
       <c r="E251" s="23" t="s">
         <v>121</v>
       </c>
       <c r="F251" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G251" s="84"/>
+      <c r="G251" s="88"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="88"/>
-      <c r="B252" s="81"/>
-      <c r="C252" s="78"/>
-      <c r="D252" s="75"/>
+      <c r="A252" s="85"/>
+      <c r="B252" s="70"/>
+      <c r="C252" s="94"/>
+      <c r="D252" s="76"/>
       <c r="E252" s="23" t="s">
         <v>234</v>
       </c>
       <c r="F252" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G252" s="84"/>
+      <c r="G252" s="88"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="88"/>
-      <c r="B253" s="81"/>
-      <c r="C253" s="78"/>
-      <c r="D253" s="75"/>
+      <c r="A253" s="85"/>
+      <c r="B253" s="70"/>
+      <c r="C253" s="94"/>
+      <c r="D253" s="76"/>
       <c r="E253" s="23" t="s">
         <v>235</v>
       </c>
       <c r="F253" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G253" s="84"/>
+      <c r="G253" s="88"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="88"/>
-      <c r="B254" s="81"/>
-      <c r="C254" s="78"/>
-      <c r="D254" s="75"/>
+      <c r="A254" s="85"/>
+      <c r="B254" s="70"/>
+      <c r="C254" s="94"/>
+      <c r="D254" s="76"/>
       <c r="E254" s="23" t="s">
         <v>236</v>
       </c>
       <c r="F254" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G254" s="84"/>
+      <c r="G254" s="88"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="88"/>
-      <c r="B255" s="81"/>
-      <c r="C255" s="78"/>
-      <c r="D255" s="75"/>
+      <c r="A255" s="85"/>
+      <c r="B255" s="70"/>
+      <c r="C255" s="94"/>
+      <c r="D255" s="76"/>
       <c r="E255" s="23" t="s">
         <v>237</v>
       </c>
       <c r="F255" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G255" s="84"/>
+      <c r="G255" s="88"/>
     </row>
     <row r="256" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="89"/>
-      <c r="B256" s="82"/>
-      <c r="C256" s="79"/>
-      <c r="D256" s="76"/>
+      <c r="A256" s="86"/>
+      <c r="B256" s="71"/>
+      <c r="C256" s="95"/>
+      <c r="D256" s="77"/>
       <c r="E256" s="24" t="s">
         <v>26</v>
       </c>
       <c r="F256" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G256" s="85"/>
+      <c r="G256" s="89"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="70" t="s">
+      <c r="A257" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="B257" s="80" t="s">
+      <c r="B257" s="69" t="s">
         <v>530</v>
       </c>
-      <c r="C257" s="77" t="s">
+      <c r="C257" s="93" t="s">
         <v>531</v>
       </c>
-      <c r="D257" s="74" t="s">
+      <c r="D257" s="75" t="s">
         <v>6</v>
       </c>
       <c r="E257" s="22" t="s">
@@ -7067,90 +7067,90 @@
       <c r="F257" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G257" s="83" t="s">
+      <c r="G257" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="92"/>
-      <c r="B258" s="81"/>
-      <c r="C258" s="78"/>
-      <c r="D258" s="75"/>
+      <c r="A258" s="103"/>
+      <c r="B258" s="70"/>
+      <c r="C258" s="94"/>
+      <c r="D258" s="76"/>
       <c r="E258" s="23" t="s">
         <v>257</v>
       </c>
       <c r="F258" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G258" s="84"/>
+      <c r="G258" s="88"/>
     </row>
     <row r="259" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="92"/>
-      <c r="B259" s="81"/>
-      <c r="C259" s="78"/>
-      <c r="D259" s="75"/>
+      <c r="A259" s="103"/>
+      <c r="B259" s="70"/>
+      <c r="C259" s="94"/>
+      <c r="D259" s="76"/>
       <c r="E259" s="23" t="s">
         <v>246</v>
       </c>
       <c r="F259" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G259" s="84"/>
+      <c r="G259" s="88"/>
     </row>
     <row r="260" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="92"/>
-      <c r="B260" s="81"/>
-      <c r="C260" s="78"/>
-      <c r="D260" s="75"/>
+      <c r="A260" s="103"/>
+      <c r="B260" s="70"/>
+      <c r="C260" s="94"/>
+      <c r="D260" s="76"/>
       <c r="E260" s="23" t="s">
         <v>247</v>
       </c>
       <c r="F260" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G260" s="84"/>
+      <c r="G260" s="88"/>
     </row>
     <row r="261" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="92"/>
-      <c r="B261" s="81"/>
-      <c r="C261" s="78"/>
-      <c r="D261" s="75"/>
+      <c r="A261" s="103"/>
+      <c r="B261" s="70"/>
+      <c r="C261" s="94"/>
+      <c r="D261" s="76"/>
       <c r="E261" s="23" t="s">
         <v>255</v>
       </c>
       <c r="F261" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G261" s="84"/>
+      <c r="G261" s="88"/>
     </row>
     <row r="262" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="92"/>
-      <c r="B262" s="81"/>
-      <c r="C262" s="78"/>
-      <c r="D262" s="75"/>
+      <c r="A262" s="103"/>
+      <c r="B262" s="70"/>
+      <c r="C262" s="94"/>
+      <c r="D262" s="76"/>
       <c r="E262" s="23" t="s">
         <v>258</v>
       </c>
       <c r="F262" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G262" s="84"/>
+      <c r="G262" s="88"/>
     </row>
     <row r="263" spans="1:7" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="92"/>
-      <c r="B263" s="82"/>
-      <c r="C263" s="79"/>
-      <c r="D263" s="76"/>
+      <c r="A263" s="103"/>
+      <c r="B263" s="71"/>
+      <c r="C263" s="95"/>
+      <c r="D263" s="77"/>
       <c r="E263" s="24" t="s">
         <v>259</v>
       </c>
       <c r="F263" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="G263" s="85"/>
+      <c r="G263" s="89"/>
     </row>
     <row r="264" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="71"/>
+      <c r="A264" s="97"/>
       <c r="B264" s="16" t="s">
         <v>532</v>
       </c>
@@ -7171,7 +7171,7 @@
       </c>
     </row>
     <row r="265" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="87" t="s">
+      <c r="A265" s="84" t="s">
         <v>240</v>
       </c>
       <c r="B265" s="50" t="s">
@@ -7195,53 +7195,53 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="106"/>
-      <c r="B266" s="80" t="s">
+      <c r="B266" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="C266" s="112" t="s">
+      <c r="C266" s="72" t="s">
         <v>395</v>
       </c>
-      <c r="D266" s="74" t="s">
+      <c r="D266" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E266" s="107" t="s">
+      <c r="E266" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="F266" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="G266" s="83" t="s">
+      <c r="F266" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G266" s="87" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="106"/>
-      <c r="B267" s="81"/>
-      <c r="C267" s="113"/>
-      <c r="D267" s="75"/>
+      <c r="B267" s="70"/>
+      <c r="C267" s="73"/>
+      <c r="D267" s="76"/>
       <c r="E267" s="53" t="s">
         <v>419</v>
       </c>
-      <c r="F267" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="G267" s="84"/>
+      <c r="F267" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="G267" s="88"/>
     </row>
     <row r="268" spans="1:7" s="47" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="106"/>
-      <c r="B268" s="82"/>
-      <c r="C268" s="114"/>
-      <c r="D268" s="76"/>
-      <c r="E268" s="108" t="s">
+      <c r="B268" s="71"/>
+      <c r="C268" s="74"/>
+      <c r="D268" s="77"/>
+      <c r="E268" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="F268" s="111" t="s">
+      <c r="F268" s="68" t="s">
         <v>53</v>
       </c>
       <c r="G268" s="52"/>
     </row>
     <row r="269" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="89"/>
+      <c r="A269" s="86"/>
       <c r="B269" s="16" t="s">
         <v>536</v>
       </c>
@@ -7283,16 +7283,16 @@
       <c r="A279" s="32"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="68" t="s">
+      <c r="A280" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="B280" s="68" t="s">
+      <c r="B280" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="C280" s="64" t="s">
+      <c r="C280" s="80" t="s">
         <v>396</v>
       </c>
-      <c r="D280" s="66" t="s">
+      <c r="D280" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E280" s="21" t="s">
@@ -7301,22 +7301,22 @@
       <c r="F280" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G280" s="72" t="s">
+      <c r="G280" s="104" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="69"/>
-      <c r="B281" s="69"/>
-      <c r="C281" s="65"/>
-      <c r="D281" s="67"/>
+      <c r="A281" s="79"/>
+      <c r="B281" s="79"/>
+      <c r="C281" s="81"/>
+      <c r="D281" s="83"/>
       <c r="E281" s="61" t="s">
         <v>324</v>
       </c>
       <c r="F281" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="G281" s="72"/>
+      <c r="G281" s="104"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="60" t="s">
@@ -7359,16 +7359,16 @@
       </c>
     </row>
     <row r="284" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="68" t="s">
+      <c r="A284" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="B284" s="68" t="s">
+      <c r="B284" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="C284" s="64" t="s">
+      <c r="C284" s="80" t="s">
         <v>399</v>
       </c>
-      <c r="D284" s="66" t="s">
+      <c r="D284" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E284" s="21" t="s">
@@ -7377,32 +7377,32 @@
       <c r="F284" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G284" s="72" t="s">
+      <c r="G284" s="104" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="86"/>
-      <c r="B285" s="69"/>
-      <c r="C285" s="65"/>
-      <c r="D285" s="67"/>
+      <c r="A285" s="107"/>
+      <c r="B285" s="79"/>
+      <c r="C285" s="81"/>
+      <c r="D285" s="83"/>
       <c r="E285" s="61" t="s">
         <v>334</v>
       </c>
       <c r="F285" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="G285" s="72"/>
+      <c r="G285" s="104"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="86"/>
-      <c r="B286" s="68" t="s">
+      <c r="A286" s="107"/>
+      <c r="B286" s="78" t="s">
         <v>336</v>
       </c>
-      <c r="C286" s="64" t="s">
+      <c r="C286" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="D286" s="66" t="s">
+      <c r="D286" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E286" s="21" t="s">
@@ -7411,34 +7411,34 @@
       <c r="F286" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G286" s="72" t="s">
+      <c r="G286" s="104" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="69"/>
-      <c r="B287" s="69"/>
-      <c r="C287" s="65"/>
-      <c r="D287" s="67"/>
+      <c r="A287" s="79"/>
+      <c r="B287" s="79"/>
+      <c r="C287" s="81"/>
+      <c r="D287" s="83"/>
       <c r="E287" s="61" t="s">
         <v>337</v>
       </c>
       <c r="F287" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="G287" s="73"/>
+      <c r="G287" s="105"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="68" t="s">
+      <c r="A288" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="B288" s="68" t="s">
+      <c r="B288" s="78" t="s">
         <v>339</v>
       </c>
-      <c r="C288" s="64" t="s">
+      <c r="C288" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="D288" s="66" t="s">
+      <c r="D288" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E288" s="21" t="s">
@@ -7447,22 +7447,22 @@
       <c r="F288" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G288" s="72" t="s">
+      <c r="G288" s="104" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="289" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="69"/>
-      <c r="B289" s="69"/>
-      <c r="C289" s="65"/>
-      <c r="D289" s="67"/>
+      <c r="A289" s="79"/>
+      <c r="B289" s="79"/>
+      <c r="C289" s="81"/>
+      <c r="D289" s="83"/>
       <c r="E289" s="61" t="s">
         <v>105</v>
       </c>
       <c r="F289" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="G289" s="73"/>
+      <c r="G289" s="105"/>
     </row>
     <row r="290" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="60" t="s">
@@ -7499,16 +7499,16 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="68" t="s">
+      <c r="A292" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="B292" s="68" t="s">
+      <c r="B292" s="78" t="s">
         <v>408</v>
       </c>
-      <c r="C292" s="64" t="s">
+      <c r="C292" s="80" t="s">
         <v>409</v>
       </c>
-      <c r="D292" s="66" t="s">
+      <c r="D292" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E292" s="21" t="s">
@@ -7519,10 +7519,10 @@
       </c>
     </row>
     <row r="293" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="86"/>
-      <c r="B293" s="69"/>
-      <c r="C293" s="65"/>
-      <c r="D293" s="67"/>
+      <c r="A293" s="107"/>
+      <c r="B293" s="79"/>
+      <c r="C293" s="81"/>
+      <c r="D293" s="83"/>
       <c r="E293" s="61" t="s">
         <v>410</v>
       </c>
@@ -7531,14 +7531,14 @@
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="86"/>
-      <c r="B294" s="68" t="s">
+      <c r="A294" s="107"/>
+      <c r="B294" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="C294" s="64" t="s">
+      <c r="C294" s="80" t="s">
         <v>412</v>
       </c>
-      <c r="D294" s="66" t="s">
+      <c r="D294" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E294" s="21" t="s">
@@ -7549,10 +7549,10 @@
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="86"/>
-      <c r="B295" s="86"/>
-      <c r="C295" s="102"/>
-      <c r="D295" s="101"/>
+      <c r="A295" s="107"/>
+      <c r="B295" s="107"/>
+      <c r="C295" s="109"/>
+      <c r="D295" s="108"/>
       <c r="E295" s="62" t="s">
         <v>413</v>
       </c>
@@ -7561,10 +7561,10 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="86"/>
-      <c r="B296" s="86"/>
-      <c r="C296" s="102"/>
-      <c r="D296" s="101"/>
+      <c r="A296" s="107"/>
+      <c r="B296" s="107"/>
+      <c r="C296" s="109"/>
+      <c r="D296" s="108"/>
       <c r="E296" s="62" t="s">
         <v>414</v>
       </c>
@@ -7573,10 +7573,10 @@
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="86"/>
-      <c r="B297" s="86"/>
-      <c r="C297" s="102"/>
-      <c r="D297" s="101"/>
+      <c r="A297" s="107"/>
+      <c r="B297" s="107"/>
+      <c r="C297" s="109"/>
+      <c r="D297" s="108"/>
       <c r="E297" s="62" t="s">
         <v>415</v>
       </c>
@@ -7585,10 +7585,10 @@
       </c>
     </row>
     <row r="298" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="69"/>
-      <c r="B298" s="69"/>
-      <c r="C298" s="65"/>
-      <c r="D298" s="67"/>
+      <c r="A298" s="79"/>
+      <c r="B298" s="79"/>
+      <c r="C298" s="81"/>
+      <c r="D298" s="83"/>
       <c r="E298" s="61" t="s">
         <v>416</v>
       </c>
@@ -7597,16 +7597,16 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="68" t="s">
+      <c r="A299" s="78" t="s">
         <v>421</v>
       </c>
-      <c r="B299" s="68" t="s">
+      <c r="B299" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="C299" s="64" t="s">
+      <c r="C299" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="D299" s="66" t="s">
+      <c r="D299" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E299" s="21" t="s">
@@ -7617,10 +7617,10 @@
       </c>
     </row>
     <row r="300" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="69"/>
-      <c r="B300" s="69"/>
-      <c r="C300" s="65"/>
-      <c r="D300" s="67"/>
+      <c r="A300" s="79"/>
+      <c r="B300" s="79"/>
+      <c r="C300" s="81"/>
+      <c r="D300" s="83"/>
       <c r="E300" s="61" t="s">
         <v>424</v>
       </c>
@@ -7629,16 +7629,16 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="68" t="s">
+      <c r="A301" s="78" t="s">
         <v>425</v>
       </c>
-      <c r="B301" s="68" t="s">
+      <c r="B301" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="C301" s="64" t="s">
+      <c r="C301" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="D301" s="66" t="s">
+      <c r="D301" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E301" s="21" t="s">
@@ -7649,10 +7649,10 @@
       </c>
     </row>
     <row r="302" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="69"/>
-      <c r="B302" s="69"/>
-      <c r="C302" s="65"/>
-      <c r="D302" s="67"/>
+      <c r="A302" s="79"/>
+      <c r="B302" s="79"/>
+      <c r="C302" s="81"/>
+      <c r="D302" s="83"/>
       <c r="E302" s="61" t="s">
         <v>427</v>
       </c>
@@ -7661,16 +7661,16 @@
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="68" t="s">
+      <c r="A303" s="78" t="s">
         <v>452</v>
       </c>
-      <c r="B303" s="68" t="s">
+      <c r="B303" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="C303" s="64" t="s">
+      <c r="C303" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="D303" s="66" t="s">
+      <c r="D303" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E303" s="21" t="s">
@@ -7681,10 +7681,10 @@
       </c>
     </row>
     <row r="304" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="69"/>
-      <c r="B304" s="69"/>
-      <c r="C304" s="65"/>
-      <c r="D304" s="67"/>
+      <c r="A304" s="79"/>
+      <c r="B304" s="79"/>
+      <c r="C304" s="81"/>
+      <c r="D304" s="83"/>
       <c r="E304" s="61" t="s">
         <v>454</v>
       </c>
@@ -7693,16 +7693,16 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A305" s="68" t="s">
+      <c r="A305" s="78" t="s">
         <v>459</v>
       </c>
-      <c r="B305" s="68" t="s">
+      <c r="B305" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="C305" s="64" t="s">
+      <c r="C305" s="80" t="s">
         <v>460</v>
       </c>
-      <c r="D305" s="66" t="s">
+      <c r="D305" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E305" s="21" t="s">
@@ -7713,10 +7713,10 @@
       </c>
     </row>
     <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="69"/>
-      <c r="B306" s="69"/>
-      <c r="C306" s="65"/>
-      <c r="D306" s="67"/>
+      <c r="A306" s="79"/>
+      <c r="B306" s="79"/>
+      <c r="C306" s="81"/>
+      <c r="D306" s="83"/>
       <c r="E306" s="61" t="s">
         <v>461</v>
       </c>
@@ -7725,16 +7725,16 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A307" s="68" t="s">
+      <c r="A307" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="B307" s="68" t="s">
+      <c r="B307" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="C307" s="64" t="s">
+      <c r="C307" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="D307" s="66" t="s">
+      <c r="D307" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E307" s="21" t="s">
@@ -7745,10 +7745,10 @@
       </c>
     </row>
     <row r="308" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="69"/>
-      <c r="B308" s="69"/>
-      <c r="C308" s="65"/>
-      <c r="D308" s="67"/>
+      <c r="A308" s="79"/>
+      <c r="B308" s="79"/>
+      <c r="C308" s="81"/>
+      <c r="D308" s="83"/>
       <c r="E308" s="61" t="s">
         <v>468</v>
       </c>
@@ -7757,16 +7757,16 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A309" s="68" t="s">
+      <c r="A309" s="78" t="s">
         <v>526</v>
       </c>
-      <c r="B309" s="68" t="s">
+      <c r="B309" s="78" t="s">
         <v>527</v>
       </c>
-      <c r="C309" s="64" t="s">
+      <c r="C309" s="80" t="s">
         <v>528</v>
       </c>
-      <c r="D309" s="66" t="s">
+      <c r="D309" s="82" t="s">
         <v>8</v>
       </c>
       <c r="E309" s="57" t="s">
@@ -7777,10 +7777,10 @@
       </c>
     </row>
     <row r="310" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="69"/>
-      <c r="B310" s="69"/>
-      <c r="C310" s="65"/>
-      <c r="D310" s="67"/>
+      <c r="A310" s="79"/>
+      <c r="B310" s="79"/>
+      <c r="C310" s="81"/>
+      <c r="D310" s="83"/>
       <c r="E310" s="61" t="s">
         <v>36</v>
       </c>
@@ -7790,170 +7790,16 @@
     </row>
   </sheetData>
   <mergeCells count="212">
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="D266:D268"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="D303:D304"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="A303:A304"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="D309:D310"/>
-    <mergeCell ref="B309:B310"/>
-    <mergeCell ref="A309:A310"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="G46:G65"/>
-    <mergeCell ref="A44:A86"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A89:A94"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="D45:D65"/>
-    <mergeCell ref="C45:C65"/>
-    <mergeCell ref="B45:B65"/>
-    <mergeCell ref="D66:D86"/>
-    <mergeCell ref="C66:C86"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="B66:B86"/>
-    <mergeCell ref="G66:G86"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A122"/>
-    <mergeCell ref="G128:G139"/>
-    <mergeCell ref="A126:A152"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="G111:G122"/>
-    <mergeCell ref="D111:D122"/>
-    <mergeCell ref="C111:C122"/>
-    <mergeCell ref="B111:B122"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="A153:A155"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="G140:G152"/>
-    <mergeCell ref="D140:D152"/>
-    <mergeCell ref="C140:C152"/>
-    <mergeCell ref="B140:B152"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="A156:A161"/>
-    <mergeCell ref="G166:G171"/>
-    <mergeCell ref="D166:D171"/>
-    <mergeCell ref="C166:C171"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="D159:D161"/>
-    <mergeCell ref="C159:C161"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="A165:A178"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="G179:G180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="G172:G178"/>
-    <mergeCell ref="D172:D178"/>
-    <mergeCell ref="C172:C178"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="G198:G199"/>
-    <mergeCell ref="D198:D199"/>
-    <mergeCell ref="C198:C199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D191:D196"/>
-    <mergeCell ref="C191:C196"/>
-    <mergeCell ref="B191:B196"/>
-    <mergeCell ref="A185:A196"/>
-    <mergeCell ref="G186:G190"/>
-    <mergeCell ref="D186:D190"/>
-    <mergeCell ref="C186:C190"/>
-    <mergeCell ref="B186:B190"/>
-    <mergeCell ref="G191:G196"/>
-    <mergeCell ref="G204:G205"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="A209:A220"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="C204:C205"/>
-    <mergeCell ref="D204:D205"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="G225:G229"/>
-    <mergeCell ref="D225:D229"/>
-    <mergeCell ref="C225:C229"/>
-    <mergeCell ref="B225:B229"/>
-    <mergeCell ref="A224:A235"/>
-    <mergeCell ref="B230:B235"/>
-    <mergeCell ref="G210:G214"/>
-    <mergeCell ref="D210:D214"/>
-    <mergeCell ref="C210:C214"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="D215:D220"/>
-    <mergeCell ref="C215:C220"/>
-    <mergeCell ref="B215:B220"/>
-    <mergeCell ref="G215:G220"/>
-    <mergeCell ref="G249:G256"/>
-    <mergeCell ref="D249:D256"/>
-    <mergeCell ref="C230:C235"/>
-    <mergeCell ref="D230:D235"/>
-    <mergeCell ref="G230:G235"/>
-    <mergeCell ref="G242:G248"/>
-    <mergeCell ref="D286:D287"/>
-    <mergeCell ref="G286:G287"/>
-    <mergeCell ref="A257:A264"/>
-    <mergeCell ref="G266:G267"/>
-    <mergeCell ref="A265:A269"/>
-    <mergeCell ref="B249:B256"/>
-    <mergeCell ref="C249:C256"/>
-    <mergeCell ref="A241:A256"/>
-    <mergeCell ref="D242:D248"/>
-    <mergeCell ref="C242:C248"/>
-    <mergeCell ref="B242:B248"/>
-    <mergeCell ref="D257:D263"/>
-    <mergeCell ref="C257:C263"/>
-    <mergeCell ref="B257:B263"/>
-    <mergeCell ref="G257:G263"/>
+    <mergeCell ref="C294:C298"/>
+    <mergeCell ref="B294:B298"/>
+    <mergeCell ref="A292:A298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="D301:D302"/>
+    <mergeCell ref="B301:B302"/>
     <mergeCell ref="G288:G289"/>
     <mergeCell ref="D288:D289"/>
     <mergeCell ref="C288:C289"/>
@@ -7978,6 +7824,172 @@
     <mergeCell ref="C286:C287"/>
     <mergeCell ref="A284:A287"/>
     <mergeCell ref="B286:B287"/>
+    <mergeCell ref="G249:G256"/>
+    <mergeCell ref="D249:D256"/>
+    <mergeCell ref="C230:C235"/>
+    <mergeCell ref="D230:D235"/>
+    <mergeCell ref="G230:G235"/>
+    <mergeCell ref="G242:G248"/>
+    <mergeCell ref="D286:D287"/>
+    <mergeCell ref="G286:G287"/>
+    <mergeCell ref="A257:A264"/>
+    <mergeCell ref="G266:G267"/>
+    <mergeCell ref="A265:A269"/>
+    <mergeCell ref="B249:B256"/>
+    <mergeCell ref="C249:C256"/>
+    <mergeCell ref="A241:A256"/>
+    <mergeCell ref="D242:D248"/>
+    <mergeCell ref="C242:C248"/>
+    <mergeCell ref="B242:B248"/>
+    <mergeCell ref="D257:D263"/>
+    <mergeCell ref="C257:C263"/>
+    <mergeCell ref="B257:B263"/>
+    <mergeCell ref="G257:G263"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A240"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="G225:G229"/>
+    <mergeCell ref="D225:D229"/>
+    <mergeCell ref="C225:C229"/>
+    <mergeCell ref="B225:B229"/>
+    <mergeCell ref="A224:A235"/>
+    <mergeCell ref="B230:B235"/>
+    <mergeCell ref="G210:G214"/>
+    <mergeCell ref="D210:D214"/>
+    <mergeCell ref="C210:C214"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="D215:D220"/>
+    <mergeCell ref="C215:C220"/>
+    <mergeCell ref="B215:B220"/>
+    <mergeCell ref="G215:G220"/>
+    <mergeCell ref="G204:G205"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="A209:A220"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="C204:C205"/>
+    <mergeCell ref="D204:D205"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="G198:G199"/>
+    <mergeCell ref="D198:D199"/>
+    <mergeCell ref="C198:C199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D191:D196"/>
+    <mergeCell ref="C191:C196"/>
+    <mergeCell ref="B191:B196"/>
+    <mergeCell ref="A185:A196"/>
+    <mergeCell ref="G186:G190"/>
+    <mergeCell ref="D186:D190"/>
+    <mergeCell ref="C186:C190"/>
+    <mergeCell ref="B186:B190"/>
+    <mergeCell ref="G191:G196"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="A165:A178"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="G179:G180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="G172:G178"/>
+    <mergeCell ref="D172:D178"/>
+    <mergeCell ref="C172:C178"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="G166:G171"/>
+    <mergeCell ref="D166:D171"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="D159:D161"/>
+    <mergeCell ref="C159:C161"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="G140:G152"/>
+    <mergeCell ref="D140:D152"/>
+    <mergeCell ref="C140:C152"/>
+    <mergeCell ref="B140:B152"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A122"/>
+    <mergeCell ref="G128:G139"/>
+    <mergeCell ref="A126:A152"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="G111:G122"/>
+    <mergeCell ref="D111:D122"/>
+    <mergeCell ref="C111:C122"/>
+    <mergeCell ref="B111:B122"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="G46:G65"/>
+    <mergeCell ref="A44:A86"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A89:A94"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="D45:D65"/>
+    <mergeCell ref="C45:C65"/>
+    <mergeCell ref="B45:B65"/>
+    <mergeCell ref="D66:D86"/>
+    <mergeCell ref="C66:C86"/>
+    <mergeCell ref="B66:B86"/>
+    <mergeCell ref="G66:G86"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="D266:D268"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="D303:D304"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="A303:A304"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="D309:D310"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="A309:A310"/>
     <mergeCell ref="C305:C306"/>
     <mergeCell ref="D305:D306"/>
     <mergeCell ref="A305:A306"/>
@@ -7986,22 +7998,10 @@
     <mergeCell ref="D307:D308"/>
     <mergeCell ref="B307:B308"/>
     <mergeCell ref="A307:A308"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A238:A240"/>
     <mergeCell ref="D292:D293"/>
     <mergeCell ref="C292:C293"/>
     <mergeCell ref="B292:B293"/>
     <mergeCell ref="D294:D298"/>
-    <mergeCell ref="C294:C298"/>
-    <mergeCell ref="B294:B298"/>
-    <mergeCell ref="A292:A298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="D301:D302"/>
-    <mergeCell ref="B301:B302"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -8167,7 +8167,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>248</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -8187,7 +8187,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="16" t="s">
         <v>250</v>
       </c>
@@ -8205,7 +8205,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="16" t="s">
         <v>251</v>
       </c>
@@ -8223,16 +8223,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="110" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="75" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -8241,20 +8241,20 @@
       <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="104"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="76"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="5" t="s">
         <v>259</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -8363,7 +8363,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="82" t="s">
         <v>272</v>
       </c>
       <c r="B2" s="56" t="s">
@@ -8380,7 +8380,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="56" t="s">
         <v>34</v>
       </c>
@@ -8398,7 +8398,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="56" t="s">
         <v>276</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="82" t="s">
         <v>277</v>
       </c>
       <c r="B5" s="56" t="s">
@@ -8442,14 +8442,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="101"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="108"/>
+      <c r="B6" s="82" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="93" t="s">
         <v>481</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="45" t="s">
@@ -8458,45 +8458,45 @@
       <c r="F6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="104" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="101"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="21" t="s">
         <v>281</v>
       </c>
       <c r="F7" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="73"/>
+      <c r="G7" s="105"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="67"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="73"/>
+      <c r="G8" s="105"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="93" t="s">
         <v>482</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="82" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="21" t="s">
@@ -8505,51 +8505,51 @@
       <c r="F9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="104" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="101"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="62" t="s">
         <v>281</v>
       </c>
       <c r="F10" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="104"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="101"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="62" t="s">
         <v>282</v>
       </c>
       <c r="F11" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="72"/>
+      <c r="G11" s="104"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="61" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="72"/>
+      <c r="G12" s="104"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="103" t="s">
+      <c r="A13" s="112" t="s">
         <v>284</v>
       </c>
       <c r="B13" s="56" t="s">
@@ -8563,7 +8563,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="56" t="s">
         <v>34</v>
       </c>
@@ -8584,7 +8584,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="56" t="s">
         <v>286</v>
       </c>
@@ -8605,7 +8605,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="82" t="s">
         <v>287</v>
       </c>
       <c r="B16" s="56" t="s">
@@ -8625,14 +8625,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="82" t="s">
         <v>289</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="93" t="s">
         <v>481</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="45" t="s">
@@ -8641,136 +8641,136 @@
       <c r="F17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="104" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="101"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="21" t="s">
         <v>290</v>
       </c>
       <c r="F18" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="73"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="101"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="108"/>
       <c r="E19" s="62" t="s">
         <v>501</v>
       </c>
       <c r="F19" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="73"/>
+      <c r="G19" s="105"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="101"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="108"/>
       <c r="E20" s="62" t="s">
         <v>294</v>
       </c>
       <c r="F20" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="73"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="101"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="108"/>
       <c r="E21" s="62" t="s">
         <v>502</v>
       </c>
       <c r="F21" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="73"/>
+      <c r="G21" s="105"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="101"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="108"/>
       <c r="E22" s="45" t="s">
         <v>246</v>
       </c>
       <c r="F22" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="73"/>
+      <c r="G22" s="105"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="101"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="101"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="108"/>
       <c r="E23" s="62" t="s">
         <v>247</v>
       </c>
       <c r="F23" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="73"/>
+      <c r="G23" s="105"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="101"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="108"/>
       <c r="E24" s="62" t="s">
         <v>255</v>
       </c>
       <c r="F24" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="73"/>
+      <c r="G24" s="105"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="101"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="108"/>
       <c r="E25" s="62" t="s">
         <v>297</v>
       </c>
       <c r="F25" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="73"/>
+      <c r="G25" s="105"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="67"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="61" t="s">
         <v>298</v>
       </c>
       <c r="F26" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="73"/>
+      <c r="G26" s="105"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="101"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="108"/>
+      <c r="B27" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="93" t="s">
         <v>482</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="82" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="21" t="s">
@@ -8779,124 +8779,124 @@
       <c r="F27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="104" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="101"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="101"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="108"/>
       <c r="E28" s="62" t="s">
         <v>290</v>
       </c>
       <c r="F28" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="73"/>
+      <c r="G28" s="105"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="101"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="101"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="108"/>
       <c r="E29" s="62" t="s">
         <v>291</v>
       </c>
       <c r="F29" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="73"/>
+      <c r="G29" s="105"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="101"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="108"/>
       <c r="E30" s="62" t="s">
         <v>292</v>
       </c>
       <c r="F30" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="73"/>
+      <c r="G30" s="105"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="101"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="108"/>
       <c r="E31" s="62" t="s">
         <v>293</v>
       </c>
       <c r="F31" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="73"/>
+      <c r="G31" s="105"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="101"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="108"/>
       <c r="E32" s="62" t="s">
         <v>294</v>
       </c>
       <c r="F32" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="73"/>
+      <c r="G32" s="105"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="101"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="108"/>
       <c r="E33" s="62" t="s">
         <v>295</v>
       </c>
       <c r="F33" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="73"/>
+      <c r="G33" s="105"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="101"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="108"/>
       <c r="E34" s="62" t="s">
         <v>296</v>
       </c>
       <c r="F34" s="62"/>
-      <c r="G34" s="73"/>
+      <c r="G34" s="105"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="101"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="62" t="s">
         <v>297</v>
       </c>
       <c r="F35" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="73"/>
+      <c r="G35" s="105"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="67"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="61" t="s">
         <v>298</v>
       </c>
       <c r="F36" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="73"/>
+      <c r="G36" s="105"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
@@ -8938,16 +8938,16 @@
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="82" t="s">
         <v>483</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="82" t="s">
         <v>422</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="93" t="s">
         <v>484</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="57" t="s">
@@ -8958,10 +8958,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="67"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="61" t="s">
         <v>485</v>
       </c>
@@ -8970,16 +8970,16 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="82" t="s">
         <v>489</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="93" t="s">
         <v>491</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="D46" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="57" t="s">
@@ -8990,10 +8990,10 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="101"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="67"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="61" t="s">
         <v>500</v>
       </c>
@@ -9002,14 +9002,14 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="101"/>
-      <c r="B48" s="66" t="s">
+      <c r="A48" s="108"/>
+      <c r="B48" s="82" t="s">
         <v>492</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="93" t="s">
         <v>493</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="57" t="s">
@@ -9020,10 +9020,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="101"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="101"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="108"/>
       <c r="E49" s="62" t="s">
         <v>494</v>
       </c>
@@ -9032,10 +9032,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="101"/>
-      <c r="B50" s="101"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="101"/>
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="62" t="s">
         <v>495</v>
       </c>
@@ -9044,10 +9044,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="101"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="101"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="108"/>
       <c r="E51" s="62" t="s">
         <v>496</v>
       </c>
@@ -9056,10 +9056,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="101"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="101"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="108"/>
       <c r="E52" s="62" t="s">
         <v>497</v>
       </c>
@@ -9068,10 +9068,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="101"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="101"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="108"/>
       <c r="E53" s="62" t="s">
         <v>498</v>
       </c>
@@ -9080,10 +9080,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="67"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="67"/>
+      <c r="A54" s="83"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="61" t="s">
         <v>499</v>
       </c>
@@ -9092,16 +9092,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="82" t="s">
         <v>503</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="C55" s="77" t="s">
+      <c r="C55" s="93" t="s">
         <v>505</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="82" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="57" t="s">
@@ -9112,10 +9112,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="101"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="67"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="61" t="s">
         <v>506</v>
       </c>
@@ -9124,14 +9124,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="101"/>
-      <c r="B57" s="66" t="s">
+      <c r="A57" s="108"/>
+      <c r="B57" s="82" t="s">
         <v>507</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="93" t="s">
         <v>508</v>
       </c>
-      <c r="D57" s="66" t="s">
+      <c r="D57" s="82" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="57" t="s">
@@ -9142,10 +9142,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="101"/>
-      <c r="B58" s="101"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="101"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="108"/>
       <c r="E58" s="62" t="s">
         <v>509</v>
       </c>
@@ -9154,10 +9154,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="101"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="101"/>
+      <c r="A59" s="108"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="108"/>
       <c r="E59" s="62" t="s">
         <v>510</v>
       </c>
@@ -9166,10 +9166,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="101"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="101"/>
+      <c r="A60" s="108"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="108"/>
       <c r="E60" s="62" t="s">
         <v>511</v>
       </c>
@@ -9178,10 +9178,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="101"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="101"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="108"/>
       <c r="E61" s="62" t="s">
         <v>512</v>
       </c>
@@ -9190,10 +9190,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="101"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="101"/>
+      <c r="A62" s="108"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="108"/>
       <c r="E62" s="62" t="s">
         <v>513</v>
       </c>
@@ -9202,10 +9202,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="101"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="101"/>
+      <c r="A63" s="108"/>
+      <c r="B63" s="108"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="108"/>
       <c r="E63" s="62" t="s">
         <v>514</v>
       </c>
@@ -9214,10 +9214,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="101"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="101"/>
+      <c r="A64" s="108"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="108"/>
       <c r="E64" s="62" t="s">
         <v>515</v>
       </c>
@@ -9226,10 +9226,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="101"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="67"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="61" t="s">
         <v>516</v>
       </c>
@@ -9238,7 +9238,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="101"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="56" t="s">
         <v>518</v>
       </c>
@@ -9256,14 +9256,14 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="101"/>
-      <c r="B67" s="66" t="s">
+      <c r="A67" s="108"/>
+      <c r="B67" s="82" t="s">
         <v>520</v>
       </c>
-      <c r="C67" s="77" t="s">
+      <c r="C67" s="93" t="s">
         <v>521</v>
       </c>
-      <c r="D67" s="66" t="s">
+      <c r="D67" s="82" t="s">
         <v>35</v>
       </c>
       <c r="E67" s="57" t="s">
@@ -9274,10 +9274,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="101"/>
-      <c r="B68" s="101"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="101"/>
+      <c r="A68" s="108"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="108"/>
       <c r="E68" s="62" t="s">
         <v>509</v>
       </c>
@@ -9286,10 +9286,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="101"/>
-      <c r="B69" s="101"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="101"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="108"/>
       <c r="E69" s="62" t="s">
         <v>510</v>
       </c>
@@ -9298,10 +9298,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="101"/>
-      <c r="B70" s="101"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="101"/>
+      <c r="A70" s="108"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="108"/>
       <c r="E70" s="62" t="s">
         <v>511</v>
       </c>
@@ -9310,10 +9310,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="101"/>
-      <c r="B71" s="101"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="101"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="108"/>
       <c r="E71" s="62" t="s">
         <v>512</v>
       </c>
@@ -9322,10 +9322,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="101"/>
-      <c r="B72" s="101"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="101"/>
+      <c r="A72" s="108"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="108"/>
       <c r="E72" s="62" t="s">
         <v>513</v>
       </c>
@@ -9334,10 +9334,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="101"/>
-      <c r="B73" s="101"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="101"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="108"/>
       <c r="E73" s="62" t="s">
         <v>514</v>
       </c>
@@ -9346,10 +9346,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="101"/>
-      <c r="B74" s="101"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="101"/>
+      <c r="A74" s="108"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="108"/>
       <c r="E74" s="62" t="s">
         <v>515</v>
       </c>
@@ -9358,10 +9358,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="101"/>
-      <c r="B75" s="67"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="67"/>
+      <c r="A75" s="108"/>
+      <c r="B75" s="83"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="61" t="s">
         <v>516</v>
       </c>
@@ -9370,7 +9370,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="101"/>
+      <c r="A76" s="108"/>
       <c r="B76" s="56" t="s">
         <v>522</v>
       </c>
@@ -9382,7 +9382,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="67"/>
+      <c r="A77" s="83"/>
       <c r="B77" s="56" t="s">
         <v>524</v>
       </c>
@@ -9401,36 +9401,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D57:D65"/>
-    <mergeCell ref="D67:D75"/>
-    <mergeCell ref="A55:A77"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="C67:C75"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="G17:G26"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="C17:C26"/>
-    <mergeCell ref="B17:B26"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="C27:C36"/>
-    <mergeCell ref="D27:D36"/>
-    <mergeCell ref="G27:G36"/>
-    <mergeCell ref="B27:B36"/>
-    <mergeCell ref="A16:A36"/>
     <mergeCell ref="D48:D54"/>
     <mergeCell ref="C48:C54"/>
     <mergeCell ref="B48:B54"/>
@@ -9442,6 +9412,36 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C27:C36"/>
+    <mergeCell ref="D27:D36"/>
+    <mergeCell ref="G27:G36"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="A16:A36"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="G17:G26"/>
+    <mergeCell ref="D17:D26"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="B17:B26"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D65"/>
+    <mergeCell ref="D67:D75"/>
+    <mergeCell ref="A55:A77"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="C67:C75"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -9478,7 +9478,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
